--- a/services/services.xlsx
+++ b/services/services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roise\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289C5919-823D-491E-8D38-029E8FF16CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EC5D14-D0C6-4D84-B19D-836A4A6C5446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30255" yWindow="3945" windowWidth="27210" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Services" sheetId="1" r:id="rId1"/>
@@ -1778,34 +1778,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A59" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C8" sqref="C8:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1"/>
-    <col min="12" max="16" width="8.88671875" customWidth="1"/>
-    <col min="17" max="17" width="9.6640625" customWidth="1"/>
-    <col min="18" max="19" width="9.33203125" customWidth="1"/>
-    <col min="20" max="20" width="13.109375" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" customWidth="1"/>
-    <col min="22" max="22" width="8.5546875" customWidth="1"/>
-    <col min="23" max="23" width="62.88671875" customWidth="1"/>
-    <col min="24" max="26" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+    <col min="12" max="16" width="8.85546875" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" customWidth="1"/>
+    <col min="18" max="19" width="9.28515625" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1"/>
+    <col min="21" max="21" width="11.7109375" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" customWidth="1"/>
+    <col min="23" max="23" width="62.85546875" customWidth="1"/>
+    <col min="24" max="26" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>224</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>246</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>247</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>248</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>169</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>249</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>233</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>236</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>163</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
     </row>
-    <row r="16" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>173</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>155</v>
       </c>
@@ -2560,7 +2560,7 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>227</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>240</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>160</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>146</v>
       </c>
@@ -2770,7 +2770,7 @@
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>166</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>238</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>242</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>171</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
     </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>206</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>202</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>148</v>
       </c>
@@ -3566,7 +3566,7 @@
       </c>
       <c r="W38" s="1"/>
     </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>157</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>208</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
@@ -3888,7 +3888,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>85</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>263</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>259</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>245</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>98</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>198</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>110</v>
       </c>
@@ -4154,7 +4154,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>195</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>210</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>213</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>219</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>221</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>217</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>113</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>151</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>231</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>117</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>144</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>153</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>139</v>
       </c>
@@ -4777,7 +4777,7 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
     </row>
-    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>229</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>119</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>124</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>134</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>234</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>244</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>137</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>129</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>131</v>
       </c>
@@ -5235,7 +5235,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>126</v>
       </c>
@@ -5292,927 +5292,927 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6226,35 +6226,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4F48D-A64C-44BD-B29D-A1DEC991488E}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="23" width="14.88671875" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="26" max="26" width="13.6640625" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>224</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>227</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>4779956</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>229</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>231</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>13047077</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>233</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>234</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>236</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>81618257</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>238</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>2268955</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>240</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>29309993</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>242</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>265</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>244</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>245</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>246</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>247</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>12283514</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>248</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>1896399</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>263</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>1207367</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>249</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>1456977</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>259</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>3175293</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>261</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>28951772</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>265</v>
       </c>
@@ -7194,13 +7194,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="26" width="11.44140625" customWidth="1"/>
+    <col min="2" max="26" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
@@ -7208,7 +7208,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>180</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>115</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>150</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>143</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>ROWS(A2:A12)</f>
         <v>11</v>
@@ -7317,986 +7317,986 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8311,14 +8311,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="26" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="26" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>181</v>
       </c>
@@ -8326,7 +8326,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>121</v>
       </c>
@@ -8334,7 +8334,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>83</v>
       </c>
@@ -8350,7 +8350,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>67</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>180</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>115</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>150</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>143</v>
       </c>
@@ -8398,7 +8398,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
@@ -8414,986 +8414,986 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -9408,28 +9408,28 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.7109375" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="14.88671875" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
@@ -9542,7 +9542,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>108</v>
       </c>

--- a/services/services.xlsx
+++ b/services/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EC5D14-D0C6-4D84-B19D-836A4A6C5446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA4F4F4-BAF9-41F8-A5D0-ECDE29958272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30255" yWindow="3945" windowWidth="27210" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Services" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="267">
   <si>
     <t>Website</t>
   </si>
@@ -838,17 +838,27 @@
   </si>
   <si>
     <t>dubsmash</t>
+  </si>
+  <si>
+    <t>dubsmash.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -957,16 +967,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1511,8 +1522,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6D968D3F-FB27-4F9E-AEE1-318A2D266852}" name="Table3" displayName="Table3" ref="A1:AA22" totalsRowShown="0">
-  <autoFilter ref="A1:AA22" xr:uid="{6D968D3F-FB27-4F9E-AEE1-318A2D266852}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6D968D3F-FB27-4F9E-AEE1-318A2D266852}" name="Table3" displayName="Table3" ref="A1:AA21" totalsRowShown="0">
+  <autoFilter ref="A1:AA21" xr:uid="{6D968D3F-FB27-4F9E-AEE1-318A2D266852}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA21">
+    <sortCondition ref="A1:A21"/>
+  </sortState>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{56E87647-17B6-48DA-A9F7-32B62327C70F}" name="Website" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{D901CD1D-6C5D-4273-984A-408CC59BA285}" name="Domain name"/>
@@ -6224,11 +6238,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4F48D-A64C-44BD-B29D-A1DEC991488E}">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6439,217 +6453,175 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>230</v>
+        <v>246</v>
+      </c>
+      <c r="B4" t="s">
+        <v>254</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="7">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="7">
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="V4">
         <v>1</v>
       </c>
       <c r="X4" s="6">
-        <v>43435</v>
+        <v>42691</v>
       </c>
       <c r="Y4">
-        <v>22077067</v>
+        <v>6038126</v>
       </c>
       <c r="Z4">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
       <c r="J5" s="7">
         <v>1</v>
       </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
       <c r="N5" s="7">
         <v>1</v>
       </c>
-      <c r="O5" s="7">
-        <v>1</v>
-      </c>
-      <c r="R5" s="7">
-        <v>1</v>
-      </c>
-      <c r="U5" s="7">
+      <c r="T5" s="7">
         <v>1</v>
       </c>
       <c r="X5" s="6">
-        <v>43319</v>
+        <v>43218</v>
       </c>
       <c r="Y5">
-        <v>13047077</v>
+        <v>29309993</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>135</v>
+        <v>247</v>
+      </c>
+      <c r="B6" t="s">
+        <v>255</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="7">
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <v>1</v>
-      </c>
-      <c r="L6" s="7">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1</v>
-      </c>
-      <c r="N6" s="7">
-        <v>1</v>
-      </c>
-      <c r="S6" s="7">
-        <v>1</v>
-      </c>
-      <c r="T6" s="7">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="V6">
         <v>1</v>
       </c>
       <c r="X6" s="6">
-        <v>41034</v>
+        <v>43739</v>
       </c>
       <c r="Y6">
-        <v>67241910</v>
-      </c>
-      <c r="Z6">
-        <v>6</v>
-      </c>
-      <c r="AA6" s="7" t="s">
-        <v>27</v>
+        <v>12283514</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="T7" s="7">
+        <v>1</v>
+      </c>
+      <c r="X7" s="6">
+        <v>41091</v>
+      </c>
+      <c r="Y7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7">
-        <v>1</v>
-      </c>
-      <c r="L7" s="7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>1</v>
-      </c>
-      <c r="S7" s="7">
-        <v>1</v>
-      </c>
-      <c r="T7" s="7">
-        <v>1</v>
-      </c>
-      <c r="X7" s="6">
-        <v>42429</v>
-      </c>
-      <c r="Y7">
-        <v>27401746</v>
-      </c>
-      <c r="Z7">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="F8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
       <c r="J8" s="7">
         <v>1</v>
       </c>
-      <c r="K8" s="7">
-        <v>1</v>
-      </c>
-      <c r="L8" s="7">
-        <v>1</v>
-      </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
@@ -6659,256 +6631,220 @@
       <c r="O8" s="7">
         <v>1</v>
       </c>
-      <c r="T8" s="7">
+      <c r="Q8" s="7">
         <v>1</v>
       </c>
       <c r="X8" s="6">
-        <v>43034</v>
+        <v>43435</v>
       </c>
       <c r="Y8">
-        <v>81618257</v>
+        <v>22077067</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>239</v>
+      <c r="A9" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>266</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="J9" s="7">
         <v>1</v>
       </c>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
       <c r="N9" s="7">
         <v>1</v>
       </c>
-      <c r="U9" s="7">
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7">
         <v>1</v>
       </c>
       <c r="X9" s="6">
-        <v>43290</v>
+        <v>43435</v>
       </c>
       <c r="Y9">
-        <v>2268955</v>
+        <v>50000</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
+      </c>
+      <c r="B10" t="s">
+        <v>256</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
-      <c r="T10" s="7">
-        <v>1</v>
-      </c>
-      <c r="X10" s="6">
-        <v>43218</v>
+        <v>143</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
       </c>
       <c r="Y10">
-        <v>29309993</v>
+        <v>1896399</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>45</v>
+      <c r="A11" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1</v>
-      </c>
-      <c r="T11" s="7">
-        <v>1</v>
-      </c>
-      <c r="X11" s="6">
-        <v>41091</v>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>50000</v>
+        <v>1207367</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>265</v>
+      <c r="A12" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="J12" s="7">
         <v>1</v>
       </c>
-      <c r="M12" s="7">
-        <v>1</v>
-      </c>
       <c r="N12" s="7">
         <v>1</v>
       </c>
       <c r="O12" s="7">
         <v>1</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="R12" s="7">
+        <v>1</v>
+      </c>
+      <c r="U12" s="7">
         <v>1</v>
       </c>
       <c r="X12" s="6">
-        <v>43435</v>
+        <v>43319</v>
       </c>
       <c r="Y12">
-        <v>50000</v>
-      </c>
-      <c r="Z12">
-        <v>5</v>
-      </c>
-      <c r="AA12" s="7" t="s">
-        <v>27</v>
+        <v>13047077</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>121</v>
+        <v>249</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" t="s">
+        <v>225</v>
       </c>
       <c r="F13">
         <v>6</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7">
-        <v>1</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1</v>
-      </c>
-      <c r="L13" s="7">
-        <v>1</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1</v>
-      </c>
-      <c r="S13">
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="U13">
         <v>1</v>
       </c>
       <c r="X13" s="6">
-        <v>39630</v>
+        <v>41686</v>
       </c>
       <c r="Y13">
-        <v>50000</v>
+        <v>1456977</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B14" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="X14" s="6">
-        <v>43709</v>
-      </c>
       <c r="Y14">
-        <v>50000</v>
+        <v>3175293</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B15" t="s">
-        <v>254</v>
+        <v>233</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>143</v>
@@ -6916,194 +6852,275 @@
       <c r="F15">
         <v>6</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="V15">
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7">
+        <v>1</v>
+      </c>
+      <c r="S15" s="7">
+        <v>1</v>
+      </c>
+      <c r="T15" s="7">
         <v>1</v>
       </c>
       <c r="X15" s="6">
-        <v>42691</v>
+        <v>41034</v>
       </c>
       <c r="Y15">
-        <v>6038126</v>
+        <v>67241910</v>
       </c>
       <c r="Z15">
         <v>6</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AA15" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B16" t="s">
-        <v>255</v>
+        <v>234</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="F16">
-        <v>8</v>
-      </c>
-      <c r="G16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>1</v>
-      </c>
-      <c r="V16">
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>1</v>
+      </c>
+      <c r="S16" s="7">
+        <v>1</v>
+      </c>
+      <c r="T16" s="7">
         <v>1</v>
       </c>
       <c r="X16" s="6">
-        <v>43739</v>
+        <v>42429</v>
       </c>
       <c r="Y16">
-        <v>12283514</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+        <v>27401746</v>
+      </c>
+      <c r="Z16">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" t="s">
-        <v>256</v>
+        <v>236</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1</v>
+      </c>
+      <c r="O17" s="7">
+        <v>1</v>
+      </c>
+      <c r="T17" s="7">
+        <v>1</v>
+      </c>
+      <c r="X17" s="6">
+        <v>43034</v>
       </c>
       <c r="Y17">
-        <v>1896399</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="10" t="s">
+        <v>81618257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="7">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="X18" s="6">
+        <v>39630</v>
+      </c>
+      <c r="Y18">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1</v>
+      </c>
+      <c r="U19" s="7">
+        <v>1</v>
+      </c>
+      <c r="X19" s="6">
+        <v>43290</v>
+      </c>
+      <c r="Y19">
+        <v>2268955</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="X20" s="6">
+        <v>43252</v>
+      </c>
+      <c r="Y20">
+        <v>28951772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="Y18">
-        <v>1207367</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" t="s">
-        <v>225</v>
-      </c>
-      <c r="F19">
-        <v>6</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="X19" s="6">
-        <v>41686</v>
-      </c>
-      <c r="Y19">
-        <v>1456977</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" t="s">
-        <v>260</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y20">
-        <v>3175293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>261</v>
-      </c>
-      <c r="B21" t="s">
-        <v>262</v>
-      </c>
-      <c r="C21" t="s">
-        <v>115</v>
-      </c>
       <c r="F21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
         <v>27</v>
@@ -7117,64 +7134,17 @@
       <c r="N21">
         <v>1</v>
       </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="R21">
+      <c r="S21">
         <v>1</v>
       </c>
       <c r="U21">
         <v>1</v>
       </c>
       <c r="X21" s="6">
-        <v>43252</v>
+        <v>43709</v>
       </c>
       <c r="Y21">
-        <v>28951772</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="7">
-        <v>1</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1</v>
-      </c>
-      <c r="O22" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>1</v>
-      </c>
-      <c r="X22" s="6">
-        <v>43435</v>
-      </c>
-      <c r="Y22">
-        <v>22077067</v>
-      </c>
-      <c r="Z22">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="7" t="s">
-        <v>27</v>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>

--- a/services/services.xlsx
+++ b/services/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA4F4F4-BAF9-41F8-A5D0-ECDE29958272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D38D56-2116-4144-AEC9-ABE07F0A3D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Services" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="274">
   <si>
     <t>Website</t>
   </si>
@@ -841,13 +841,34 @@
   </si>
   <si>
     <t>dubsmash.com</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>cnn.com</t>
+  </si>
+  <si>
+    <t>Globo</t>
+  </si>
+  <si>
+    <t>globo.com</t>
+  </si>
+  <si>
+    <t>Theguardian</t>
+  </si>
+  <si>
+    <t>theguardian.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,8 +924,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -915,6 +943,11 @@
       <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -964,10 +997,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -980,8 +1014,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
@@ -1522,10 +1558,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6D968D3F-FB27-4F9E-AEE1-318A2D266852}" name="Table3" displayName="Table3" ref="A1:AA21" totalsRowShown="0">
-  <autoFilter ref="A1:AA21" xr:uid="{6D968D3F-FB27-4F9E-AEE1-318A2D266852}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA21">
-    <sortCondition ref="A1:A21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6D968D3F-FB27-4F9E-AEE1-318A2D266852}" name="Table3" displayName="Table3" ref="A1:AA20" totalsRowShown="0">
+  <autoFilter ref="A1:AA20" xr:uid="{6D968D3F-FB27-4F9E-AEE1-318A2D266852}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA20">
+    <sortCondition ref="A1:A20"/>
   </sortState>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{56E87647-17B6-48DA-A9F7-32B62327C70F}" name="Website" dataDxfId="24"/>
@@ -1561,31 +1597,31 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{946D6494-D706-452F-A1B2-A66E079CB5A2}" name="Table2" displayName="Table2" ref="A1:W3" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{946D6494-D706-452F-A1B2-A66E079CB5A2}" name="Table2" displayName="Table2" ref="A1:W3" totalsRowShown="0" headerRowDxfId="23" dataDxfId="0">
   <autoFilter ref="A1:W3" xr:uid="{946D6494-D706-452F-A1B2-A66E079CB5A2}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{BA484C69-3205-4F0A-945B-A88ADB483981}" name="Website" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{8EFCC907-AB07-47E7-95B1-208B8FF6C5F9}" name="Domain name" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{ED19FC05-228E-4996-A3D5-F579EE715F60}" name="Type" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{CE6960E2-FE14-4BB8-BD93-1C8E7A559E25}" name="Company" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{17FF8C25-9C48-46C3-8A24-8293B30B6EF8}" name="Country" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{F7343669-C795-4CC1-8763-D0E3064DE516}" name="min length" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{16525D02-FCAA-4761-ADCD-CC73F060DE5E}" name="min mask" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{38EF1F53-AE7D-41ED-80C9-8E6B560F0C85}" name="extra sec" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{C0FABE89-EDBF-47AE-B9D7-140124C190C2}" name="2fa" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{FEBA891E-3DF8-4C11-AD16-DD2BE9DE17CD}" name="name" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{F670B2B9-7737-4740-96FC-A93A9E55335B}" name="birth date" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{CA9C4BED-5B03-428D-B680-A9AC1B620D5D}" name="gender" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{DF9CF01E-222F-4268-BC15-FDAD54906605}" name="photo" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{91BBC4E7-9C12-4E44-95DF-5F774988F9FF}" name="email" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{9357CED0-3B93-4260-A0F9-2FEF6F4F5FB3}" name="tlf" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{AF37C082-316B-400F-9D5F-A17EC8D19FDA}" name="nacionality" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{B9AAFFD0-F1DA-44E9-9AD0-9DFC09B8116D}" name="location" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{6897A40E-6EE9-4D2B-B0B5-B50BDD6921AF}" name="address" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{F44809CD-48C2-417F-B7E0-7CE7E44E15C6}" name="Messages" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{8D031D5C-DF9A-4FC9-83B3-CDEC005F3D1C}" name="subscription" dataDxfId="2"/>
-    <tableColumn id="21" xr3:uid="{5410FF9E-8676-4B69-A9B2-8DF661977C01}" name="purchases" dataDxfId="1"/>
-    <tableColumn id="22" xr3:uid="{5ED40E59-9A2D-42A7-907D-D4CF76EF28C6}" name="personal info" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BA484C69-3205-4F0A-945B-A88ADB483981}" name="Website" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{8EFCC907-AB07-47E7-95B1-208B8FF6C5F9}" name="Domain name" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{ED19FC05-228E-4996-A3D5-F579EE715F60}" name="Type" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{CE6960E2-FE14-4BB8-BD93-1C8E7A559E25}" name="Company" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{17FF8C25-9C48-46C3-8A24-8293B30B6EF8}" name="Country" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{F7343669-C795-4CC1-8763-D0E3064DE516}" name="min length" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{16525D02-FCAA-4761-ADCD-CC73F060DE5E}" name="min mask" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{38EF1F53-AE7D-41ED-80C9-8E6B560F0C85}" name="extra sec" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{C0FABE89-EDBF-47AE-B9D7-140124C190C2}" name="2fa" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{FEBA891E-3DF8-4C11-AD16-DD2BE9DE17CD}" name="name" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{F670B2B9-7737-4740-96FC-A93A9E55335B}" name="birth date" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{CA9C4BED-5B03-428D-B680-A9AC1B620D5D}" name="gender" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{DF9CF01E-222F-4268-BC15-FDAD54906605}" name="photo" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{91BBC4E7-9C12-4E44-95DF-5F774988F9FF}" name="email" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{9357CED0-3B93-4260-A0F9-2FEF6F4F5FB3}" name="tlf" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{AF37C082-316B-400F-9D5F-A17EC8D19FDA}" name="nacionality" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{B9AAFFD0-F1DA-44E9-9AD0-9DFC09B8116D}" name="location" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{6897A40E-6EE9-4D2B-B0B5-B50BDD6921AF}" name="address" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{F44809CD-48C2-417F-B7E0-7CE7E44E15C6}" name="Messages" dataDxfId="4"/>
+    <tableColumn id="20" xr3:uid="{8D031D5C-DF9A-4FC9-83B3-CDEC005F3D1C}" name="subscription" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{5410FF9E-8676-4B69-A9B2-8DF661977C01}" name="purchases" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{5ED40E59-9A2D-42A7-907D-D4CF76EF28C6}" name="personal info" dataDxfId="1"/>
     <tableColumn id="23" xr3:uid="{E49F45BE-1D9B-41CC-9A17-8D6AE68AE4FC}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1792,9 +1828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C8" sqref="C8:C14"/>
+      <selection pane="topRight" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4041,184 +4077,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F49" s="1">
-        <v>8</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1">
-        <v>1</v>
-      </c>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1">
-        <v>1</v>
-      </c>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1">
-        <v>1</v>
-      </c>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B50" t="s">
-        <v>199</v>
-      </c>
-      <c r="C50" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" t="s">
-        <v>200</v>
-      </c>
-      <c r="F50">
-        <v>8</v>
-      </c>
-      <c r="G50" t="s">
-        <v>38</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>1</v>
-      </c>
-      <c r="W50" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1">
-        <v>8</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1">
-        <v>1</v>
-      </c>
-      <c r="J51" s="1">
-        <v>1</v>
-      </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1">
-        <v>1</v>
-      </c>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1">
-        <v>1</v>
-      </c>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
+    <row r="49" spans="1:23" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>104</v>
+        <v>198</v>
+      </c>
+      <c r="B52" t="s">
+        <v>199</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F52" s="1">
+        <v>267</v>
+      </c>
+      <c r="E52" t="s">
+        <v>200</v>
+      </c>
+      <c r="F52">
         <v>8</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1">
-        <v>1</v>
-      </c>
-      <c r="J52" s="1">
-        <v>1</v>
-      </c>
-      <c r="K52" s="1">
-        <v>1</v>
-      </c>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1">
-        <v>1</v>
-      </c>
-      <c r="O52" s="1">
-        <v>1</v>
-      </c>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1">
-        <v>1</v>
-      </c>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1" t="s">
-        <v>102</v>
+      <c r="G52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="W52" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4228,8 +4152,8 @@
       <c r="B53" t="s">
         <v>196</v>
       </c>
-      <c r="C53" t="s">
-        <v>97</v>
+      <c r="C53" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="E53" t="s">
         <v>47</v>
@@ -6238,11 +6162,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4F48D-A64C-44BD-B29D-A1DEC991488E}">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6648,206 +6572,212 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>266</v>
+      <c r="A9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" t="s">
+        <v>256</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="G9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1896399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="7">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
-      <c r="O9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>1</v>
-      </c>
-      <c r="X9" s="6">
-        <v>43435</v>
-      </c>
-      <c r="Y9">
-        <v>50000</v>
-      </c>
-      <c r="Z9">
-        <v>5</v>
-      </c>
-      <c r="AA9" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>143</v>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1</v>
       </c>
       <c r="Y10">
-        <v>1896399</v>
+        <v>1207367</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>83</v>
+      <c r="A11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
+      <c r="G11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1</v>
+      </c>
+      <c r="R11" s="7">
+        <v>1</v>
+      </c>
+      <c r="U11" s="7">
+        <v>1</v>
+      </c>
+      <c r="X11" s="6">
+        <v>43319</v>
       </c>
       <c r="Y11">
-        <v>1207367</v>
+        <v>13047077</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>115</v>
+        <v>249</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
       </c>
       <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1</v>
-      </c>
-      <c r="O12" s="7">
-        <v>1</v>
-      </c>
-      <c r="R12" s="7">
-        <v>1</v>
-      </c>
-      <c r="U12" s="7">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="U12">
         <v>1</v>
       </c>
       <c r="X12" s="6">
-        <v>43319</v>
+        <v>41686</v>
       </c>
       <c r="Y12">
-        <v>13047077</v>
+        <v>1456977</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" t="s">
-        <v>225</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="X13" s="6">
-        <v>41686</v>
+        <v>259</v>
+      </c>
+      <c r="B13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="Y13">
-        <v>1456977</v>
+        <v>3175293</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B14" t="s">
-        <v>260</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>83</v>
+        <v>233</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1</v>
+      </c>
+      <c r="S14" s="7">
+        <v>1</v>
+      </c>
+      <c r="T14" s="7">
+        <v>1</v>
+      </c>
+      <c r="X14" s="6">
+        <v>41034</v>
       </c>
       <c r="Y14">
-        <v>3175293</v>
+        <v>67241910</v>
+      </c>
+      <c r="Z14">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -6855,12 +6785,12 @@
       <c r="G15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
       <c r="J15" s="7">
         <v>1</v>
       </c>
+      <c r="K15" s="7">
+        <v>1</v>
+      </c>
       <c r="L15" s="7">
         <v>1</v>
       </c>
@@ -6870,6 +6800,9 @@
       <c r="N15" s="7">
         <v>1</v>
       </c>
+      <c r="Q15" s="7">
+        <v>1</v>
+      </c>
       <c r="S15" s="7">
         <v>1</v>
       </c>
@@ -6877,10 +6810,10 @@
         <v>1</v>
       </c>
       <c r="X15" s="6">
-        <v>41034</v>
+        <v>42429</v>
       </c>
       <c r="Y15">
-        <v>67241910</v>
+        <v>27401746</v>
       </c>
       <c r="Z15">
         <v>6</v>
@@ -6891,20 +6824,23 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
       <c r="J16" s="7">
         <v>1</v>
       </c>
@@ -6920,43 +6856,37 @@
       <c r="N16" s="7">
         <v>1</v>
       </c>
-      <c r="Q16" s="7">
-        <v>1</v>
-      </c>
-      <c r="S16" s="7">
+      <c r="O16" s="7">
         <v>1</v>
       </c>
       <c r="T16" s="7">
         <v>1</v>
       </c>
       <c r="X16" s="6">
-        <v>42429</v>
+        <v>43034</v>
       </c>
       <c r="Y16">
-        <v>27401746</v>
-      </c>
-      <c r="Z16">
-        <v>6</v>
-      </c>
-      <c r="AA16" s="7" t="s">
-        <v>27</v>
+        <v>81618257</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>27</v>
+        <v>107</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
       </c>
       <c r="I17" s="7">
         <v>1</v>
@@ -6976,110 +6906,101 @@
       <c r="N17" s="7">
         <v>1</v>
       </c>
-      <c r="O17" s="7">
-        <v>1</v>
-      </c>
-      <c r="T17" s="7">
+      <c r="S17">
         <v>1</v>
       </c>
       <c r="X17" s="6">
-        <v>43034</v>
+        <v>39630</v>
       </c>
       <c r="Y17">
-        <v>81618257</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
       <c r="J18" s="7">
         <v>1</v>
       </c>
-      <c r="K18" s="7">
-        <v>1</v>
-      </c>
-      <c r="L18" s="7">
-        <v>1</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1</v>
-      </c>
       <c r="N18" s="7">
         <v>1</v>
       </c>
-      <c r="S18">
+      <c r="U18" s="7">
         <v>1</v>
       </c>
       <c r="X18" s="6">
-        <v>39630</v>
+        <v>43290</v>
       </c>
       <c r="Y18">
-        <v>50000</v>
+        <v>2268955</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>45</v>
+      <c r="A19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
       </c>
       <c r="F19">
         <v>8</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1</v>
-      </c>
-      <c r="U19" s="7">
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="U19">
         <v>1</v>
       </c>
       <c r="X19" s="6">
-        <v>43290</v>
+        <v>43252</v>
       </c>
       <c r="Y19">
-        <v>2268955</v>
+        <v>28951772</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>261</v>
+      <c r="A20" s="1" t="s">
+        <v>245</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
-      </c>
-      <c r="C20" t="s">
-        <v>115</v>
+        <v>253</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
         <v>27</v>
@@ -7093,57 +7014,16 @@
       <c r="N20">
         <v>1</v>
       </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="R20">
+      <c r="S20">
         <v>1</v>
       </c>
       <c r="U20">
         <v>1</v>
       </c>
       <c r="X20" s="6">
-        <v>43252</v>
+        <v>43709</v>
       </c>
       <c r="Y20">
-        <v>28951772</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B21" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="X21" s="6">
-        <v>43709</v>
-      </c>
-      <c r="Y21">
         <v>50000</v>
       </c>
     </row>
@@ -7274,7 +7154,7 @@
       </c>
       <c r="B12">
         <f>COUNTIF(Services!$C$2:$C$75,Count!A12)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7284,7 +7164,7 @@
       </c>
       <c r="B13" s="1">
         <f>SUM(B2:B12)</f>
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9372,10 +9252,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0179B27-98C7-4672-8FF6-ABD885E997B5}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9513,29 +9393,187 @@
       <c r="V2" s="1"/>
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/services/services.xlsx
+++ b/services/services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D38D56-2116-4144-AEC9-ABE07F0A3D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8004CE7-9F3C-4117-BD27-5260B53E4289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Count" sheetId="2" r:id="rId3"/>
     <sheet name="Type of service" sheetId="3" r:id="rId4"/>
     <sheet name="discarded" sheetId="4" r:id="rId5"/>
+    <sheet name="latex format" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,15 +33,12 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="ckQ1IjNPDY5e7p6ZY2If7dVucZoojTTQY35nfAi9sHI="/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="285">
   <si>
     <t>Website</t>
   </si>
@@ -444,15 +442,9 @@
     <t>ByteDance</t>
   </si>
   <si>
-    <t>LinkedIn</t>
-  </si>
-  <si>
     <t>linkedin.com</t>
   </si>
   <si>
-    <t>Profesional career</t>
-  </si>
-  <si>
     <t>Pinterest</t>
   </si>
   <si>
@@ -621,9 +613,6 @@
     <t>Websites that offer tools and applications for specific online tasks, such as document editing, project management, and graphic design. These tools help improve productivity and efficiency in various digital activities. Examples include Google Drive, Trello, and Canva.</t>
   </si>
   <si>
-    <t>Websites and platforms dedicated to providing news, articles, and information on current events, global issues, and specialized topics. Examples include CNN, BBC, and Wikipedia.</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -862,6 +851,48 @@
   </si>
   <si>
     <t>theguardian.com</t>
+  </si>
+  <si>
+    <t>edmodo</t>
+  </si>
+  <si>
+    <t>edmodo.com</t>
+  </si>
+  <si>
+    <t>mixfiend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psiho </t>
+  </si>
+  <si>
+    <t>htcmania</t>
+  </si>
+  <si>
+    <t>Websites and platforms dedicated to providing news, articles, and information on current events, global issues, and specialized topics. Examples include CNN, BBC.</t>
+  </si>
+  <si>
+    <t>evony</t>
+  </si>
+  <si>
+    <t>mixfiend.com</t>
+  </si>
+  <si>
+    <t>psiho.com</t>
+  </si>
+  <si>
+    <t>htcmania.com</t>
+  </si>
+  <si>
+    <t>evony.com</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>hq</t>
+  </si>
+  <si>
+    <t>hq.com</t>
   </si>
 </sst>
 </file>
@@ -873,6 +904,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -924,13 +962,6 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -947,11 +978,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -996,28 +1028,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
@@ -1505,7 +1548,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1">
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Services-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="29"/>
       <tableStyleElement type="firstRowStripe" dxfId="28"/>
@@ -1524,9 +1567,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:W75">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W75">
-    <sortCondition ref="C1:C75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:W76">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W76">
+    <sortCondition ref="C1:C76"/>
   </sortState>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Website" dataDxfId="26"/>
@@ -1558,10 +1601,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6D968D3F-FB27-4F9E-AEE1-318A2D266852}" name="Table3" displayName="Table3" ref="A1:AA20" totalsRowShown="0">
-  <autoFilter ref="A1:AA20" xr:uid="{6D968D3F-FB27-4F9E-AEE1-318A2D266852}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA20">
-    <sortCondition ref="A1:A20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6D968D3F-FB27-4F9E-AEE1-318A2D266852}" name="Table3" displayName="Table3" ref="A1:AA26" totalsRowShown="0">
+  <autoFilter ref="A1:AA26" xr:uid="{6D968D3F-FB27-4F9E-AEE1-318A2D266852}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA26">
+    <sortCondition ref="C1:C26"/>
   </sortState>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{56E87647-17B6-48DA-A9F7-32B62327C70F}" name="Website" dataDxfId="24"/>
@@ -1597,31 +1640,31 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{946D6494-D706-452F-A1B2-A66E079CB5A2}" name="Table2" displayName="Table2" ref="A1:W3" totalsRowShown="0" headerRowDxfId="23" dataDxfId="0">
-  <autoFilter ref="A1:W3" xr:uid="{946D6494-D706-452F-A1B2-A66E079CB5A2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{946D6494-D706-452F-A1B2-A66E079CB5A2}" name="Table2" displayName="Table2" ref="A1:W12" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:W12" xr:uid="{946D6494-D706-452F-A1B2-A66E079CB5A2}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{BA484C69-3205-4F0A-945B-A88ADB483981}" name="Website" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{8EFCC907-AB07-47E7-95B1-208B8FF6C5F9}" name="Domain name" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{ED19FC05-228E-4996-A3D5-F579EE715F60}" name="Type" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{CE6960E2-FE14-4BB8-BD93-1C8E7A559E25}" name="Company" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{17FF8C25-9C48-46C3-8A24-8293B30B6EF8}" name="Country" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{F7343669-C795-4CC1-8763-D0E3064DE516}" name="min length" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{16525D02-FCAA-4761-ADCD-CC73F060DE5E}" name="min mask" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{38EF1F53-AE7D-41ED-80C9-8E6B560F0C85}" name="extra sec" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{C0FABE89-EDBF-47AE-B9D7-140124C190C2}" name="2fa" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{FEBA891E-3DF8-4C11-AD16-DD2BE9DE17CD}" name="name" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{F670B2B9-7737-4740-96FC-A93A9E55335B}" name="birth date" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{CA9C4BED-5B03-428D-B680-A9AC1B620D5D}" name="gender" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{DF9CF01E-222F-4268-BC15-FDAD54906605}" name="photo" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{91BBC4E7-9C12-4E44-95DF-5F774988F9FF}" name="email" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{9357CED0-3B93-4260-A0F9-2FEF6F4F5FB3}" name="tlf" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{AF37C082-316B-400F-9D5F-A17EC8D19FDA}" name="nacionality" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{B9AAFFD0-F1DA-44E9-9AD0-9DFC09B8116D}" name="location" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{6897A40E-6EE9-4D2B-B0B5-B50BDD6921AF}" name="address" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{F44809CD-48C2-417F-B7E0-7CE7E44E15C6}" name="Messages" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{8D031D5C-DF9A-4FC9-83B3-CDEC005F3D1C}" name="subscription" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{5410FF9E-8676-4B69-A9B2-8DF661977C01}" name="purchases" dataDxfId="2"/>
-    <tableColumn id="22" xr3:uid="{5ED40E59-9A2D-42A7-907D-D4CF76EF28C6}" name="personal info" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{BA484C69-3205-4F0A-945B-A88ADB483981}" name="Website" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{8EFCC907-AB07-47E7-95B1-208B8FF6C5F9}" name="Domain name" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{ED19FC05-228E-4996-A3D5-F579EE715F60}" name="Type" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{CE6960E2-FE14-4BB8-BD93-1C8E7A559E25}" name="Company" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{17FF8C25-9C48-46C3-8A24-8293B30B6EF8}" name="Country" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{F7343669-C795-4CC1-8763-D0E3064DE516}" name="min length" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{16525D02-FCAA-4761-ADCD-CC73F060DE5E}" name="min mask" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{38EF1F53-AE7D-41ED-80C9-8E6B560F0C85}" name="extra sec" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{C0FABE89-EDBF-47AE-B9D7-140124C190C2}" name="2fa" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{FEBA891E-3DF8-4C11-AD16-DD2BE9DE17CD}" name="name" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{F670B2B9-7737-4740-96FC-A93A9E55335B}" name="birth date" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{CA9C4BED-5B03-428D-B680-A9AC1B620D5D}" name="gender" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{DF9CF01E-222F-4268-BC15-FDAD54906605}" name="photo" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{91BBC4E7-9C12-4E44-95DF-5F774988F9FF}" name="email" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{9357CED0-3B93-4260-A0F9-2FEF6F4F5FB3}" name="tlf" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{AF37C082-316B-400F-9D5F-A17EC8D19FDA}" name="nacionality" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{B9AAFFD0-F1DA-44E9-9AD0-9DFC09B8116D}" name="location" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{6897A40E-6EE9-4D2B-B0B5-B50BDD6921AF}" name="address" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{F44809CD-48C2-417F-B7E0-7CE7E44E15C6}" name="Messages" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{8D031D5C-DF9A-4FC9-83B3-CDEC005F3D1C}" name="subscription" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{5410FF9E-8676-4B69-A9B2-8DF661977C01}" name="purchases" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{5ED40E59-9A2D-42A7-907D-D4CF76EF28C6}" name="personal info" dataDxfId="0"/>
     <tableColumn id="23" xr3:uid="{E49F45BE-1D9B-41CC-9A17-8D6AE68AE4FC}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1826,11 +1869,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W996"/>
+  <dimension ref="A1:W989"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C51" sqref="C51"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1920,7 +1963,7 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>21</v>
@@ -2191,13 +2234,13 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -2241,13 +2284,13 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -2264,13 +2307,13 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -2302,89 +2345,110 @@
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" t="s">
-        <v>256</v>
+        <v>167</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
+        <v>141</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>246</v>
+      </c>
+      <c r="B11" t="s">
+        <v>254</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>8</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1" t="s">
-        <v>29</v>
+        <v>141</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B12" t="s">
-        <v>257</v>
+        <v>230</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="U12">
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
+      <c r="S12" s="7">
+        <v>1</v>
+      </c>
+      <c r="T12" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2393,13 +2457,13 @@
         <v>233</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>135</v>
+        <v>234</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>27</v>
@@ -2410,6 +2474,9 @@
       <c r="J13" s="7">
         <v>1</v>
       </c>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
       <c r="L13" s="7">
         <v>1</v>
       </c>
@@ -2419,7 +2486,7 @@
       <c r="N13" s="7">
         <v>1</v>
       </c>
-      <c r="S13" s="7">
+      <c r="O13" s="7">
         <v>1</v>
       </c>
       <c r="T13" s="7">
@@ -2428,78 +2495,86 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>237</v>
+        <v>161</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14">
-        <v>9</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1</v>
-      </c>
-      <c r="K14" s="7">
-        <v>1</v>
-      </c>
-      <c r="L14" s="7">
-        <v>1</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1</v>
-      </c>
-      <c r="O14" s="7">
-        <v>1</v>
-      </c>
-      <c r="T14" s="7">
-        <v>1</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
       <c r="J15" s="1">
         <v>1</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1">
         <v>1</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1">
-        <v>1</v>
-      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1">
         <v>1</v>
@@ -2508,17 +2583,19 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
+      <c r="W15" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -2526,22 +2603,22 @@
         <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="1">
         <v>1</v>
       </c>
       <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1"/>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
       <c r="N16" s="1">
         <v>1</v>
       </c>
@@ -2557,181 +2634,181 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="W16" s="1"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1">
+        <v>224</v>
+      </c>
+      <c r="B17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17">
         <v>8</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1</v>
-      </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1">
-        <v>1</v>
-      </c>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
+      <c r="G17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1</v>
+      </c>
+      <c r="T17" s="7">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B18" t="s">
-        <v>176</v>
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="D18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="1">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
-      <c r="J18" s="7">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1</v>
-      </c>
-      <c r="T18" s="7">
-        <v>1</v>
-      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1">
+        <v>1</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
       <c r="W18" s="1" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>237</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="1">
-        <v>12</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1">
-        <v>1</v>
-      </c>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1</v>
+      </c>
+      <c r="T19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>241</v>
+        <v>158</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F20">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
         <v>6</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1</v>
-      </c>
-      <c r="J20" s="7">
-        <v>1</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1</v>
-      </c>
-      <c r="T20" s="7">
-        <v>1</v>
+      <c r="G20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>45</v>
@@ -2744,9 +2821,7 @@
       <c r="G21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="1">
         <v>1</v>
       </c>
@@ -2756,16 +2831,12 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1">
-        <v>1</v>
-      </c>
-      <c r="P21" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1">
@@ -2773,16 +2844,14 @@
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="1" t="s">
-        <v>162</v>
-      </c>
+      <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>45</v>
@@ -2790,27 +2859,23 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1</v>
-      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1">
@@ -2818,55 +2883,42 @@
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
+      <c r="W22" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>167</v>
+        <v>235</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1">
+      <c r="F23">
         <v>8</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1">
-        <v>1</v>
-      </c>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1" t="s">
-        <v>168</v>
+      <c r="G23" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1</v>
+      </c>
+      <c r="U23" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>45</v>
@@ -2877,44 +2929,51 @@
       <c r="G24" s="7" t="s">
         <v>107</v>
       </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
       <c r="J24" s="7">
         <v>1</v>
       </c>
       <c r="N24" s="7">
         <v>1</v>
       </c>
-      <c r="U24" s="7">
+      <c r="T24" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="A25" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25" t="s">
         <v>45</v>
       </c>
       <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1</v>
-      </c>
-      <c r="J25" s="7">
-        <v>1</v>
-      </c>
-      <c r="N25" s="7">
-        <v>1</v>
-      </c>
-      <c r="T25" s="7">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="V25" s="13"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -2979,10 +3038,10 @@
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>51</v>
@@ -3458,13 +3517,13 @@
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E36" t="s">
         <v>47</v>
@@ -3500,21 +3559,21 @@
         <v>1</v>
       </c>
       <c r="W36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D37" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E37" t="s">
         <v>47</v>
@@ -3556,18 +3615,18 @@
         <v>1</v>
       </c>
       <c r="W37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3618,13 +3677,13 @@
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3662,18 +3721,18 @@
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E40" t="s">
         <v>47</v>
@@ -3720,7 +3779,7 @@
         <v>88</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>88</v>
@@ -3773,7 +3832,7 @@
         <v>90</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>91</v>
@@ -3832,7 +3891,7 @@
         <v>93</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>94</v>
@@ -3891,7 +3950,7 @@
         <v>82</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>84</v>
@@ -3946,7 +4005,7 @@
         <v>86</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>85</v>
@@ -4001,13 +4060,13 @@
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="F46">
         <v>8</v>
@@ -4036,209 +4095,329 @@
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="B47" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>83</v>
+        <v>282</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B48" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>83</v>
+        <v>208</v>
+      </c>
+      <c r="C48" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" t="s">
+        <v>209</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G48" t="s">
+        <v>107</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" t="s">
+        <v>211</v>
+      </c>
+      <c r="C49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49">
+        <v>9</v>
+      </c>
+      <c r="G49" t="s">
         <v>27</v>
       </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="S48">
-        <v>1</v>
-      </c>
-      <c r="U48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>267</v>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+      <c r="W49" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>1</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B52" t="s">
-        <v>199</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E52" t="s">
-        <v>200</v>
+        <v>215</v>
+      </c>
+      <c r="C52" t="s">
+        <v>178</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
       <c r="N52">
         <v>1</v>
       </c>
-      <c r="Q52">
-        <v>1</v>
-      </c>
-      <c r="W52" t="s">
-        <v>201</v>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="B53" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E53" t="s">
-        <v>47</v>
+        <v>264</v>
       </c>
       <c r="F53">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G53" t="s">
         <v>27</v>
       </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
       <c r="J53">
         <v>1</v>
       </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
       <c r="N53">
         <v>1</v>
       </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
       <c r="T53">
         <v>1</v>
-      </c>
-      <c r="W53" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>210</v>
+        <v>269</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
-      </c>
-      <c r="C54" t="s">
-        <v>180</v>
-      </c>
-      <c r="D54" t="s">
-        <v>212</v>
-      </c>
-      <c r="E54" t="s">
-        <v>47</v>
+        <v>270</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="F54">
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>107</v>
-      </c>
-      <c r="I54">
+        <v>27</v>
+      </c>
+      <c r="H54">
         <v>1</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
       <c r="N54">
         <v>1</v>
       </c>
       <c r="O54">
         <v>1</v>
       </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
       <c r="R54">
         <v>1</v>
       </c>
-      <c r="U54">
+      <c r="T54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
-      </c>
-      <c r="C55" t="s">
-        <v>180</v>
-      </c>
-      <c r="D55" t="s">
-        <v>215</v>
+        <v>266</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="F55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>27</v>
-      </c>
-      <c r="I55">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -4246,149 +4425,144 @@
       <c r="N55">
         <v>1</v>
       </c>
-      <c r="O55">
-        <v>1</v>
-      </c>
-      <c r="R55">
-        <v>1</v>
-      </c>
-      <c r="U55">
-        <v>1</v>
-      </c>
-      <c r="W55" t="s">
-        <v>216</v>
+      <c r="T55">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
-      </c>
-      <c r="C56" t="s">
-        <v>180</v>
+        <v>196</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E56" t="s">
+        <v>197</v>
       </c>
       <c r="F56">
         <v>8</v>
       </c>
       <c r="G56" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56">
-        <v>1</v>
-      </c>
-      <c r="I56">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
       <c r="N56">
         <v>1</v>
       </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="R56">
-        <v>1</v>
-      </c>
-      <c r="T56">
-        <v>1</v>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="W56" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="B57" t="s">
-        <v>222</v>
-      </c>
-      <c r="C57" t="s">
-        <v>180</v>
+        <v>193</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E57" t="s">
+        <v>47</v>
       </c>
       <c r="F57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G57" t="s">
         <v>27</v>
       </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="N57">
         <v>1</v>
       </c>
-      <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="R57">
-        <v>1</v>
-      </c>
       <c r="T57">
         <v>1</v>
       </c>
-      <c r="U57">
-        <v>1</v>
+      <c r="W57" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B58" t="s">
-        <v>218</v>
-      </c>
-      <c r="C58" t="s">
-        <v>180</v>
-      </c>
-      <c r="F58">
+        <v>113</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="1">
         <v>6</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="T58">
-        <v>1</v>
-      </c>
-      <c r="U58">
-        <v>1</v>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1">
+        <v>1</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1">
+        <v>1</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1</v>
+      </c>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1">
+        <v>1</v>
+      </c>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1">
+        <v>1</v>
+      </c>
+      <c r="U58" s="1">
+        <v>1</v>
+      </c>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
       <c r="F59" s="1">
         <v>6</v>
       </c>
@@ -4408,139 +4582,135 @@
       <c r="N59" s="1">
         <v>1</v>
       </c>
-      <c r="O59" s="1">
-        <v>1</v>
-      </c>
+      <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
+      <c r="Q59" s="1">
+        <v>1</v>
+      </c>
       <c r="R59" s="1">
         <v>1</v>
       </c>
       <c r="S59" s="1"/>
-      <c r="T59" s="1">
-        <v>1</v>
-      </c>
+      <c r="T59" s="1"/>
       <c r="U59" s="1">
         <v>1</v>
       </c>
       <c r="V59" s="1"/>
       <c r="W59" s="1" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1">
-        <v>6</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1">
-        <v>1</v>
-      </c>
-      <c r="J60" s="1">
-        <v>1</v>
-      </c>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
-      <c r="N60" s="1">
-        <v>1</v>
-      </c>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1">
-        <v>1</v>
-      </c>
-      <c r="R60" s="1">
-        <v>1</v>
-      </c>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1">
-        <v>1</v>
-      </c>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1" t="s">
-        <v>29</v>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" s="7">
+        <v>1</v>
+      </c>
+      <c r="N60" s="7">
+        <v>1</v>
+      </c>
+      <c r="O60" s="7">
+        <v>1</v>
+      </c>
+      <c r="R60" s="7">
+        <v>1</v>
+      </c>
+      <c r="U60" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C61" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F61">
+      <c r="D61" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" s="1">
         <v>8</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="J61" s="7">
-        <v>1</v>
-      </c>
-      <c r="N61" s="7">
-        <v>1</v>
-      </c>
-      <c r="O61" s="7">
-        <v>1</v>
-      </c>
-      <c r="R61" s="7">
-        <v>1</v>
-      </c>
-      <c r="U61" s="7">
-        <v>1</v>
+      <c r="G61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1">
+        <v>1</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1">
+        <v>1</v>
+      </c>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1">
+        <v>1</v>
+      </c>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1">
+        <v>1</v>
+      </c>
+      <c r="V61" s="1"/>
+      <c r="W61" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
       <c r="F62" s="1">
         <v>8</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H62" s="1">
-        <v>1</v>
-      </c>
-      <c r="I62" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
       <c r="J62" s="1">
         <v>1</v>
       </c>
-      <c r="K62" s="1">
-        <v>1</v>
-      </c>
+      <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1">
@@ -4559,15 +4729,15 @@
       </c>
       <c r="V62" s="1"/>
       <c r="W62" s="1" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>115</v>
@@ -4575,10 +4745,10 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1">
@@ -4593,7 +4763,9 @@
       <c r="N63" s="1">
         <v>1</v>
       </c>
-      <c r="O63" s="1"/>
+      <c r="O63" s="1">
+        <v>1</v>
+      </c>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1">
@@ -4610,66 +4782,53 @@
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="A64" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" t="s">
         <v>115</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1">
-        <v>6</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1">
-        <v>1</v>
-      </c>
-      <c r="J64" s="1">
-        <v>1</v>
-      </c>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1"/>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1">
-        <v>1</v>
-      </c>
-      <c r="O64" s="1">
-        <v>1</v>
-      </c>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1">
-        <v>1</v>
-      </c>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1">
-        <v>1</v>
-      </c>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+      <c r="V64" s="13"/>
     </row>
     <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>47</v>
@@ -4717,10 +4876,10 @@
     </row>
     <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C66" s="7" t="s">
         <v>121</v>
@@ -4865,74 +5024,66 @@
     </row>
     <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C69" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F69" s="1">
+      <c r="F69">
         <v>6</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G69" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1">
-        <v>1</v>
-      </c>
-      <c r="J69" s="1">
-        <v>1</v>
-      </c>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1">
-        <v>1</v>
-      </c>
-      <c r="N69" s="1">
-        <v>1</v>
-      </c>
-      <c r="O69" s="1">
-        <v>1</v>
-      </c>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1">
-        <v>1</v>
-      </c>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1">
-        <v>1</v>
-      </c>
-      <c r="U69" s="1"/>
-      <c r="V69" s="1"/>
-      <c r="W69" s="1" t="s">
-        <v>136</v>
+      <c r="J69" s="7">
+        <v>1</v>
+      </c>
+      <c r="K69" s="7">
+        <v>1</v>
+      </c>
+      <c r="L69" s="7">
+        <v>1</v>
+      </c>
+      <c r="M69" s="7">
+        <v>1</v>
+      </c>
+      <c r="N69" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>1</v>
+      </c>
+      <c r="S69" s="7">
+        <v>1</v>
+      </c>
+      <c r="T69" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C70" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" t="s">
         <v>121</v>
       </c>
       <c r="F70">
         <v>6</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>27</v>
+        <v>107</v>
+      </c>
+      <c r="H70" s="7">
+        <v>1</v>
+      </c>
+      <c r="I70" s="7">
+        <v>1</v>
       </c>
       <c r="J70" s="7">
         <v>1</v>
@@ -4949,89 +5100,95 @@
       <c r="N70" s="7">
         <v>1</v>
       </c>
-      <c r="Q70" s="7">
-        <v>1</v>
-      </c>
-      <c r="S70" s="7">
-        <v>1</v>
-      </c>
-      <c r="T70" s="7">
+      <c r="S70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C71" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F71">
+      <c r="D71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" s="1">
         <v>6</v>
       </c>
-      <c r="G71" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H71" s="7">
-        <v>1</v>
-      </c>
-      <c r="I71" s="7">
-        <v>1</v>
-      </c>
-      <c r="J71" s="7">
-        <v>1</v>
-      </c>
-      <c r="K71" s="7">
-        <v>1</v>
-      </c>
-      <c r="L71" s="7">
-        <v>1</v>
-      </c>
-      <c r="M71" s="7">
-        <v>1</v>
-      </c>
-      <c r="N71" s="7">
-        <v>1</v>
-      </c>
-      <c r="S71">
-        <v>1</v>
+      <c r="G71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1">
+        <v>1</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1">
+        <v>1</v>
+      </c>
+      <c r="N71" s="1">
+        <v>1</v>
+      </c>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1">
+        <v>1</v>
+      </c>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1"/>
+      <c r="W71" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F72" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="1"/>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
       <c r="I72" s="1">
         <v>1</v>
       </c>
-      <c r="J72" s="1">
-        <v>1</v>
-      </c>
-      <c r="K72" s="1">
-        <v>1</v>
-      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
       <c r="L72" s="1">
         <v>1</v>
       </c>
@@ -5041,53 +5198,59 @@
       <c r="N72" s="1">
         <v>1</v>
       </c>
-      <c r="O72" s="1"/>
+      <c r="O72" s="1">
+        <v>1</v>
+      </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="1">
         <v>1</v>
       </c>
       <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
+      <c r="S72" s="1">
+        <v>1</v>
+      </c>
       <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
+      <c r="U72" s="1">
+        <v>1</v>
+      </c>
       <c r="V72" s="1"/>
       <c r="W72" s="1" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F73" s="1">
         <v>8</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H73" s="1">
-        <v>1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H73" s="1"/>
       <c r="I73" s="1">
         <v>1</v>
       </c>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1">
-        <v>1</v>
-      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1"/>
       <c r="M73" s="1">
         <v>1</v>
       </c>
@@ -5116,25 +5279,25 @@
     </row>
     <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="F74" s="1">
         <v>8</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1">
@@ -5165,72 +5328,69 @@
         <v>1</v>
       </c>
       <c r="T74" s="1"/>
-      <c r="U74" s="1">
-        <v>1</v>
-      </c>
+      <c r="U74" s="1"/>
       <c r="V74" s="1"/>
       <c r="W74" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C75" s="1" t="s">
+      <c r="A75" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F75" s="1">
-        <v>8</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1">
-        <v>1</v>
-      </c>
-      <c r="J75" s="1">
-        <v>1</v>
-      </c>
-      <c r="K75" s="1">
-        <v>1</v>
-      </c>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1">
-        <v>1</v>
-      </c>
-      <c r="N75" s="1">
-        <v>1</v>
-      </c>
-      <c r="O75" s="1">
-        <v>1</v>
-      </c>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1">
-        <v>1</v>
-      </c>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1">
-        <v>1</v>
-      </c>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" s="7">
+        <v>1</v>
+      </c>
+      <c r="M75" s="7">
+        <v>1</v>
+      </c>
+      <c r="N75" s="7">
+        <v>1</v>
+      </c>
+      <c r="O75" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>1</v>
+      </c>
+      <c r="V75" s="13"/>
+    </row>
+    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B76" t="s">
+        <v>280</v>
+      </c>
+      <c r="C76" t="s">
+        <v>121</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="V76" s="13"/>
+    </row>
     <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6144,13 +6304,6 @@
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6162,11 +6315,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4F48D-A64C-44BD-B29D-A1DEC991488E}">
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A9" sqref="A9:XFD9"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6257,33 +6410,33 @@
         <v>20</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -6331,182 +6484,164 @@
         <v>129949</v>
       </c>
       <c r="Z2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AA2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="7">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7">
-        <v>1</v>
-      </c>
-      <c r="J3" s="7">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7">
-        <v>1</v>
-      </c>
-      <c r="T3" s="7">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="V3">
         <v>1</v>
       </c>
       <c r="X3" s="6">
-        <v>43609</v>
+        <v>42691</v>
       </c>
       <c r="Y3">
-        <v>4779956</v>
+        <v>6038126</v>
+      </c>
+      <c r="Z3">
+        <v>6</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
       <c r="N4">
         <v>1</v>
       </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
       <c r="V4">
         <v>1</v>
       </c>
       <c r="X4" s="6">
-        <v>42691</v>
+        <v>43739</v>
       </c>
       <c r="Y4">
-        <v>6038126</v>
-      </c>
-      <c r="Z4">
-        <v>6</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>27</v>
+        <v>12283514</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
+      </c>
+      <c r="B5" t="s">
+        <v>253</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1</v>
-      </c>
-      <c r="T5" s="7">
-        <v>1</v>
-      </c>
-      <c r="X5" s="6">
-        <v>43218</v>
+        <v>141</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>29309993</v>
+        <v>1896399</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>143</v>
+        <v>246</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="V6">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="U6">
         <v>1</v>
       </c>
       <c r="X6" s="6">
-        <v>43739</v>
+        <v>41686</v>
       </c>
       <c r="Y6">
-        <v>12283514</v>
+        <v>1456977</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>243</v>
+        <v>134</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -6514,38 +6649,62 @@
       <c r="J7" s="7">
         <v>1</v>
       </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
       <c r="N7" s="7">
         <v>1</v>
       </c>
+      <c r="S7" s="7">
+        <v>1</v>
+      </c>
       <c r="T7" s="7">
         <v>1</v>
       </c>
       <c r="X7" s="6">
-        <v>41091</v>
+        <v>41034</v>
       </c>
       <c r="Y7">
-        <v>50000</v>
+        <v>67241910</v>
+      </c>
+      <c r="Z7">
+        <v>6</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>266</v>
+      <c r="A8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
       <c r="J8" s="7">
         <v>1</v>
       </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
@@ -6555,476 +6714,626 @@
       <c r="O8" s="7">
         <v>1</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="T8" s="7">
         <v>1</v>
       </c>
       <c r="X8" s="6">
-        <v>43435</v>
+        <v>43034</v>
       </c>
       <c r="Y8">
-        <v>22077067</v>
-      </c>
-      <c r="Z8">
-        <v>5</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>27</v>
+        <v>81618257</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>248</v>
+      <c r="A9" t="s">
+        <v>283</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>143</v>
+        <v>284</v>
+      </c>
+      <c r="C9" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>1896399</v>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>83</v>
+      <c r="A10" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F10">
         <v>8</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
+      <c r="T10" s="7">
+        <v>1</v>
+      </c>
+      <c r="X10" s="6">
+        <v>43609</v>
       </c>
       <c r="Y10">
-        <v>1207367</v>
+        <v>4779956</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>59</v>
       </c>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
       <c r="J11" s="7">
         <v>1</v>
       </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
       <c r="N11" s="7">
         <v>1</v>
       </c>
-      <c r="O11" s="7">
-        <v>1</v>
-      </c>
-      <c r="R11" s="7">
-        <v>1</v>
-      </c>
-      <c r="U11" s="7">
+      <c r="T11" s="7">
         <v>1</v>
       </c>
       <c r="X11" s="6">
-        <v>43319</v>
+        <v>43218</v>
       </c>
       <c r="Y11">
-        <v>13047077</v>
+        <v>29309993</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C12" t="s">
-        <v>225</v>
+        <v>239</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="U12">
+        <v>8</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
+      <c r="T12" s="7">
         <v>1</v>
       </c>
       <c r="X12" s="6">
-        <v>41686</v>
+        <v>41091</v>
       </c>
       <c r="Y12">
-        <v>1456977</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B13" t="s">
-        <v>260</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>83</v>
+        <v>235</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1</v>
+      </c>
+      <c r="U13" s="7">
+        <v>1</v>
+      </c>
+      <c r="X13" s="6">
+        <v>43290</v>
       </c>
       <c r="Y13">
-        <v>3175293</v>
+        <v>2268955</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>143</v>
+      <c r="A14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B14" t="s">
+        <v>278</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
       </c>
       <c r="F14">
         <v>6</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="7">
-        <v>1</v>
-      </c>
-      <c r="J14" s="7">
-        <v>1</v>
-      </c>
-      <c r="L14" s="7">
-        <v>1</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1</v>
-      </c>
-      <c r="S14" s="7">
-        <v>1</v>
-      </c>
-      <c r="T14" s="7">
-        <v>1</v>
-      </c>
-      <c r="X14" s="6">
-        <v>41034</v>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>67241910</v>
-      </c>
-      <c r="Z14">
+        <v>193975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="X15" s="6">
+        <v>43160</v>
+      </c>
+      <c r="Y15">
+        <v>883637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1207367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y17">
+        <v>3175293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="X18" s="6">
+        <v>43709</v>
+      </c>
+      <c r="Y18">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" t="s">
+        <v>282</v>
+      </c>
+      <c r="X19" s="6">
+        <v>42522</v>
+      </c>
+      <c r="Y19">
+        <v>34146646</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1</v>
+      </c>
+      <c r="O20" s="7">
+        <v>1</v>
+      </c>
+      <c r="R20" s="7">
+        <v>1</v>
+      </c>
+      <c r="U20" s="7">
+        <v>1</v>
+      </c>
+      <c r="X20" s="6">
+        <v>43319</v>
+      </c>
+      <c r="Y20">
+        <v>13047077</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" t="s">
+        <v>259</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="X21" s="6">
+        <v>43252</v>
+      </c>
+      <c r="Y21">
+        <v>28951772</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1</v>
+      </c>
+      <c r="O22" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>1</v>
+      </c>
+      <c r="X22" s="6">
+        <v>43435</v>
+      </c>
+      <c r="Y22">
+        <v>22077067</v>
+      </c>
+      <c r="Z22">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23">
         <v>6</v>
       </c>
-      <c r="AA14" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+      <c r="K23" s="7">
+        <v>1</v>
+      </c>
+      <c r="L23" s="7">
+        <v>1</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="7">
+        <v>1</v>
+      </c>
+      <c r="S23" s="7">
+        <v>1</v>
+      </c>
+      <c r="T23" s="7">
+        <v>1</v>
+      </c>
+      <c r="X23" s="6">
+        <v>42429</v>
+      </c>
+      <c r="Y23">
+        <v>27401746</v>
+      </c>
+      <c r="Z23">
+        <v>6</v>
+      </c>
+      <c r="AA23" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F15">
+      <c r="F24">
         <v>6</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="7">
+        <v>1</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="X24" s="6">
+        <v>39630</v>
+      </c>
+      <c r="Y24">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>271</v>
+      </c>
+      <c r="B25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="X25" s="6">
+        <v>42856</v>
+      </c>
+      <c r="Y25">
+        <v>14884412</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>275</v>
+      </c>
+      <c r="B26" t="s">
+        <v>280</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="7">
-        <v>1</v>
-      </c>
-      <c r="K15" s="7">
-        <v>1</v>
-      </c>
-      <c r="L15" s="7">
-        <v>1</v>
-      </c>
-      <c r="M15" s="7">
-        <v>1</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>1</v>
-      </c>
-      <c r="S15" s="7">
-        <v>1</v>
-      </c>
-      <c r="T15" s="7">
-        <v>1</v>
-      </c>
-      <c r="X15" s="6">
-        <v>42429</v>
-      </c>
-      <c r="Y15">
-        <v>27401746</v>
-      </c>
-      <c r="Z15">
-        <v>6</v>
-      </c>
-      <c r="AA15" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16">
-        <v>9</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
-      <c r="J16" s="7">
-        <v>1</v>
-      </c>
-      <c r="K16" s="7">
-        <v>1</v>
-      </c>
-      <c r="L16" s="7">
-        <v>1</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1</v>
-      </c>
-      <c r="O16" s="7">
-        <v>1</v>
-      </c>
-      <c r="T16" s="7">
-        <v>1</v>
-      </c>
-      <c r="X16" s="6">
-        <v>43034</v>
-      </c>
-      <c r="Y16">
-        <v>81618257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7">
-        <v>1</v>
-      </c>
-      <c r="L17" s="7">
-        <v>1</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-      <c r="X17" s="6">
-        <v>39630</v>
-      </c>
-      <c r="Y17">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J18" s="7">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1</v>
-      </c>
-      <c r="U18" s="7">
-        <v>1</v>
-      </c>
-      <c r="X18" s="6">
-        <v>43290</v>
-      </c>
-      <c r="Y18">
-        <v>2268955</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>261</v>
-      </c>
-      <c r="B19" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19">
-        <v>8</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="X19" s="6">
-        <v>43252</v>
-      </c>
-      <c r="Y19">
-        <v>28951772</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="X20" s="6">
-        <v>43709</v>
-      </c>
-      <c r="Y20">
-        <v>50000</v>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="X26" s="6">
+        <v>43834</v>
+      </c>
+      <c r="Y26">
+        <v>482908</v>
       </c>
     </row>
   </sheetData>
@@ -7041,7 +7350,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7052,10 +7361,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7063,8 +7372,8 @@
         <v>121</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(Services!$C$2:$C$75,Count!A2)</f>
-        <v>11</v>
+        <f>COUNTIF(Services!$C$2:$C$76,Count!A2)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7072,17 +7381,17 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(Services!$C$2:$C$75,Count!A3)</f>
+        <f>COUNTIF(Services!$C$2:$C$76,Count!A3)</f>
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="B4">
-        <f>COUNTIF(Services!$C$2:$C$75,Count!A4)</f>
-        <v>8</v>
+        <f>COUNTIF(Services!$C$2:$C$76,Count!A4)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7090,16 +7399,16 @@
         <v>67</v>
       </c>
       <c r="B5">
-        <f>COUNTIF(Services!$C$2:$C$75,Count!A5)</f>
+        <f>COUNTIF(Services!$C$2:$C$76,Count!A5)</f>
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B6">
-        <f>COUNTIF(Services!$C$2:$C$75,Count!A6)</f>
+        <f>COUNTIF(Services!$C$2:$C$76,Count!A6)</f>
         <v>5</v>
       </c>
     </row>
@@ -7108,7 +7417,7 @@
         <v>51</v>
       </c>
       <c r="B7">
-        <f>COUNTIF(Services!$C$2:$C$75,Count!A7)</f>
+        <f>COUNTIF(Services!$C$2:$C$76,Count!A7)</f>
         <v>5</v>
       </c>
     </row>
@@ -7117,26 +7426,26 @@
         <v>115</v>
       </c>
       <c r="B8">
-        <f>COUNTIF(Services!$C$2:$C$75,Count!A8)</f>
-        <v>6</v>
+        <f>COUNTIF(Services!$C$2:$C$76,Count!A8)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B9">
-        <f>COUNTIF(Services!$C$2:$C$75,Count!A9)</f>
+        <f>COUNTIF(Services!$C$2:$C$76,Count!A9)</f>
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10">
-        <f>COUNTIF(Services!$C$2:$C$75,Count!A10)</f>
-        <v>11</v>
+        <f>COUNTIF(Services!$C$2:$C$76,Count!A10)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7144,17 +7453,17 @@
         <v>45</v>
       </c>
       <c r="B11">
-        <f>COUNTIF(Services!$C$2:$C$75,Count!A11)</f>
-        <v>8</v>
+        <f>COUNTIF(Services!$C$2:$C$76,Count!A11)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>264</v>
       </c>
       <c r="B12">
-        <f>COUNTIF(Services!$C$2:$C$75,Count!A12)</f>
-        <v>0</v>
+        <f>COUNTIF(Services!$C$2:$C$76,Count!A12)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7164,7 +7473,7 @@
       </c>
       <c r="B13" s="1">
         <f>SUM(B2:B12)</f>
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8158,7 +8467,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8170,10 +8479,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8181,7 +8490,7 @@
         <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8189,7 +8498,7 @@
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8197,7 +8506,7 @@
         <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8205,15 +8514,15 @@
         <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8221,7 +8530,7 @@
         <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8229,23 +8538,23 @@
         <v>115</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8253,15 +8562,15 @@
         <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>264</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>193</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9252,10 +9561,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0179B27-98C7-4672-8FF6-ABD885E997B5}">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9347,7 +9656,7 @@
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9433,148 +9742,353 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="13">
         <v>8</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13">
+        <v>1</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13">
+        <v>1</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13">
+        <v>1</v>
+      </c>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
       <c r="W4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
+      <c r="E5" s="13"/>
+      <c r="F5" s="13">
         <v>8</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13">
+        <v>1</v>
+      </c>
+      <c r="J5" s="13">
+        <v>1</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13">
+        <v>1</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13">
+        <v>1</v>
+      </c>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="13">
         <v>8</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13">
+        <v>1</v>
+      </c>
+      <c r="J6" s="13">
+        <v>1</v>
+      </c>
+      <c r="K6" s="13">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13">
+        <v>1</v>
+      </c>
+      <c r="O6" s="13">
+        <v>1</v>
+      </c>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13">
+        <v>1</v>
+      </c>
+      <c r="V6" s="13"/>
       <c r="W6" t="s">
         <v>102</v>
       </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13">
+        <v>1</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13">
+        <v>1</v>
+      </c>
+      <c r="N8" s="13">
+        <v>1</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13">
+        <v>1</v>
+      </c>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13">
+        <v>1</v>
+      </c>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13">
+        <v>1</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13">
+        <v>1</v>
+      </c>
+      <c r="O11" s="13">
+        <v>1</v>
+      </c>
+      <c r="P11" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13">
+        <v>1</v>
+      </c>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13">
+        <v>1</v>
+      </c>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13">
+        <v>1</v>
+      </c>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9582,4 +10096,364 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA57768-131E-41F8-9E07-9E0326BA59FB}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="12">
+        <v>10</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="13">
+        <v>6</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="12">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="12">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="13">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" s="12">
+        <v>9</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="12">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="13">
+        <v>6</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="12">
+        <v>8</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="13">
+        <v>8</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="12">
+        <v>6</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="C16" s="12">
+        <v>8</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C18" s="12">
+        <v>7</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="12">
+        <v>8</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="13">
+        <v>8</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="12">
+        <v>5</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="13">
+        <v>6</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="12">
+        <v>6</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/services/services.xlsx
+++ b/services/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8004CE7-9F3C-4117-BD27-5260B53E4289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513AC30F-ED13-40E6-917D-7DFE5FE452F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Services" sheetId="1" r:id="rId1"/>
@@ -1871,9 +1871,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W989"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2369,7 +2369,9 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -2705,7 +2707,9 @@
       <c r="M18" s="1">
         <v>1</v>
       </c>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -2831,7 +2835,9 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1">
@@ -2872,7 +2878,9 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -3245,7 +3253,9 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
       <c r="O30" s="1">
         <v>1</v>
       </c>
@@ -6317,7 +6327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4F48D-A64C-44BD-B29D-A1DEC991488E}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>

--- a/services/services.xlsx
+++ b/services/services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513AC30F-ED13-40E6-917D-7DFE5FE452F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C83FFC-627B-4C55-B215-672494FA5043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="292">
   <si>
     <t>Website</t>
   </si>
@@ -893,13 +893,34 @@
   </si>
   <si>
     <t>hq.com</t>
+  </si>
+  <si>
+    <t>key to other accounts</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Sexual preferences</t>
+  </si>
+  <si>
+    <t>Profile photo</t>
+  </si>
+  <si>
+    <t>Photos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -962,8 +983,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -980,6 +1008,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1038,8 +1071,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1054,16 +1088,51 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1550,9 +1619,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Services-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="29"/>
-      <tableStyleElement type="firstRowStripe" dxfId="28"/>
-      <tableStyleElement type="secondRowStripe" dxfId="27"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1567,12 +1636,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:W76">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:AB76">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB76">
     <sortCondition ref="C1:C76"/>
   </sortState>
-  <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Website" dataDxfId="26"/>
+  <tableColumns count="28">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Website" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Domain name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Company"/>
@@ -1581,19 +1650,24 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="min mask"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="extra sec"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2fa"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="name"/>
+    <tableColumn id="26" xr3:uid="{CA81BFE9-83DF-479D-B0A3-83EFCFB4C7D2}" name="Nickname" dataCellStyle="Bad"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Name"/>
+    <tableColumn id="27" xr3:uid="{02F2CE9F-3AA5-4646-98D5-CB066ED14A49}" name="Surname" dataCellStyle="Bad"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="birth date"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="gender"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="photo"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Profile photo"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="email"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="tlf"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="nacionality"/>
     <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="location"/>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="address"/>
+    <tableColumn id="31" xr3:uid="{A4C60F27-3AAD-4532-9C2F-457D561542A0}" name="Photos" dataCellStyle="Bad"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Messages"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="subscription"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="purchases"/>
-    <tableColumn id="24" xr3:uid="{7CB7E889-547D-4D78-AB1F-D83281316796}" name="money stored" dataDxfId="25"/>
+    <tableColumn id="24" xr3:uid="{7CB7E889-547D-4D78-AB1F-D83281316796}" name="money stored" dataDxfId="28"/>
+    <tableColumn id="25" xr3:uid="{AF645A59-D8FE-4918-81FF-21B0BC632269}" name="key to other accounts" dataDxfId="1"/>
+    <tableColumn id="29" xr3:uid="{E60C7C5C-E294-47C2-9758-1AEDA137E738}" name="Sexual preferences" dataDxfId="0"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="personal info"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -1607,7 +1681,7 @@
     <sortCondition ref="C1:C26"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{56E87647-17B6-48DA-A9F7-32B62327C70F}" name="Website" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{56E87647-17B6-48DA-A9F7-32B62327C70F}" name="Website" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{D901CD1D-6C5D-4273-984A-408CC59BA285}" name="Domain name"/>
     <tableColumn id="3" xr3:uid="{8AC5FBED-5FDA-4099-8FD4-6E47B55718AF}" name="Type"/>
     <tableColumn id="4" xr3:uid="{CCA9E98D-DF85-4C60-9A72-6E3AE6D7757C}" name="Company"/>
@@ -1640,31 +1714,31 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{946D6494-D706-452F-A1B2-A66E079CB5A2}" name="Table2" displayName="Table2" ref="A1:W12" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{946D6494-D706-452F-A1B2-A66E079CB5A2}" name="Table2" displayName="Table2" ref="A1:W12" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:W12" xr:uid="{946D6494-D706-452F-A1B2-A66E079CB5A2}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{BA484C69-3205-4F0A-945B-A88ADB483981}" name="Website" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{8EFCC907-AB07-47E7-95B1-208B8FF6C5F9}" name="Domain name" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{ED19FC05-228E-4996-A3D5-F579EE715F60}" name="Type" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{CE6960E2-FE14-4BB8-BD93-1C8E7A559E25}" name="Company" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{17FF8C25-9C48-46C3-8A24-8293B30B6EF8}" name="Country" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{F7343669-C795-4CC1-8763-D0E3064DE516}" name="min length" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{16525D02-FCAA-4761-ADCD-CC73F060DE5E}" name="min mask" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{38EF1F53-AE7D-41ED-80C9-8E6B560F0C85}" name="extra sec" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{C0FABE89-EDBF-47AE-B9D7-140124C190C2}" name="2fa" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{FEBA891E-3DF8-4C11-AD16-DD2BE9DE17CD}" name="name" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{F670B2B9-7737-4740-96FC-A93A9E55335B}" name="birth date" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{CA9C4BED-5B03-428D-B680-A9AC1B620D5D}" name="gender" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{DF9CF01E-222F-4268-BC15-FDAD54906605}" name="photo" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{91BBC4E7-9C12-4E44-95DF-5F774988F9FF}" name="email" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{9357CED0-3B93-4260-A0F9-2FEF6F4F5FB3}" name="tlf" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{AF37C082-316B-400F-9D5F-A17EC8D19FDA}" name="nacionality" dataDxfId="6"/>
-    <tableColumn id="17" xr3:uid="{B9AAFFD0-F1DA-44E9-9AD0-9DFC09B8116D}" name="location" dataDxfId="5"/>
-    <tableColumn id="18" xr3:uid="{6897A40E-6EE9-4D2B-B0B5-B50BDD6921AF}" name="address" dataDxfId="4"/>
-    <tableColumn id="19" xr3:uid="{F44809CD-48C2-417F-B7E0-7CE7E44E15C6}" name="Messages" dataDxfId="3"/>
-    <tableColumn id="20" xr3:uid="{8D031D5C-DF9A-4FC9-83B3-CDEC005F3D1C}" name="subscription" dataDxfId="2"/>
-    <tableColumn id="21" xr3:uid="{5410FF9E-8676-4B69-A9B2-8DF661977C01}" name="purchases" dataDxfId="1"/>
-    <tableColumn id="22" xr3:uid="{5ED40E59-9A2D-42A7-907D-D4CF76EF28C6}" name="personal info" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{BA484C69-3205-4F0A-945B-A88ADB483981}" name="Website" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{8EFCC907-AB07-47E7-95B1-208B8FF6C5F9}" name="Domain name" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{ED19FC05-228E-4996-A3D5-F579EE715F60}" name="Type" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{CE6960E2-FE14-4BB8-BD93-1C8E7A559E25}" name="Company" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{17FF8C25-9C48-46C3-8A24-8293B30B6EF8}" name="Country" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{F7343669-C795-4CC1-8763-D0E3064DE516}" name="min length" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{16525D02-FCAA-4761-ADCD-CC73F060DE5E}" name="min mask" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{38EF1F53-AE7D-41ED-80C9-8E6B560F0C85}" name="extra sec" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{C0FABE89-EDBF-47AE-B9D7-140124C190C2}" name="2fa" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{FEBA891E-3DF8-4C11-AD16-DD2BE9DE17CD}" name="name" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{F670B2B9-7737-4740-96FC-A93A9E55335B}" name="birth date" dataDxfId="14"/>
+    <tableColumn id="12" xr3:uid="{CA9C4BED-5B03-428D-B680-A9AC1B620D5D}" name="gender" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{DF9CF01E-222F-4268-BC15-FDAD54906605}" name="photo" dataDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{91BBC4E7-9C12-4E44-95DF-5F774988F9FF}" name="email" dataDxfId="11"/>
+    <tableColumn id="15" xr3:uid="{9357CED0-3B93-4260-A0F9-2FEF6F4F5FB3}" name="tlf" dataDxfId="10"/>
+    <tableColumn id="16" xr3:uid="{AF37C082-316B-400F-9D5F-A17EC8D19FDA}" name="nacionality" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{B9AAFFD0-F1DA-44E9-9AD0-9DFC09B8116D}" name="location" dataDxfId="8"/>
+    <tableColumn id="18" xr3:uid="{6897A40E-6EE9-4D2B-B0B5-B50BDD6921AF}" name="address" dataDxfId="7"/>
+    <tableColumn id="19" xr3:uid="{F44809CD-48C2-417F-B7E0-7CE7E44E15C6}" name="Messages" dataDxfId="6"/>
+    <tableColumn id="20" xr3:uid="{8D031D5C-DF9A-4FC9-83B3-CDEC005F3D1C}" name="subscription" dataDxfId="5"/>
+    <tableColumn id="21" xr3:uid="{5410FF9E-8676-4B69-A9B2-8DF661977C01}" name="purchases" dataDxfId="4"/>
+    <tableColumn id="22" xr3:uid="{5ED40E59-9A2D-42A7-907D-D4CF76EF28C6}" name="personal info" dataDxfId="3"/>
     <tableColumn id="23" xr3:uid="{E49F45BE-1D9B-41CC-9A17-8D6AE68AE4FC}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1869,36 +1943,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W989"/>
+  <dimension ref="A1:AB989"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="12" max="16" width="8.85546875" customWidth="1"/>
-    <col min="17" max="17" width="9.7109375" customWidth="1"/>
-    <col min="18" max="19" width="9.28515625" customWidth="1"/>
-    <col min="20" max="20" width="13.140625" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" customWidth="1"/>
-    <col min="23" max="23" width="62.85546875" customWidth="1"/>
-    <col min="24" max="26" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="16" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="18" width="8.85546875" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" customWidth="1"/>
+    <col min="21" max="21" width="9.28515625" style="16" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" customWidth="1"/>
+    <col min="25" max="27" width="8.5703125" customWidth="1"/>
+    <col min="28" max="28" width="62.85546875" customWidth="1"/>
+    <col min="29" max="31" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1926,50 +2007,65 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
+      <c r="J1" s="16" t="s">
+        <v>286</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
@@ -1991,34 +2087,38 @@
         <v>1</v>
       </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="1">
-        <v>1</v>
-      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1">
         <v>1</v>
       </c>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1</v>
-      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1"/>
       <c r="V2" s="1"/>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="1">
+        <v>1</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -2046,34 +2146,38 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
       <c r="M3" s="1">
         <v>1</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1" t="s">
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -2097,32 +2201,36 @@
       <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
+      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
-      <c r="T4" s="1">
-        <v>1</v>
-      </c>
-      <c r="U4" s="1">
-        <v>1</v>
-      </c>
+      <c r="T4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="1" t="s">
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -2146,36 +2254,40 @@
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
       <c r="K5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
       <c r="M5" s="1">
         <v>1</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1" t="s">
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2203,36 +2315,40 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
       <c r="K6" s="1">
         <v>1</v>
       </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
       <c r="M6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="1">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1"/>
+      <c r="T6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>221</v>
       </c>
@@ -2251,15 +2367,9 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
       <c r="K7">
         <v>1</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
         <v>1</v>
       </c>
@@ -2272,17 +2382,23 @@
       <c r="P7">
         <v>1</v>
       </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
       <c r="R7">
         <v>1</v>
       </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>243</v>
       </c>
@@ -2298,14 +2414,14 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>244</v>
       </c>
@@ -2321,29 +2437,29 @@
       <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="Y9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>167</v>
       </c>
@@ -2365,26 +2481,28 @@
       <c r="I10" s="1">
         <v>1</v>
       </c>
-      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="1" t="s">
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>246</v>
       </c>
@@ -2403,20 +2521,20 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>230</v>
       </c>
@@ -2435,26 +2553,26 @@
       <c r="I12" s="7">
         <v>1</v>
       </c>
-      <c r="J12" s="7">
-        <v>1</v>
-      </c>
-      <c r="L12" s="7">
-        <v>1</v>
-      </c>
-      <c r="M12" s="7">
+      <c r="K12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
         <v>1</v>
       </c>
-      <c r="S12" s="7">
-        <v>1</v>
-      </c>
-      <c r="T12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="O12" s="7">
+        <v>1</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="V12" s="7">
+        <v>1</v>
+      </c>
+      <c r="W12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>233</v>
       </c>
@@ -2473,15 +2591,9 @@
       <c r="I13" s="7">
         <v>1</v>
       </c>
-      <c r="J13" s="7">
-        <v>1</v>
-      </c>
       <c r="K13" s="7">
         <v>1</v>
       </c>
-      <c r="L13" s="7">
-        <v>1</v>
-      </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
@@ -2491,11 +2603,17 @@
       <c r="O13" s="7">
         <v>1</v>
       </c>
-      <c r="T13" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="P13" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>1</v>
+      </c>
+      <c r="W13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>161</v>
       </c>
@@ -2515,15 +2633,11 @@
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
+      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1">
         <v>1</v>
@@ -2533,12 +2647,18 @@
         <v>1</v>
       </c>
       <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="T14" s="1">
+        <v>1</v>
+      </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>171</v>
       </c>
@@ -2562,34 +2682,36 @@
       <c r="I15" s="1">
         <v>1</v>
       </c>
-      <c r="J15" s="1">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1">
+      <c r="K15" s="1">
         <v>1</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1">
         <v>1</v>
       </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1">
-        <v>1</v>
-      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1"/>
       <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
+      <c r="T15" s="1">
+        <v>1</v>
+      </c>
       <c r="V15" s="1"/>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>153</v>
       </c>
@@ -2611,34 +2733,36 @@
       <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="J16" s="1">
-        <v>1</v>
-      </c>
       <c r="K16" s="1">
         <v>1</v>
       </c>
-      <c r="L16" s="1"/>
       <c r="M16" s="1">
         <v>1</v>
       </c>
-      <c r="N16" s="1">
-        <v>1</v>
-      </c>
+      <c r="N16" s="1"/>
       <c r="O16" s="1">
         <v>1</v>
       </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1">
-        <v>1</v>
-      </c>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+      <c r="T16" s="1">
+        <v>1</v>
+      </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>224</v>
       </c>
@@ -2660,20 +2784,20 @@
       <c r="I17" s="7">
         <v>1</v>
       </c>
-      <c r="J17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1</v>
-      </c>
-      <c r="T17" s="7">
-        <v>1</v>
-      </c>
-      <c r="W17" s="1" t="s">
+      <c r="K17" s="7">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7">
+        <v>1</v>
+      </c>
+      <c r="W17" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -2699,32 +2823,34 @@
       <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1">
-        <v>1</v>
-      </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
-      <c r="T18" s="1">
-        <v>1</v>
-      </c>
-      <c r="U18" s="1"/>
+      <c r="T18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="1" t="s">
+      <c r="W18" s="1">
+        <v>1</v>
+      </c>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>237</v>
       </c>
@@ -2743,20 +2869,20 @@
       <c r="I19" s="7">
         <v>1</v>
       </c>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1</v>
-      </c>
-      <c r="T19" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="O19" s="7">
+        <v>1</v>
+      </c>
+      <c r="P19" s="7">
+        <v>1</v>
+      </c>
+      <c r="W19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>158</v>
       </c>
@@ -2780,34 +2906,36 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="1">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1">
-        <v>1</v>
-      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
       <c r="P20" s="1">
         <v>1</v>
       </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1</v>
+      </c>
       <c r="S20" s="1"/>
-      <c r="T20" s="1">
-        <v>1</v>
-      </c>
-      <c r="U20" s="1"/>
+      <c r="T20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="1">
+        <v>1</v>
+      </c>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>144</v>
       </c>
@@ -2829,30 +2957,32 @@
       <c r="I21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
       <c r="M21" s="1"/>
-      <c r="N21" s="1">
-        <v>1</v>
-      </c>
+      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1">
-        <v>1</v>
-      </c>
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1">
-        <v>1</v>
-      </c>
-      <c r="U21" s="1"/>
+      <c r="S21" s="1">
+        <v>1</v>
+      </c>
+      <c r="T21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W21" s="1">
+        <v>1</v>
+      </c>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+    </row>
+    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>164</v>
       </c>
@@ -2874,28 +3004,30 @@
         <v>1</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1">
-        <v>1</v>
-      </c>
+      <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="1">
-        <v>1</v>
-      </c>
-      <c r="U22" s="1"/>
+      <c r="T22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="1" t="s">
+      <c r="W22" s="1">
+        <v>1</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>235</v>
       </c>
@@ -2911,17 +3043,17 @@
       <c r="G23" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="J23" s="7">
-        <v>1</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1</v>
-      </c>
-      <c r="U23" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="7">
+        <v>1</v>
+      </c>
+      <c r="P23" s="7">
+        <v>1</v>
+      </c>
+      <c r="X23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>239</v>
       </c>
@@ -2940,18 +3072,18 @@
       <c r="I24" s="7">
         <v>1</v>
       </c>
-      <c r="J24" s="7">
-        <v>1</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1</v>
-      </c>
-      <c r="T24" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="K24" s="7">
+        <v>1</v>
+      </c>
+      <c r="P24" s="7">
+        <v>1</v>
+      </c>
+      <c r="W24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>273</v>
       </c>
       <c r="B25" t="s">
@@ -2966,13 +3098,10 @@
       <c r="G25" t="s">
         <v>27</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
       <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>1</v>
       </c>
       <c r="N25">
@@ -2981,9 +3110,11 @@
       <c r="P25">
         <v>1</v>
       </c>
-      <c r="V25" s="13"/>
-    </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
@@ -3009,23 +3140,19 @@
       <c r="I26" s="1">
         <v>1</v>
       </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
       <c r="K26" s="1">
         <v>1</v>
       </c>
-      <c r="L26" s="1">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1"/>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
       <c r="N26" s="1">
         <v>1</v>
       </c>
-      <c r="O26" s="1">
-        <v>1</v>
-      </c>
-      <c r="P26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
       <c r="Q26" s="1">
         <v>1</v>
       </c>
@@ -3033,18 +3160,26 @@
       <c r="S26" s="1">
         <v>1</v>
       </c>
-      <c r="T26" s="1">
-        <v>1</v>
-      </c>
-      <c r="U26" s="1">
-        <v>1</v>
-      </c>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1" t="s">
+      <c r="T26" s="1"/>
+      <c r="V26" s="1">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1">
+        <v>1</v>
+      </c>
+      <c r="X26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>169</v>
       </c>
@@ -3068,38 +3203,42 @@
       <c r="I27" s="1">
         <v>1</v>
       </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
       <c r="K27" s="1">
         <v>1</v>
       </c>
-      <c r="L27" s="1">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1"/>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
       <c r="N27" s="1">
         <v>1</v>
       </c>
-      <c r="O27" s="1">
-        <v>1</v>
-      </c>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1">
-        <v>1</v>
-      </c>
-      <c r="S27" s="1">
-        <v>1</v>
-      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>1</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
       <c r="T27" s="1">
         <v>1</v>
       </c>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V27" s="1">
+        <v>1</v>
+      </c>
+      <c r="W27" s="1">
+        <v>1</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+    </row>
+    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -3127,23 +3266,19 @@
       <c r="I28" s="1">
         <v>1</v>
       </c>
-      <c r="J28" s="1">
-        <v>1</v>
-      </c>
       <c r="K28" s="1">
         <v>1</v>
       </c>
-      <c r="L28" s="1"/>
       <c r="M28" s="1">
         <v>1</v>
       </c>
-      <c r="N28" s="1">
-        <v>1</v>
-      </c>
+      <c r="N28" s="1"/>
       <c r="O28" s="1">
         <v>1</v>
       </c>
-      <c r="P28" s="1"/>
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
       <c r="Q28" s="1">
         <v>1</v>
       </c>
@@ -3151,18 +3286,26 @@
       <c r="S28" s="1">
         <v>1</v>
       </c>
-      <c r="T28" s="1">
-        <v>1</v>
-      </c>
-      <c r="U28" s="1">
-        <v>1</v>
-      </c>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1" t="s">
+      <c r="T28" s="1"/>
+      <c r="V28" s="1">
+        <v>1</v>
+      </c>
+      <c r="W28" s="1">
+        <v>1</v>
+      </c>
+      <c r="X28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -3190,36 +3333,40 @@
       <c r="I29" s="1">
         <v>1</v>
       </c>
-      <c r="J29" s="1">
-        <v>1</v>
-      </c>
       <c r="K29" s="1">
         <v>1</v>
       </c>
-      <c r="L29" s="1">
-        <v>1</v>
-      </c>
-      <c r="M29" s="1"/>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
       <c r="N29" s="1">
         <v>1</v>
       </c>
-      <c r="O29" s="1">
-        <v>1</v>
-      </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
       <c r="R29" s="1"/>
-      <c r="S29" s="1">
-        <v>1</v>
-      </c>
+      <c r="S29" s="1"/>
       <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1" t="s">
+      <c r="V29" s="1">
+        <v>1</v>
+      </c>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -3247,32 +3394,36 @@
       <c r="I30" s="1">
         <v>1</v>
       </c>
-      <c r="J30" s="1">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
       <c r="M30" s="1"/>
-      <c r="N30" s="1">
-        <v>1</v>
-      </c>
-      <c r="O30" s="1">
-        <v>1</v>
-      </c>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
       <c r="R30" s="1"/>
-      <c r="S30" s="1">
-        <v>1</v>
-      </c>
+      <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1" t="s">
+      <c r="V30" s="1">
+        <v>1</v>
+      </c>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
@@ -3292,28 +3443,30 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1">
-        <v>1</v>
-      </c>
-      <c r="N31" s="1">
-        <v>1</v>
-      </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1">
+        <v>1</v>
+      </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="1" t="s">
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
@@ -3339,30 +3492,32 @@
         <v>1</v>
       </c>
       <c r="I32" s="1"/>
-      <c r="J32" s="1">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
       <c r="M32" s="1"/>
-      <c r="N32" s="1">
-        <v>1</v>
-      </c>
+      <c r="N32" s="1"/>
       <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="P32" s="1">
+        <v>1</v>
+      </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="1">
-        <v>1</v>
-      </c>
-      <c r="U32" s="1"/>
+      <c r="T32" s="1"/>
       <c r="V32" s="1"/>
-      <c r="W32" s="1" t="s">
+      <c r="W32" s="1">
+        <v>1</v>
+      </c>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -3386,32 +3541,34 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
       <c r="M33" s="1"/>
-      <c r="N33" s="1">
-        <v>1</v>
-      </c>
-      <c r="O33" s="1">
-        <v>1</v>
-      </c>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1</v>
+      </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="1">
-        <v>1</v>
-      </c>
-      <c r="U33" s="1"/>
+      <c r="T33" s="1"/>
       <c r="V33" s="1"/>
-      <c r="W33" s="1" t="s">
+      <c r="W33" s="1">
+        <v>1</v>
+      </c>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -3435,40 +3592,42 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1">
-        <v>1</v>
-      </c>
       <c r="K34" s="1">
         <v>1</v>
       </c>
-      <c r="L34" s="1">
-        <v>1</v>
-      </c>
       <c r="M34" s="1">
         <v>1</v>
       </c>
       <c r="N34" s="1">
         <v>1</v>
       </c>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1">
-        <v>1</v>
-      </c>
-      <c r="R34" s="1">
-        <v>1</v>
-      </c>
-      <c r="S34" s="1"/>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1">
+        <v>1</v>
+      </c>
       <c r="T34" s="1">
         <v>1</v>
       </c>
-      <c r="U34" s="1"/>
       <c r="V34" s="1"/>
-      <c r="W34" s="1" t="s">
+      <c r="W34" s="1">
+        <v>1</v>
+      </c>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>74</v>
       </c>
@@ -3494,38 +3653,40 @@
       <c r="I35" s="1">
         <v>1</v>
       </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1">
-        <v>1</v>
-      </c>
-      <c r="L35" s="1"/>
+      <c r="K35" s="1"/>
       <c r="M35" s="1">
         <v>1</v>
       </c>
-      <c r="N35" s="1">
-        <v>1</v>
-      </c>
+      <c r="N35" s="1"/>
       <c r="O35" s="1">
         <v>1</v>
       </c>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1</v>
+      </c>
       <c r="R35" s="1"/>
-      <c r="S35" s="1">
-        <v>1</v>
-      </c>
-      <c r="T35" s="1">
-        <v>1</v>
-      </c>
-      <c r="U35" s="1">
-        <v>1</v>
-      </c>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1" t="s">
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="V35" s="1">
+        <v>1</v>
+      </c>
+      <c r="W35" s="1">
+        <v>1</v>
+      </c>
+      <c r="X35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>203</v>
       </c>
@@ -3547,32 +3708,32 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
       <c r="K36">
         <v>1</v>
       </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="R36">
-        <v>1</v>
-      </c>
-      <c r="U36">
-        <v>1</v>
-      </c>
-      <c r="V36">
-        <v>1</v>
-      </c>
-      <c r="W36" t="s">
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>199</v>
       </c>
@@ -3600,35 +3761,35 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
       <c r="K37">
         <v>1</v>
       </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
+      <c r="M37">
         <v>1</v>
       </c>
       <c r="P37">
         <v>1</v>
       </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
       <c r="R37">
         <v>1</v>
       </c>
-      <c r="U37">
-        <v>1</v>
-      </c>
-      <c r="V37">
-        <v>1</v>
-      </c>
-      <c r="W37" t="s">
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>146</v>
       </c>
@@ -3652,40 +3813,42 @@
       <c r="I38" s="1">
         <v>1</v>
       </c>
-      <c r="J38" s="1">
-        <v>1</v>
-      </c>
       <c r="K38" s="1">
         <v>1</v>
       </c>
-      <c r="L38" s="1"/>
       <c r="M38" s="1">
         <v>1</v>
       </c>
-      <c r="N38" s="1">
-        <v>1</v>
-      </c>
+      <c r="N38" s="1"/>
       <c r="O38" s="1">
         <v>1</v>
       </c>
       <c r="P38" s="1">
         <v>1</v>
       </c>
-      <c r="Q38" s="1"/>
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
       <c r="R38" s="1">
         <v>1</v>
       </c>
       <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1">
-        <v>1</v>
-      </c>
-      <c r="V38" s="1">
-        <v>1</v>
-      </c>
+      <c r="T38" s="1">
+        <v>1</v>
+      </c>
+      <c r="V38" s="1"/>
       <c r="W38" s="1"/>
-    </row>
-    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+    </row>
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>155</v>
       </c>
@@ -3709,32 +3872,34 @@
       <c r="I39" s="1">
         <v>1</v>
       </c>
-      <c r="J39" s="1">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
       <c r="M39" s="1"/>
-      <c r="N39" s="1">
-        <v>1</v>
-      </c>
-      <c r="O39" s="1">
-        <v>1</v>
-      </c>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="1">
-        <v>1</v>
-      </c>
-      <c r="U39" s="1"/>
+      <c r="T39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="1" t="s">
+      <c r="W39" s="1">
+        <v>1</v>
+      </c>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>205</v>
       </c>
@@ -3759,29 +3924,29 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
       <c r="K40">
         <v>1</v>
       </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>1</v>
-      </c>
-      <c r="R40">
-        <v>1</v>
-      </c>
-      <c r="U40">
-        <v>1</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="X40">
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
@@ -3805,36 +3970,38 @@
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1">
-        <v>1</v>
-      </c>
-      <c r="N41" s="1">
-        <v>1</v>
-      </c>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1">
-        <v>1</v>
-      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+      <c r="P41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1">
         <v>1</v>
       </c>
-      <c r="T41" s="1">
-        <v>1</v>
-      </c>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1" t="s">
+      <c r="T41" s="1"/>
+      <c r="V41" s="1">
+        <v>1</v>
+      </c>
+      <c r="W41" s="1">
+        <v>1</v>
+      </c>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
@@ -3858,23 +4025,19 @@
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1">
-        <v>1</v>
-      </c>
       <c r="K42" s="1">
         <v>1</v>
       </c>
-      <c r="L42" s="1"/>
       <c r="M42" s="1">
         <v>1</v>
       </c>
-      <c r="N42" s="1">
-        <v>1</v>
-      </c>
+      <c r="N42" s="1"/>
       <c r="O42" s="1">
         <v>1</v>
       </c>
-      <c r="P42" s="1"/>
+      <c r="P42" s="1">
+        <v>1</v>
+      </c>
       <c r="Q42" s="1">
         <v>1</v>
       </c>
@@ -3882,18 +4045,24 @@
       <c r="S42" s="1">
         <v>1</v>
       </c>
-      <c r="T42" s="1">
-        <v>1</v>
-      </c>
-      <c r="U42" s="1">
-        <v>1</v>
-      </c>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1" t="s">
+      <c r="T42" s="1"/>
+      <c r="V42" s="1">
+        <v>1</v>
+      </c>
+      <c r="W42" s="1">
+        <v>1</v>
+      </c>
+      <c r="X42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>92</v>
       </c>
@@ -3921,38 +4090,40 @@
       <c r="I43" s="1">
         <v>1</v>
       </c>
-      <c r="J43" s="1">
-        <v>1</v>
-      </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
       <c r="M43" s="1"/>
-      <c r="N43" s="1">
-        <v>1</v>
-      </c>
+      <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1">
-        <v>1</v>
-      </c>
-      <c r="R43" s="1">
-        <v>1</v>
-      </c>
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
       <c r="S43" s="1">
         <v>1</v>
       </c>
       <c r="T43" s="1">
         <v>1</v>
       </c>
-      <c r="U43" s="1">
-        <v>1</v>
-      </c>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1" t="s">
+      <c r="V43" s="1">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1">
+        <v>1</v>
+      </c>
+      <c r="X43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
@@ -3980,34 +4151,36 @@
       <c r="I44" s="1">
         <v>1</v>
       </c>
-      <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="1">
-        <v>1</v>
-      </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1">
         <v>1</v>
       </c>
-      <c r="O44" s="1">
-        <v>1</v>
-      </c>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>1</v>
+      </c>
       <c r="R44" s="1"/>
-      <c r="S44" s="1">
-        <v>1</v>
-      </c>
-      <c r="T44" s="1">
-        <v>1</v>
-      </c>
-      <c r="U44" s="1">
-        <v>1</v>
-      </c>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-    </row>
-    <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="V44" s="1">
+        <v>1</v>
+      </c>
+      <c r="W44" s="1">
+        <v>1</v>
+      </c>
+      <c r="X44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+    </row>
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>85</v>
       </c>
@@ -4035,21 +4208,17 @@
       <c r="I45" s="1">
         <v>1</v>
       </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1">
-        <v>1</v>
-      </c>
-      <c r="L45" s="1"/>
+      <c r="K45" s="1"/>
       <c r="M45" s="1">
         <v>1</v>
       </c>
-      <c r="N45" s="1">
-        <v>1</v>
-      </c>
+      <c r="N45" s="1"/>
       <c r="O45" s="1">
         <v>1</v>
       </c>
-      <c r="P45" s="1"/>
+      <c r="P45" s="1">
+        <v>1</v>
+      </c>
       <c r="Q45" s="1">
         <v>1</v>
       </c>
@@ -4057,18 +4226,24 @@
       <c r="S45" s="1">
         <v>1</v>
       </c>
-      <c r="T45" s="1">
-        <v>1</v>
-      </c>
-      <c r="U45" s="1">
-        <v>1</v>
-      </c>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1" t="s">
+      <c r="T45" s="1"/>
+      <c r="V45" s="1">
+        <v>1</v>
+      </c>
+      <c r="W45" s="1">
+        <v>1</v>
+      </c>
+      <c r="X45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>260</v>
       </c>
@@ -4090,20 +4265,20 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="U46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>242</v>
       </c>
@@ -4119,23 +4294,23 @@
       <c r="G47" t="s">
         <v>27</v>
       </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="L47">
+      <c r="K47">
         <v>1</v>
       </c>
       <c r="N47">
         <v>1</v>
       </c>
-      <c r="S47">
-        <v>1</v>
-      </c>
-      <c r="U47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>207</v>
       </c>
@@ -4160,23 +4335,23 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>1</v>
-      </c>
-      <c r="R48">
-        <v>1</v>
-      </c>
-      <c r="U48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>210</v>
       </c>
@@ -4198,26 +4373,26 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>1</v>
-      </c>
-      <c r="R49">
-        <v>1</v>
-      </c>
-      <c r="U49">
-        <v>1</v>
-      </c>
-      <c r="W49" t="s">
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>216</v>
       </c>
@@ -4239,23 +4414,23 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>1</v>
-      </c>
-      <c r="R50">
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
         <v>1</v>
       </c>
       <c r="T50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>218</v>
       </c>
@@ -4277,26 +4452,26 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="R51">
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
         <v>1</v>
       </c>
       <c r="T51">
         <v>1</v>
       </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>214</v>
       </c>
@@ -4315,23 +4490,23 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>1</v>
-      </c>
-      <c r="T52">
-        <v>1</v>
-      </c>
-      <c r="U52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="W52">
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>267</v>
       </c>
@@ -4350,29 +4525,29 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
       <c r="K53">
         <v>1</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>1</v>
       </c>
       <c r="N53">
         <v>1</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>1</v>
       </c>
       <c r="Q53">
         <v>1</v>
       </c>
-      <c r="T53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>269</v>
       </c>
@@ -4391,29 +4566,29 @@
       <c r="H54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-      <c r="N54">
+      <c r="K54">
         <v>1</v>
       </c>
       <c r="O54">
         <v>1</v>
       </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
       <c r="Q54">
         <v>1</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>1</v>
       </c>
       <c r="T54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>265</v>
       </c>
@@ -4429,17 +4604,17 @@
       <c r="G55" t="s">
         <v>38</v>
       </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="T55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>195</v>
       </c>
@@ -4458,23 +4633,23 @@
       <c r="G56" t="s">
         <v>38</v>
       </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
       <c r="K56">
         <v>1</v>
       </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="Q56">
-        <v>1</v>
-      </c>
-      <c r="W56" t="s">
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="AB56" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>192</v>
       </c>
@@ -4493,20 +4668,20 @@
       <c r="G57" t="s">
         <v>27</v>
       </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="T57">
-        <v>1</v>
-      </c>
-      <c r="W57" t="s">
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="AB57" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>113</v>
       </c>
@@ -4532,36 +4707,38 @@
       <c r="I58" s="1">
         <v>1</v>
       </c>
-      <c r="J58" s="1">
-        <v>1</v>
-      </c>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
       <c r="M58" s="1"/>
-      <c r="N58" s="1">
-        <v>1</v>
-      </c>
-      <c r="O58" s="1">
-        <v>1</v>
-      </c>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1">
-        <v>1</v>
-      </c>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>1</v>
+      </c>
+      <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1">
         <v>1</v>
       </c>
-      <c r="U58" s="1">
-        <v>1</v>
-      </c>
       <c r="V58" s="1"/>
-      <c r="W58" s="1" t="s">
+      <c r="W58" s="1">
+        <v>1</v>
+      </c>
+      <c r="X58" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y58" s="1"/>
+      <c r="Z58" s="1"/>
+      <c r="AA58" s="1"/>
+      <c r="AB58" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>149</v>
       </c>
@@ -4583,34 +4760,36 @@
       <c r="I59" s="1">
         <v>1</v>
       </c>
-      <c r="J59" s="1">
-        <v>1</v>
-      </c>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
       <c r="M59" s="1"/>
-      <c r="N59" s="1">
-        <v>1</v>
-      </c>
+      <c r="N59" s="1"/>
       <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1">
-        <v>1</v>
-      </c>
-      <c r="R59" s="1">
-        <v>1</v>
-      </c>
-      <c r="S59" s="1"/>
-      <c r="T59" s="1"/>
-      <c r="U59" s="1">
+      <c r="P59" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1">
+        <v>1</v>
+      </c>
+      <c r="T59" s="1">
         <v>1</v>
       </c>
       <c r="V59" s="1"/>
-      <c r="W59" s="1" t="s">
+      <c r="W59" s="1"/>
+      <c r="X59" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>228</v>
       </c>
@@ -4626,23 +4805,23 @@
       <c r="G60" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="J60" s="7">
-        <v>1</v>
-      </c>
-      <c r="N60" s="7">
-        <v>1</v>
-      </c>
-      <c r="O60" s="7">
-        <v>1</v>
-      </c>
-      <c r="R60" s="7">
-        <v>1</v>
-      </c>
-      <c r="U60" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K60" s="7">
+        <v>1</v>
+      </c>
+      <c r="P60" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>1</v>
+      </c>
+      <c r="T60" s="7">
+        <v>1</v>
+      </c>
+      <c r="X60" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>117</v>
       </c>
@@ -4668,34 +4847,36 @@
         <v>1</v>
       </c>
       <c r="I61" s="1"/>
-      <c r="J61" s="1">
-        <v>1</v>
-      </c>
       <c r="K61" s="1">
         <v>1</v>
       </c>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1">
-        <v>1</v>
-      </c>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1"/>
       <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
+      <c r="P61" s="1">
+        <v>1</v>
+      </c>
       <c r="Q61" s="1"/>
-      <c r="R61" s="1">
-        <v>1</v>
-      </c>
+      <c r="R61" s="1"/>
       <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1">
+      <c r="T61" s="1">
         <v>1</v>
       </c>
       <c r="V61" s="1"/>
-      <c r="W61" s="1" t="s">
+      <c r="W61" s="1"/>
+      <c r="X61" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y61" s="1"/>
+      <c r="Z61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AB61" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>142</v>
       </c>
@@ -4717,32 +4898,34 @@
       <c r="I62" s="1">
         <v>1</v>
       </c>
-      <c r="J62" s="1">
-        <v>1</v>
-      </c>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
       <c r="M62" s="1"/>
-      <c r="N62" s="1">
-        <v>1</v>
-      </c>
+      <c r="N62" s="1"/>
       <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
+      <c r="P62" s="1">
+        <v>1</v>
+      </c>
       <c r="Q62" s="1"/>
-      <c r="R62" s="1">
-        <v>1</v>
-      </c>
+      <c r="R62" s="1"/>
       <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1">
+      <c r="T62" s="1">
         <v>1</v>
       </c>
       <c r="V62" s="1"/>
-      <c r="W62" s="1" t="s">
+      <c r="W62" s="1"/>
+      <c r="X62" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y62" s="1"/>
+      <c r="Z62" s="1"/>
+      <c r="AA62" s="1"/>
+      <c r="AB62" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>151</v>
       </c>
@@ -4764,35 +4947,37 @@
       <c r="I63" s="1">
         <v>1</v>
       </c>
-      <c r="J63" s="1">
-        <v>1</v>
-      </c>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
       <c r="M63" s="1"/>
-      <c r="N63" s="1">
-        <v>1</v>
-      </c>
-      <c r="O63" s="1">
-        <v>1</v>
-      </c>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1">
-        <v>1</v>
-      </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>1</v>
+      </c>
+      <c r="R63" s="1"/>
       <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1">
+      <c r="T63" s="1">
         <v>1</v>
       </c>
       <c r="V63" s="1"/>
-      <c r="W63" s="1" t="s">
+      <c r="W63" s="1"/>
+      <c r="X63" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="1"/>
+      <c r="Z63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AB63" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
+    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>258</v>
       </c>
       <c r="B64" t="s">
@@ -4807,27 +4992,26 @@
       <c r="G64" t="s">
         <v>27</v>
       </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="L64">
+      <c r="K64">
         <v>1</v>
       </c>
       <c r="N64">
         <v>1</v>
       </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="R64">
-        <v>1</v>
-      </c>
-      <c r="U64">
-        <v>1</v>
-      </c>
-      <c r="V64" s="13"/>
-    </row>
-    <row r="65" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>137</v>
       </c>
@@ -4855,36 +5039,38 @@
       <c r="I65" s="1">
         <v>1</v>
       </c>
-      <c r="J65" s="1">
-        <v>1</v>
-      </c>
       <c r="K65" s="1">
         <v>1</v>
       </c>
-      <c r="L65" s="1"/>
       <c r="M65" s="1">
         <v>1</v>
       </c>
-      <c r="N65" s="1">
-        <v>1</v>
-      </c>
+      <c r="N65" s="1"/>
       <c r="O65" s="1">
         <v>1</v>
       </c>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
+      <c r="P65" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>1</v>
+      </c>
       <c r="R65" s="1"/>
-      <c r="S65" s="1">
-        <v>1</v>
-      </c>
-      <c r="T65" s="1">
-        <v>1</v>
-      </c>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-    </row>
-    <row r="66" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="V65" s="1">
+        <v>1</v>
+      </c>
+      <c r="W65" s="1">
+        <v>1</v>
+      </c>
+      <c r="X65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="Z65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AB65" s="1"/>
+    </row>
+    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>226</v>
       </c>
@@ -4900,23 +5086,26 @@
       <c r="G66" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J66" s="7">
-        <v>1</v>
-      </c>
-      <c r="M66" s="7">
-        <v>1</v>
-      </c>
-      <c r="N66" s="7">
+      <c r="K66" s="7">
         <v>1</v>
       </c>
       <c r="O66" s="7">
         <v>1</v>
       </c>
+      <c r="P66" s="7">
+        <v>1</v>
+      </c>
       <c r="Q66" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S66" s="7">
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>119</v>
       </c>
@@ -4942,15 +5131,9 @@
       <c r="I67" s="1">
         <v>1</v>
       </c>
-      <c r="J67" s="1">
-        <v>1</v>
-      </c>
       <c r="K67" s="1">
         <v>1</v>
       </c>
-      <c r="L67" s="1">
-        <v>1</v>
-      </c>
       <c r="M67" s="1">
         <v>1</v>
       </c>
@@ -4960,7 +5143,9 @@
       <c r="O67" s="1">
         <v>1</v>
       </c>
-      <c r="P67" s="1"/>
+      <c r="P67" s="1">
+        <v>1</v>
+      </c>
       <c r="Q67" s="1">
         <v>1</v>
       </c>
@@ -4969,13 +5154,19 @@
         <v>1</v>
       </c>
       <c r="T67" s="1"/>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1"/>
-      <c r="W67" s="1" t="s">
+      <c r="V67" s="1">
+        <v>1</v>
+      </c>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AB67" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>124</v>
       </c>
@@ -5001,15 +5192,9 @@
       <c r="I68" s="1">
         <v>1</v>
       </c>
-      <c r="J68" s="1">
-        <v>1</v>
-      </c>
       <c r="K68" s="1">
         <v>1</v>
       </c>
-      <c r="L68" s="1">
-        <v>1</v>
-      </c>
       <c r="M68" s="1">
         <v>1</v>
       </c>
@@ -5019,20 +5204,28 @@
       <c r="O68" s="1">
         <v>1</v>
       </c>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
+      <c r="P68" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>1</v>
+      </c>
       <c r="R68" s="1"/>
-      <c r="S68" s="1">
-        <v>1</v>
-      </c>
+      <c r="S68" s="1"/>
       <c r="T68" s="1"/>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1" t="s">
+      <c r="V68" s="1">
+        <v>1</v>
+      </c>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+      <c r="AA68" s="1"/>
+      <c r="AB68" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="69" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>231</v>
       </c>
@@ -5048,32 +5241,32 @@
       <c r="G69" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J69" s="7">
-        <v>1</v>
-      </c>
       <c r="K69" s="7">
         <v>1</v>
       </c>
-      <c r="L69" s="7">
-        <v>1</v>
-      </c>
       <c r="M69" s="7">
         <v>1</v>
       </c>
       <c r="N69" s="7">
         <v>1</v>
       </c>
-      <c r="Q69" s="7">
+      <c r="O69" s="7">
+        <v>1</v>
+      </c>
+      <c r="P69" s="7">
         <v>1</v>
       </c>
       <c r="S69" s="7">
         <v>1</v>
       </c>
-      <c r="T69" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V69" s="7">
+        <v>1</v>
+      </c>
+      <c r="W69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>241</v>
       </c>
@@ -5095,26 +5288,26 @@
       <c r="I70" s="7">
         <v>1</v>
       </c>
-      <c r="J70" s="7">
-        <v>1</v>
-      </c>
       <c r="K70" s="7">
         <v>1</v>
       </c>
-      <c r="L70" s="7">
-        <v>1</v>
-      </c>
       <c r="M70" s="7">
         <v>1</v>
       </c>
       <c r="N70" s="7">
         <v>1</v>
       </c>
-      <c r="S70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O70" s="7">
+        <v>1</v>
+      </c>
+      <c r="P70" s="7">
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>135</v>
       </c>
@@ -5140,36 +5333,40 @@
       <c r="I71" s="1">
         <v>1</v>
       </c>
-      <c r="J71" s="1">
-        <v>1</v>
-      </c>
       <c r="K71" s="1">
         <v>1</v>
       </c>
-      <c r="L71" s="1">
-        <v>1</v>
-      </c>
       <c r="M71" s="1">
         <v>1</v>
       </c>
       <c r="N71" s="1">
         <v>1</v>
       </c>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1">
-        <v>1</v>
-      </c>
+      <c r="O71" s="1">
+        <v>1</v>
+      </c>
+      <c r="P71" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
+      <c r="S71" s="1">
+        <v>1</v>
+      </c>
       <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1" t="s">
+      <c r="V71" s="1">
+        <v>1</v>
+      </c>
+      <c r="W71" s="1"/>
+      <c r="X71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="Z71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AB71" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>129</v>
       </c>
@@ -5197,21 +5394,17 @@
       <c r="I72" s="1">
         <v>1</v>
       </c>
-      <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-      <c r="L72" s="1">
-        <v>1</v>
-      </c>
-      <c r="M72" s="1">
-        <v>1</v>
-      </c>
+      <c r="M72" s="1"/>
       <c r="N72" s="1">
         <v>1</v>
       </c>
       <c r="O72" s="1">
         <v>1</v>
       </c>
-      <c r="P72" s="1"/>
+      <c r="P72" s="1">
+        <v>1</v>
+      </c>
       <c r="Q72" s="1">
         <v>1</v>
       </c>
@@ -5220,15 +5413,21 @@
         <v>1</v>
       </c>
       <c r="T72" s="1"/>
-      <c r="U72" s="1">
-        <v>1</v>
-      </c>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1" t="s">
+      <c r="V72" s="1">
+        <v>1</v>
+      </c>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="1"/>
+      <c r="Z72" s="1"/>
+      <c r="AA72" s="1"/>
+      <c r="AB72" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>131</v>
       </c>
@@ -5254,23 +5453,19 @@
       <c r="I73" s="1">
         <v>1</v>
       </c>
-      <c r="J73" s="1">
-        <v>1</v>
-      </c>
       <c r="K73" s="1">
         <v>1</v>
       </c>
-      <c r="L73" s="1"/>
       <c r="M73" s="1">
         <v>1</v>
       </c>
-      <c r="N73" s="1">
-        <v>1</v>
-      </c>
+      <c r="N73" s="1"/>
       <c r="O73" s="1">
         <v>1</v>
       </c>
-      <c r="P73" s="1"/>
+      <c r="P73" s="1">
+        <v>1</v>
+      </c>
       <c r="Q73" s="1">
         <v>1</v>
       </c>
@@ -5279,15 +5474,21 @@
         <v>1</v>
       </c>
       <c r="T73" s="1"/>
-      <c r="U73" s="1">
-        <v>1</v>
-      </c>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1" t="s">
+      <c r="V73" s="1">
+        <v>1</v>
+      </c>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AB73" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>126</v>
       </c>
@@ -5313,23 +5514,19 @@
       <c r="I74" s="1">
         <v>1</v>
       </c>
-      <c r="J74" s="1">
-        <v>1</v>
-      </c>
       <c r="K74" s="1">
         <v>1</v>
       </c>
-      <c r="L74" s="1"/>
       <c r="M74" s="1">
         <v>1</v>
       </c>
-      <c r="N74" s="1">
-        <v>1</v>
-      </c>
+      <c r="N74" s="1"/>
       <c r="O74" s="1">
         <v>1</v>
       </c>
-      <c r="P74" s="1"/>
+      <c r="P74" s="1">
+        <v>1</v>
+      </c>
       <c r="Q74" s="1">
         <v>1</v>
       </c>
@@ -5338,14 +5535,20 @@
         <v>1</v>
       </c>
       <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1" t="s">
+      <c r="V74" s="1">
+        <v>1</v>
+      </c>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1"/>
+      <c r="Y74" s="1"/>
+      <c r="Z74" s="1"/>
+      <c r="AA74" s="1"/>
+      <c r="AB74" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="75" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+    <row r="75" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>262</v>
       </c>
       <c r="B75" s="11" t="s">
@@ -5360,25 +5563,27 @@
       <c r="G75" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J75" s="7">
-        <v>1</v>
-      </c>
-      <c r="M75" s="7">
-        <v>1</v>
-      </c>
-      <c r="N75" s="7">
+      <c r="K75" s="7">
         <v>1</v>
       </c>
       <c r="O75" s="7">
         <v>1</v>
       </c>
+      <c r="P75" s="7">
+        <v>1</v>
+      </c>
       <c r="Q75" s="7">
         <v>1</v>
       </c>
-      <c r="V75" s="13"/>
-    </row>
-    <row r="76" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+      <c r="S75" s="7">
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>275</v>
       </c>
       <c r="B76" t="s">
@@ -5393,18 +5598,20 @@
       <c r="G76" t="s">
         <v>27</v>
       </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="V76" s="13"/>
-    </row>
-    <row r="77" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6329,7 +6536,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C25" sqref="C25"/>
+      <selection pane="topRight" activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7172,6 +7379,9 @@
       <c r="Q22" s="7">
         <v>1</v>
       </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
       <c r="X22" s="6">
         <v>43435</v>
       </c>
@@ -7337,6 +7547,9 @@
         <v>1</v>
       </c>
       <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="S26">
         <v>1</v>
       </c>
       <c r="X26" s="6">
@@ -9752,353 +9965,217 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" t="s">
         <v>264</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13">
-        <v>1</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13">
-        <v>1</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13">
-        <v>1</v>
-      </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
       <c r="W4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" t="s">
         <v>264</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13">
+      <c r="F5">
         <v>8</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13">
-        <v>1</v>
-      </c>
-      <c r="J5" s="13">
-        <v>1</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13">
-        <v>1</v>
-      </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13">
-        <v>1</v>
-      </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6">
         <v>8</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13">
-        <v>1</v>
-      </c>
-      <c r="J6" s="13">
-        <v>1</v>
-      </c>
-      <c r="K6" s="13">
-        <v>1</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13">
-        <v>1</v>
-      </c>
-      <c r="O6" s="13">
-        <v>1</v>
-      </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13">
-        <v>1</v>
-      </c>
-      <c r="V6" s="13"/>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
       <c r="W6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" t="s">
         <v>256</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" t="s">
         <v>257</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" t="s">
         <v>271</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" t="s">
         <v>272</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13">
-        <v>1</v>
-      </c>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13">
-        <v>1</v>
-      </c>
-      <c r="N8" s="13">
-        <v>1</v>
-      </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13">
-        <v>1</v>
-      </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13">
-        <v>1</v>
-      </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" t="s">
         <v>274</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" t="s">
         <v>279</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" t="s">
         <v>277</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" t="s">
         <v>281</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" t="s">
         <v>282</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" t="s">
         <v>284</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13">
-        <v>1</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13">
-        <v>1</v>
-      </c>
-      <c r="O11" s="13">
-        <v>1</v>
-      </c>
-      <c r="P11" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13">
-        <v>1</v>
-      </c>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+      <c r="A12" t="s">
         <v>245</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" t="s">
         <v>253</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13">
-        <v>1</v>
-      </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13">
-        <v>1</v>
-      </c>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10152,21 +10229,21 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>141</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -10180,14 +10257,12 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" t="s">
         <v>245</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
@@ -10204,21 +10279,21 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>141</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -10227,22 +10302,20 @@
       <c r="C8" s="12">
         <v>9</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" t="s">
         <v>283</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -10251,26 +10324,26 @@
       <c r="C10" s="12">
         <v>8</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -10279,21 +10352,21 @@
       <c r="C12" s="12">
         <v>8</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" t="s">
         <v>235</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13">
         <v>8</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>107</v>
       </c>
     </row>
@@ -10312,20 +10385,18 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" t="s">
         <v>274</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>260</v>
       </c>
       <c r="C16" s="12">
@@ -10336,17 +10407,15 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>83</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -10360,17 +10429,15 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" t="s">
         <v>282</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" t="s">
         <v>277</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>115</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -10379,54 +10446,54 @@
       <c r="C20" s="12">
         <v>8</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
+      <c r="A21" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" t="s">
         <v>258</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21">
         <v>8</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>262</v>
       </c>
       <c r="C22" s="12">
         <v>5</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" t="s">
         <v>231</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23">
         <v>6</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>121</v>
       </c>
       <c r="B24" s="12" t="s">
@@ -10435,31 +10502,29 @@
       <c r="C24" s="12">
         <v>6</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" t="s">
         <v>271</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="C26" s="14">
-        <v>1</v>
-      </c>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="13">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>27</v>
       </c>
     </row>

--- a/services/services.xlsx
+++ b/services/services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C83FFC-627B-4C55-B215-672494FA5043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A469C2-2033-4E48-8B61-0352D826D298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1946,10 +1946,10 @@
   <dimension ref="A1:AB989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1972,7 +1972,7 @@
     <col min="20" max="20" width="9.28515625" customWidth="1"/>
     <col min="21" max="21" width="9.28515625" style="16" customWidth="1"/>
     <col min="22" max="22" width="9.28515625" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
     <col min="24" max="24" width="11.7109375" customWidth="1"/>
     <col min="25" max="27" width="8.5703125" customWidth="1"/>
     <col min="28" max="28" width="62.85546875" customWidth="1"/>
@@ -2536,16 +2536,16 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>134</v>
+        <v>234</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>27</v>
@@ -2556,6 +2556,9 @@
       <c r="K12" s="7">
         <v>1</v>
       </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
       <c r="N12" s="7">
         <v>1</v>
       </c>
@@ -2565,7 +2568,7 @@
       <c r="P12" s="7">
         <v>1</v>
       </c>
-      <c r="V12" s="7">
+      <c r="Q12" s="7">
         <v>1</v>
       </c>
       <c r="W12" s="7">
@@ -2574,51 +2577,55 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>234</v>
+        <v>161</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1</v>
-      </c>
-      <c r="O13" s="7">
-        <v>1</v>
-      </c>
-      <c r="P13" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>1</v>
-      </c>
-      <c r="W13" s="7">
-        <v>1</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>141</v>
@@ -2626,44 +2633,54 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+        <v>59</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
       <c r="K14" s="1">
         <v>1</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1">
         <v>1</v>
       </c>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1">
         <v>1</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
+      <c r="X14" s="1">
+        <v>1</v>
+      </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
+      <c r="AB14" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>141</v>
@@ -2674,22 +2691,22 @@
         <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1">
         <v>1</v>
       </c>
       <c r="K15" s="1">
         <v>1</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1"/>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
       <c r="P15" s="1">
         <v>1</v>
       </c>
@@ -2707,187 +2724,187 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-      <c r="AB15" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1">
+        <v>224</v>
+      </c>
+      <c r="B16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16">
         <v>8</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>1</v>
-      </c>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1">
-        <v>1</v>
-      </c>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
+      <c r="G16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>1</v>
+      </c>
+      <c r="P16" s="7">
+        <v>1</v>
+      </c>
+      <c r="W16" s="7">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B17" t="s">
-        <v>174</v>
+        <v>43</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="D17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7">
-        <v>1</v>
-      </c>
-      <c r="P17" s="7">
-        <v>1</v>
-      </c>
-      <c r="W17" s="7">
-        <v>1</v>
-      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
       <c r="AB17" s="1" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>237</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="1">
-        <v>12</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1">
-        <v>1</v>
-      </c>
-      <c r="P18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1">
-        <v>1</v>
-      </c>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1" t="s">
-        <v>48</v>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7">
+        <v>1</v>
+      </c>
+      <c r="O18" s="7">
+        <v>1</v>
+      </c>
+      <c r="P18" s="7">
+        <v>1</v>
+      </c>
+      <c r="W18" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>238</v>
+        <v>158</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F19">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
         <v>6</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1</v>
-      </c>
-      <c r="K19" s="7">
-        <v>1</v>
-      </c>
-      <c r="O19" s="7">
-        <v>1</v>
-      </c>
-      <c r="P19" s="7">
-        <v>1</v>
-      </c>
-      <c r="W19" s="7">
-        <v>1</v>
+      <c r="G19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
+      </c>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>45</v>
@@ -2900,9 +2917,7 @@
       <c r="G20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1">
         <v>1</v>
       </c>
@@ -2915,13 +2930,11 @@
       <c r="P20" s="1">
         <v>1</v>
       </c>
-      <c r="Q20" s="1">
-        <v>1</v>
-      </c>
-      <c r="R20" s="1">
-        <v>1</v>
-      </c>
-      <c r="S20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
       <c r="T20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1">
@@ -2931,16 +2944,14 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
-      <c r="AB20" s="1" t="s">
-        <v>160</v>
-      </c>
+      <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>45</v>
@@ -2948,18 +2959,16 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="K21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -2968,9 +2977,7 @@
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1">
-        <v>1</v>
-      </c>
+      <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1">
@@ -2980,59 +2987,42 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
+      <c r="AB21" s="1" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>165</v>
+        <v>235</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1">
+      <c r="F22">
         <v>8</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1">
-        <v>1</v>
-      </c>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1" t="s">
-        <v>166</v>
+      <c r="G22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1</v>
+      </c>
+      <c r="P22" s="7">
+        <v>1</v>
+      </c>
+      <c r="X22" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>45</v>
@@ -3043,100 +3033,137 @@
       <c r="G23" s="7" t="s">
         <v>107</v>
       </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
       <c r="K23" s="7">
         <v>1</v>
       </c>
       <c r="P23" s="7">
         <v>1</v>
       </c>
-      <c r="X23" s="7">
+      <c r="W23" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="A24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" t="s">
+        <v>278</v>
+      </c>
+      <c r="C24" t="s">
         <v>45</v>
       </c>
       <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="1">
         <v>8</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
-      <c r="K24" s="7">
-        <v>1</v>
-      </c>
-      <c r="P24" s="7">
-        <v>1</v>
-      </c>
-      <c r="W24" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>273</v>
-      </c>
-      <c r="B25" t="s">
-        <v>278</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
+      <c r="G25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1">
+        <v>1</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="V25" s="1">
+        <v>1</v>
+      </c>
+      <c r="W25" s="1">
+        <v>1</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1">
         <v>8</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
       <c r="I26" s="1">
         <v>1</v>
       </c>
@@ -3157,45 +3184,45 @@
         <v>1</v>
       </c>
       <c r="R26" s="1"/>
-      <c r="S26" s="1">
-        <v>1</v>
-      </c>
-      <c r="T26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1">
+        <v>1</v>
+      </c>
       <c r="V26" s="1">
         <v>1</v>
       </c>
       <c r="W26" s="1">
         <v>1</v>
       </c>
-      <c r="X26" s="1">
-        <v>1</v>
-      </c>
+      <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1">
         <v>1</v>
       </c>
       <c r="AA26" s="1"/>
-      <c r="AB26" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F27" s="1">
         <v>8</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="H27" s="1">
         <v>1</v>
@@ -3209,10 +3236,10 @@
       <c r="M27" s="1">
         <v>1</v>
       </c>
-      <c r="N27" s="1">
-        <v>1</v>
-      </c>
-      <c r="O27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
       <c r="P27" s="1">
         <v>1</v>
       </c>
@@ -3220,36 +3247,40 @@
         <v>1</v>
       </c>
       <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1">
-        <v>1</v>
-      </c>
+      <c r="S27" s="1">
+        <v>1</v>
+      </c>
+      <c r="T27" s="1"/>
       <c r="V27" s="1">
         <v>1</v>
       </c>
       <c r="W27" s="1">
         <v>1</v>
       </c>
-      <c r="X27" s="1"/>
+      <c r="X27" s="1">
+        <v>1</v>
+      </c>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1">
         <v>1</v>
       </c>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
+      <c r="AB27" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>47</v>
@@ -3258,7 +3289,7 @@
         <v>8</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
@@ -3272,10 +3303,10 @@
       <c r="M28" s="1">
         <v>1</v>
       </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1">
-        <v>1</v>
-      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1"/>
       <c r="P28" s="1">
         <v>1</v>
       </c>
@@ -3283,49 +3314,43 @@
         <v>1</v>
       </c>
       <c r="R28" s="1"/>
-      <c r="S28" s="1">
-        <v>1</v>
-      </c>
+      <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="V28" s="1">
         <v>1</v>
       </c>
-      <c r="W28" s="1">
-        <v>1</v>
-      </c>
-      <c r="X28" s="1">
-        <v>1</v>
-      </c>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1">
         <v>1</v>
       </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F29" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="H29" s="1">
         <v>1</v>
@@ -3336,12 +3361,8 @@
       <c r="K29" s="1">
         <v>1</v>
       </c>
-      <c r="M29" s="1">
-        <v>1</v>
-      </c>
-      <c r="N29" s="1">
-        <v>1</v>
-      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1">
         <v>1</v>
@@ -3363,92 +3384,84 @@
       </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="K30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
       <c r="P30" s="1">
         <v>1</v>
       </c>
-      <c r="Q30" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
-      <c r="V30" s="1">
-        <v>1</v>
-      </c>
+      <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
-      <c r="Z30" s="1">
-        <v>1</v>
-      </c>
+      <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F31" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H31" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1</v>
+      </c>
       <c r="I31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="O31" s="1">
-        <v>1</v>
-      </c>
+      <c r="O31" s="1"/>
       <c r="P31" s="1">
         <v>1</v>
       </c>
@@ -3457,7 +3470,9 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
+      <c r="W31" s="1">
+        <v>1</v>
+      </c>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
@@ -3468,29 +3483,27 @@
     </row>
     <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F32" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="1">
-        <v>1</v>
-      </c>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="K32" s="1">
         <v>1</v>
@@ -3501,7 +3514,9 @@
       <c r="P32" s="1">
         <v>1</v>
       </c>
-      <c r="Q32" s="1"/>
+      <c r="Q32" s="1">
+        <v>1</v>
+      </c>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -3519,43 +3534,51 @@
     </row>
     <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="F33" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="K33" s="1">
         <v>1</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
       <c r="P33" s="1">
         <v>1</v>
       </c>
-      <c r="Q33" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
+      <c r="S33" s="1">
+        <v>1</v>
+      </c>
+      <c r="T33" s="1">
+        <v>1</v>
+      </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1">
         <v>1</v>
@@ -3565,137 +3588,128 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="F34" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="K34" s="1">
-        <v>1</v>
-      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1"/>
       <c r="M34" s="1">
         <v>1</v>
       </c>
-      <c r="N34" s="1">
-        <v>1</v>
-      </c>
+      <c r="N34" s="1"/>
       <c r="O34" s="1">
         <v>1</v>
       </c>
       <c r="P34" s="1">
         <v>1</v>
       </c>
-      <c r="Q34" s="1"/>
+      <c r="Q34" s="1">
+        <v>1</v>
+      </c>
       <c r="R34" s="1"/>
-      <c r="S34" s="1">
-        <v>1</v>
-      </c>
-      <c r="T34" s="1">
-        <v>1</v>
-      </c>
-      <c r="V34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="V34" s="1">
+        <v>1</v>
+      </c>
       <c r="W34" s="1">
         <v>1</v>
       </c>
-      <c r="X34" s="1"/>
+      <c r="X34" s="1">
+        <v>1</v>
+      </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" t="s">
+        <v>204</v>
+      </c>
+      <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35">
         <v>8</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1"/>
-      <c r="M35" s="1">
-        <v>1</v>
-      </c>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1">
-        <v>1</v>
-      </c>
-      <c r="P35" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>1</v>
-      </c>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="V35" s="1">
-        <v>1</v>
-      </c>
-      <c r="W35" s="1">
-        <v>1</v>
-      </c>
-      <c r="X35" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1" t="s">
-        <v>29</v>
+      <c r="G35" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C36" t="s">
         <v>148</v>
       </c>
+      <c r="D36" t="s">
+        <v>201</v>
+      </c>
       <c r="E36" t="s">
         <v>47</v>
       </c>
@@ -3703,7 +3717,10 @@
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>38</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -3718,6 +3735,9 @@
         <v>1</v>
       </c>
       <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
         <v>1</v>
       </c>
       <c r="T36">
@@ -3735,66 +3755,69 @@
     </row>
     <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B37" t="s">
-        <v>200</v>
-      </c>
-      <c r="C37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D37" t="s">
-        <v>201</v>
-      </c>
-      <c r="E37" t="s">
-        <v>47</v>
-      </c>
-      <c r="F37">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1">
         <v>8</v>
       </c>
-      <c r="G37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-      <c r="P37">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>1</v>
-      </c>
-      <c r="R37">
-        <v>1</v>
-      </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="X37">
-        <v>1</v>
-      </c>
-      <c r="Y37">
-        <v>1</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>202</v>
-      </c>
+      <c r="G37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="P37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1</v>
+      </c>
+      <c r="R37" s="1">
+        <v>1</v>
+      </c>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1">
+        <v>1</v>
+      </c>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>148</v>
@@ -3802,10 +3825,10 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="H38" s="1">
         <v>1</v>
@@ -3816,148 +3839,144 @@
       <c r="K38" s="1">
         <v>1</v>
       </c>
-      <c r="M38" s="1">
-        <v>1</v>
-      </c>
+      <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="1">
-        <v>1</v>
-      </c>
+      <c r="O38" s="1"/>
       <c r="P38" s="1">
         <v>1</v>
       </c>
       <c r="Q38" s="1">
         <v>1</v>
       </c>
-      <c r="R38" s="1">
-        <v>1</v>
-      </c>
+      <c r="R38" s="1"/>
       <c r="S38" s="1"/>
-      <c r="T38" s="1">
-        <v>1</v>
-      </c>
+      <c r="T38" s="1"/>
       <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="1">
-        <v>1</v>
-      </c>
+      <c r="W38" s="1">
+        <v>1</v>
+      </c>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
+      <c r="AB38" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C39" t="s">
         <v>148</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1">
-        <v>7</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="E39" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
         <v>38</v>
       </c>
-      <c r="H39" s="1">
-        <v>1</v>
-      </c>
-      <c r="I39" s="1">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1">
-        <v>1</v>
-      </c>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>1</v>
-      </c>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1">
-        <v>1</v>
-      </c>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1" t="s">
-        <v>157</v>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B40" t="s">
-        <v>206</v>
-      </c>
-      <c r="C40" t="s">
-        <v>148</v>
-      </c>
-      <c r="E40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="1">
         <v>8</v>
       </c>
-      <c r="G40" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>1</v>
-      </c>
-      <c r="P40">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>1</v>
-      </c>
-      <c r="T40">
-        <v>1</v>
-      </c>
-      <c r="X40">
-        <v>1</v>
-      </c>
-      <c r="Y40">
-        <v>1</v>
+      <c r="G40" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="K40" s="1">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1">
+        <v>1</v>
+      </c>
+      <c r="T40" s="1"/>
+      <c r="V40" s="1">
+        <v>1</v>
+      </c>
+      <c r="W40" s="1">
+        <v>1</v>
+      </c>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>282</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>47</v>
@@ -3973,7 +3992,9 @@
       <c r="K41" s="1">
         <v>1</v>
       </c>
-      <c r="M41" s="1"/>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1">
         <v>1</v>
@@ -3981,7 +4002,9 @@
       <c r="P41" s="1">
         <v>1</v>
       </c>
-      <c r="Q41" s="1"/>
+      <c r="Q41" s="1">
+        <v>1</v>
+      </c>
       <c r="R41" s="1"/>
       <c r="S41" s="1">
         <v>1</v>
@@ -3993,59 +4016,61 @@
       <c r="W41" s="1">
         <v>1</v>
       </c>
-      <c r="X41" s="1"/>
+      <c r="X41" s="1">
+        <v>1</v>
+      </c>
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>282</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
       <c r="K42" s="1">
         <v>1</v>
       </c>
-      <c r="M42" s="1">
-        <v>1</v>
-      </c>
+      <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="1">
-        <v>1</v>
-      </c>
+      <c r="O42" s="1"/>
       <c r="P42" s="1">
         <v>1</v>
       </c>
-      <c r="Q42" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1">
         <v>1</v>
       </c>
-      <c r="T42" s="1"/>
+      <c r="T42" s="1">
+        <v>1</v>
+      </c>
       <c r="V42" s="1">
         <v>1</v>
       </c>
@@ -4064,25 +4089,25 @@
     </row>
     <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>282</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F43" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H43" s="1">
         <v>1</v>
@@ -4090,23 +4115,21 @@
       <c r="I43" s="1">
         <v>1</v>
       </c>
-      <c r="K43" s="1">
-        <v>1</v>
-      </c>
+      <c r="K43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1">
         <v>1</v>
       </c>
-      <c r="Q43" s="1"/>
+      <c r="Q43" s="1">
+        <v>1</v>
+      </c>
       <c r="R43" s="1"/>
-      <c r="S43" s="1">
-        <v>1</v>
-      </c>
-      <c r="T43" s="1">
-        <v>1</v>
-      </c>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
       <c r="V43" s="1">
         <v>1</v>
       </c>
@@ -4119,22 +4142,20 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
-      <c r="AB43" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="AB43" s="1"/>
     </row>
     <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>282</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>47</v>
@@ -4152,11 +4173,13 @@
         <v>1</v>
       </c>
       <c r="K44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1">
-        <v>1</v>
-      </c>
-      <c r="O44" s="1"/>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
       <c r="P44" s="1">
         <v>1</v>
       </c>
@@ -4164,7 +4187,9 @@
         <v>1</v>
       </c>
       <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
+      <c r="S44" s="1">
+        <v>1</v>
+      </c>
       <c r="T44" s="1"/>
       <c r="V44" s="1">
         <v>1</v>
@@ -4178,100 +4203,71 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
+      <c r="AB44" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>86</v>
+      <c r="A45" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>261</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="1">
+      <c r="F45">
         <v>8</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="1">
-        <v>1</v>
-      </c>
-      <c r="I45" s="1">
-        <v>1</v>
-      </c>
-      <c r="K45" s="1"/>
-      <c r="M45" s="1">
-        <v>1</v>
-      </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1">
-        <v>1</v>
-      </c>
-      <c r="P45" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>1</v>
-      </c>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1">
-        <v>1</v>
-      </c>
-      <c r="T45" s="1"/>
-      <c r="V45" s="1">
-        <v>1</v>
-      </c>
-      <c r="W45" s="1">
-        <v>1</v>
-      </c>
-      <c r="X45" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1" t="s">
-        <v>87</v>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>261</v>
+      <c r="A46" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B46" t="s">
+        <v>250</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>282</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G46" t="s">
         <v>27</v>
       </c>
-      <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
       <c r="K46">
         <v>1</v>
       </c>
-      <c r="O46">
+      <c r="N46">
         <v>1</v>
       </c>
       <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="V46">
         <v>1</v>
       </c>
       <c r="X46">
@@ -4280,30 +4276,39 @@
     </row>
     <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="B47" t="s">
-        <v>250</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>282</v>
+        <v>208</v>
+      </c>
+      <c r="C47" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" t="s">
+        <v>209</v>
+      </c>
+      <c r="E47" t="s">
+        <v>47</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>27</v>
+        <v>107</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
       <c r="P47">
         <v>1</v>
       </c>
-      <c r="V47">
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="T47">
         <v>1</v>
       </c>
       <c r="X47">
@@ -4312,25 +4317,22 @@
     </row>
     <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B48" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C48" t="s">
         <v>178</v>
       </c>
       <c r="D48" t="s">
-        <v>209</v>
-      </c>
-      <c r="E48" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4349,27 +4351,30 @@
       </c>
       <c r="X48">
         <v>1</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C49" t="s">
         <v>178</v>
       </c>
-      <c r="D49" t="s">
-        <v>212</v>
-      </c>
       <c r="F49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G49" t="s">
         <v>27</v>
       </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
       <c r="I49">
         <v>1</v>
       </c>
@@ -4385,19 +4390,16 @@
       <c r="T49">
         <v>1</v>
       </c>
-      <c r="X49">
-        <v>1</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>213</v>
+      <c r="W49">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B50" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C50" t="s">
         <v>178</v>
@@ -4429,26 +4431,26 @@
       <c r="W50">
         <v>1</v>
       </c>
+      <c r="X50">
+        <v>1</v>
+      </c>
     </row>
     <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B51" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C51" t="s">
         <v>178</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G51" t="s">
         <v>27</v>
       </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
       <c r="I51">
         <v>1</v>
       </c>
@@ -4459,9 +4461,6 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1</v>
-      </c>
-      <c r="T51">
         <v>1</v>
       </c>
       <c r="W51">
@@ -4473,16 +4472,16 @@
     </row>
     <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>214</v>
+        <v>267</v>
       </c>
       <c r="B52" t="s">
-        <v>215</v>
-      </c>
-      <c r="C52" t="s">
-        <v>178</v>
+        <v>268</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>264</v>
       </c>
       <c r="F52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G52" t="s">
         <v>27</v>
@@ -4493,25 +4492,31 @@
       <c r="K52">
         <v>1</v>
       </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
       <c r="P52">
         <v>1</v>
       </c>
       <c r="Q52">
         <v>1</v>
       </c>
+      <c r="S52">
+        <v>1</v>
+      </c>
       <c r="W52">
-        <v>1</v>
-      </c>
-      <c r="X52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B53" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>264</v>
@@ -4522,16 +4527,13 @@
       <c r="G53" t="s">
         <v>27</v>
       </c>
-      <c r="I53">
+      <c r="H53">
         <v>1</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
-      <c r="M53">
-        <v>1</v>
-      </c>
-      <c r="N53">
+      <c r="O53">
         <v>1</v>
       </c>
       <c r="P53">
@@ -4541,6 +4543,9 @@
         <v>1</v>
       </c>
       <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
         <v>1</v>
       </c>
       <c r="W53">
@@ -4549,10 +4554,10 @@
     </row>
     <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B54" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>264</v>
@@ -4561,27 +4566,12 @@
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
-      <c r="O54">
-        <v>1</v>
-      </c>
       <c r="P54">
-        <v>1</v>
-      </c>
-      <c r="Q54">
-        <v>1</v>
-      </c>
-      <c r="S54">
-        <v>1</v>
-      </c>
-      <c r="T54">
         <v>1</v>
       </c>
       <c r="W54">
@@ -4590,14 +4580,17 @@
     </row>
     <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>265</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
+        <v>196</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>264</v>
       </c>
+      <c r="E55" t="s">
+        <v>197</v>
+      </c>
       <c r="F55">
         <v>8</v>
       </c>
@@ -4607,96 +4600,120 @@
       <c r="K55">
         <v>1</v>
       </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
       <c r="P55">
         <v>1</v>
       </c>
-      <c r="W55">
-        <v>1</v>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="AB55" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B56" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>264</v>
       </c>
       <c r="E56" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="F56">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
-      <c r="M56">
-        <v>1</v>
-      </c>
       <c r="P56">
         <v>1</v>
       </c>
-      <c r="S56">
+      <c r="W56">
         <v>1</v>
       </c>
       <c r="AB56" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B57" t="s">
-        <v>193</v>
+        <v>113</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="1">
         <v>6</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="P57">
-        <v>1</v>
-      </c>
-      <c r="W57">
-        <v>1</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>194</v>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>1</v>
+      </c>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1">
+        <v>1</v>
+      </c>
+      <c r="V57" s="1"/>
+      <c r="W57" s="1">
+        <v>1</v>
+      </c>
+      <c r="X57" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="1"/>
+      <c r="Z57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
       <c r="F58" s="1">
         <v>6</v>
       </c>
@@ -4716,18 +4733,16 @@
       <c r="P58" s="1">
         <v>1</v>
       </c>
-      <c r="Q58" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
+      <c r="S58" s="1">
+        <v>1</v>
+      </c>
       <c r="T58" s="1">
         <v>1</v>
       </c>
       <c r="V58" s="1"/>
-      <c r="W58" s="1">
-        <v>1</v>
-      </c>
+      <c r="W58" s="1"/>
       <c r="X58" s="1">
         <v>1</v>
       </c>
@@ -4735,124 +4750,122 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1">
-        <v>6</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1">
-        <v>1</v>
-      </c>
-      <c r="K59" s="1">
-        <v>1</v>
-      </c>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="1"/>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1">
-        <v>1</v>
-      </c>
-      <c r="T59" s="1">
-        <v>1</v>
-      </c>
-      <c r="V59" s="1"/>
-      <c r="W59" s="1"/>
-      <c r="X59" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y59" s="1"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
-      <c r="AB59" s="1" t="s">
-        <v>29</v>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K59" s="7">
+        <v>1</v>
+      </c>
+      <c r="P59" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="7">
+        <v>1</v>
+      </c>
+      <c r="T59" s="7">
+        <v>1</v>
+      </c>
+      <c r="X59" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C60" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F60">
+      <c r="D60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60" s="1">
         <v>8</v>
       </c>
-      <c r="G60" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K60" s="7">
-        <v>1</v>
-      </c>
-      <c r="P60" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="7">
-        <v>1</v>
-      </c>
-      <c r="T60" s="7">
-        <v>1</v>
-      </c>
-      <c r="X60" s="7">
-        <v>1</v>
+      <c r="G60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1">
+        <v>1</v>
+      </c>
+      <c r="V60" s="1"/>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y60" s="1"/>
+      <c r="Z60" s="1"/>
+      <c r="AA60" s="1"/>
+      <c r="AB60" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
       <c r="F61" s="1">
         <v>8</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H61" s="1">
-        <v>1</v>
-      </c>
-      <c r="I61" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
       <c r="K61" s="1">
         <v>1</v>
       </c>
-      <c r="M61" s="1">
-        <v>1</v>
-      </c>
+      <c r="M61" s="1"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1">
@@ -4873,15 +4886,15 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
       <c r="AB61" s="1" t="s">
-        <v>116</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>115</v>
@@ -4889,10 +4902,10 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1">
@@ -4907,7 +4920,9 @@
       <c r="P62" s="1">
         <v>1</v>
       </c>
-      <c r="Q62" s="1"/>
+      <c r="Q62" s="1">
+        <v>1</v>
+      </c>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1">
@@ -4926,88 +4941,75 @@
       </c>
     </row>
     <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="A63" t="s">
+        <v>258</v>
+      </c>
+      <c r="B63" t="s">
+        <v>259</v>
+      </c>
+      <c r="C63" t="s">
         <v>115</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1">
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="X63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F64">
         <v>6</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1">
-        <v>1</v>
-      </c>
-      <c r="K63" s="1">
-        <v>1</v>
-      </c>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>1</v>
-      </c>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1">
-        <v>1</v>
-      </c>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
-      <c r="AB63" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>258</v>
-      </c>
-      <c r="B64" t="s">
-        <v>259</v>
-      </c>
-      <c r="C64" t="s">
-        <v>115</v>
-      </c>
-      <c r="F64">
-        <v>8</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="G64" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="P64">
-        <v>1</v>
-      </c>
-      <c r="Q64">
-        <v>1</v>
-      </c>
-      <c r="T64">
-        <v>1</v>
-      </c>
-      <c r="X64">
+      <c r="I64" s="7">
+        <v>1</v>
+      </c>
+      <c r="K64" s="7">
+        <v>1</v>
+      </c>
+      <c r="N64" s="7">
+        <v>1</v>
+      </c>
+      <c r="O64" s="7">
+        <v>1</v>
+      </c>
+      <c r="P64" s="7">
+        <v>1</v>
+      </c>
+      <c r="V64" s="7">
+        <v>1</v>
+      </c>
+      <c r="W64" s="7">
         <v>1</v>
       </c>
     </row>
@@ -7573,7 +7575,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7596,7 +7598,7 @@
       </c>
       <c r="B2">
         <f>COUNTIF(Services!$C$2:$C$76,Count!A2)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7668,7 +7670,7 @@
       </c>
       <c r="B10">
         <f>COUNTIF(Services!$C$2:$C$76,Count!A10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">

--- a/services/services.xlsx
+++ b/services/services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A469C2-2033-4E48-8B61-0352D826D298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE88751-C1BB-4E10-BBF6-B7A42DCAE4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="293">
   <si>
     <t>Website</t>
   </si>
@@ -914,6 +914,9 @@
   </si>
   <si>
     <t>Photos</t>
+  </si>
+  <si>
+    <t>extra</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1644,7 @@
     <sortCondition ref="C1:C76"/>
   </sortState>
   <tableColumns count="28">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Website" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Website" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Domain name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Company"/>
@@ -1665,10 +1668,10 @@
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Messages"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="subscription"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="purchases"/>
-    <tableColumn id="24" xr3:uid="{7CB7E889-547D-4D78-AB1F-D83281316796}" name="money stored" dataDxfId="28"/>
-    <tableColumn id="25" xr3:uid="{AF645A59-D8FE-4918-81FF-21B0BC632269}" name="key to other accounts" dataDxfId="1"/>
-    <tableColumn id="29" xr3:uid="{E60C7C5C-E294-47C2-9758-1AEDA137E738}" name="Sexual preferences" dataDxfId="0"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="personal info"/>
+    <tableColumn id="24" xr3:uid="{7CB7E889-547D-4D78-AB1F-D83281316796}" name="money stored" dataDxfId="27"/>
+    <tableColumn id="25" xr3:uid="{AF645A59-D8FE-4918-81FF-21B0BC632269}" name="key to other accounts" dataDxfId="26"/>
+    <tableColumn id="29" xr3:uid="{E60C7C5C-E294-47C2-9758-1AEDA137E738}" name="Sexual preferences" dataDxfId="25"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="extra"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1681,7 +1684,7 @@
     <sortCondition ref="C1:C26"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{56E87647-17B6-48DA-A9F7-32B62327C70F}" name="Website" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{56E87647-17B6-48DA-A9F7-32B62327C70F}" name="Website" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{D901CD1D-6C5D-4273-984A-408CC59BA285}" name="Domain name"/>
     <tableColumn id="3" xr3:uid="{8AC5FBED-5FDA-4099-8FD4-6E47B55718AF}" name="Type"/>
     <tableColumn id="4" xr3:uid="{CCA9E98D-DF85-4C60-9A72-6E3AE6D7757C}" name="Company"/>
@@ -1714,31 +1717,31 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{946D6494-D706-452F-A1B2-A66E079CB5A2}" name="Table2" displayName="Table2" ref="A1:W12" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{946D6494-D706-452F-A1B2-A66E079CB5A2}" name="Table2" displayName="Table2" ref="A1:W12" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:W12" xr:uid="{946D6494-D706-452F-A1B2-A66E079CB5A2}"/>
   <tableColumns count="23">
-    <tableColumn id="1" xr3:uid="{BA484C69-3205-4F0A-945B-A88ADB483981}" name="Website" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{8EFCC907-AB07-47E7-95B1-208B8FF6C5F9}" name="Domain name" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{ED19FC05-228E-4996-A3D5-F579EE715F60}" name="Type" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{CE6960E2-FE14-4BB8-BD93-1C8E7A559E25}" name="Company" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{17FF8C25-9C48-46C3-8A24-8293B30B6EF8}" name="Country" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{F7343669-C795-4CC1-8763-D0E3064DE516}" name="min length" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{16525D02-FCAA-4761-ADCD-CC73F060DE5E}" name="min mask" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{38EF1F53-AE7D-41ED-80C9-8E6B560F0C85}" name="extra sec" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{C0FABE89-EDBF-47AE-B9D7-140124C190C2}" name="2fa" dataDxfId="16"/>
-    <tableColumn id="10" xr3:uid="{FEBA891E-3DF8-4C11-AD16-DD2BE9DE17CD}" name="name" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{F670B2B9-7737-4740-96FC-A93A9E55335B}" name="birth date" dataDxfId="14"/>
-    <tableColumn id="12" xr3:uid="{CA9C4BED-5B03-428D-B680-A9AC1B620D5D}" name="gender" dataDxfId="13"/>
-    <tableColumn id="13" xr3:uid="{DF9CF01E-222F-4268-BC15-FDAD54906605}" name="photo" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{91BBC4E7-9C12-4E44-95DF-5F774988F9FF}" name="email" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{9357CED0-3B93-4260-A0F9-2FEF6F4F5FB3}" name="tlf" dataDxfId="10"/>
-    <tableColumn id="16" xr3:uid="{AF37C082-316B-400F-9D5F-A17EC8D19FDA}" name="nacionality" dataDxfId="9"/>
-    <tableColumn id="17" xr3:uid="{B9AAFFD0-F1DA-44E9-9AD0-9DFC09B8116D}" name="location" dataDxfId="8"/>
-    <tableColumn id="18" xr3:uid="{6897A40E-6EE9-4D2B-B0B5-B50BDD6921AF}" name="address" dataDxfId="7"/>
-    <tableColumn id="19" xr3:uid="{F44809CD-48C2-417F-B7E0-7CE7E44E15C6}" name="Messages" dataDxfId="6"/>
-    <tableColumn id="20" xr3:uid="{8D031D5C-DF9A-4FC9-83B3-CDEC005F3D1C}" name="subscription" dataDxfId="5"/>
-    <tableColumn id="21" xr3:uid="{5410FF9E-8676-4B69-A9B2-8DF661977C01}" name="purchases" dataDxfId="4"/>
-    <tableColumn id="22" xr3:uid="{5ED40E59-9A2D-42A7-907D-D4CF76EF28C6}" name="personal info" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{BA484C69-3205-4F0A-945B-A88ADB483981}" name="Website" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{8EFCC907-AB07-47E7-95B1-208B8FF6C5F9}" name="Domain name" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{ED19FC05-228E-4996-A3D5-F579EE715F60}" name="Type" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{CE6960E2-FE14-4BB8-BD93-1C8E7A559E25}" name="Company" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{17FF8C25-9C48-46C3-8A24-8293B30B6EF8}" name="Country" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{F7343669-C795-4CC1-8763-D0E3064DE516}" name="min length" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{16525D02-FCAA-4761-ADCD-CC73F060DE5E}" name="min mask" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{38EF1F53-AE7D-41ED-80C9-8E6B560F0C85}" name="extra sec" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{C0FABE89-EDBF-47AE-B9D7-140124C190C2}" name="2fa" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{FEBA891E-3DF8-4C11-AD16-DD2BE9DE17CD}" name="name" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{F670B2B9-7737-4740-96FC-A93A9E55335B}" name="birth date" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{CA9C4BED-5B03-428D-B680-A9AC1B620D5D}" name="gender" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{DF9CF01E-222F-4268-BC15-FDAD54906605}" name="photo" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{91BBC4E7-9C12-4E44-95DF-5F774988F9FF}" name="email" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{9357CED0-3B93-4260-A0F9-2FEF6F4F5FB3}" name="tlf" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{AF37C082-316B-400F-9D5F-A17EC8D19FDA}" name="nacionality" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{B9AAFFD0-F1DA-44E9-9AD0-9DFC09B8116D}" name="location" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{6897A40E-6EE9-4D2B-B0B5-B50BDD6921AF}" name="address" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{F44809CD-48C2-417F-B7E0-7CE7E44E15C6}" name="Messages" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{8D031D5C-DF9A-4FC9-83B3-CDEC005F3D1C}" name="subscription" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{5410FF9E-8676-4B69-A9B2-8DF661977C01}" name="purchases" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{5ED40E59-9A2D-42A7-907D-D4CF76EF28C6}" name="personal info" dataDxfId="0"/>
     <tableColumn id="23" xr3:uid="{E49F45BE-1D9B-41CC-9A17-8D6AE68AE4FC}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1946,10 +1949,10 @@
   <dimension ref="A1:AB989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1:AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2062,7 +2065,7 @@
         <v>289</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>21</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -10192,7 +10195,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/services/services.xlsx
+++ b/services/services.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE88751-C1BB-4E10-BBF6-B7A42DCAE4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E3E3E7-D3AE-4627-8D91-03749779F306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="275">
   <si>
     <t>Website</t>
   </si>
@@ -127,9 +127,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>Search history, preferences</t>
-  </si>
-  <si>
     <t>Pornhub</t>
   </si>
   <si>
@@ -184,9 +181,6 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Query history</t>
-  </si>
-  <si>
     <t>gmail</t>
   </si>
   <si>
@@ -199,9 +193,6 @@
     <t>Google</t>
   </si>
   <si>
-    <t>Search and location history, emails, contacts, access to other accounts</t>
-  </si>
-  <si>
     <t>Yahoo!</t>
   </si>
   <si>
@@ -220,9 +211,6 @@
     <t>lud</t>
   </si>
   <si>
-    <t>Search history, access to other accounts</t>
-  </si>
-  <si>
     <t>Outlook.com</t>
   </si>
   <si>
@@ -280,9 +268,6 @@
     <t>Switzerland</t>
   </si>
   <si>
-    <t>History</t>
-  </si>
-  <si>
     <t>roblox</t>
   </si>
   <si>
@@ -301,9 +286,6 @@
     <t>store.steampowered.com</t>
   </si>
   <si>
-    <t>Games and inventary</t>
-  </si>
-  <si>
     <t>chess.com</t>
   </si>
   <si>
@@ -388,9 +370,6 @@
     <t>Shopping</t>
   </si>
   <si>
-    <t>Purchase history</t>
-  </si>
-  <si>
     <t>Samsung</t>
   </si>
   <si>
@@ -409,9 +388,6 @@
     <t>Meta</t>
   </si>
   <si>
-    <t>Photos, videos, messages</t>
-  </si>
-  <si>
     <t>Instagram</t>
   </si>
   <si>
@@ -511,18 +487,12 @@
     <t>tradingview.com</t>
   </si>
   <si>
-    <t>Investments</t>
-  </si>
-  <si>
     <t>docusign</t>
   </si>
   <si>
     <t>docusign.net</t>
   </si>
   <si>
-    <t>Signed documents</t>
-  </si>
-  <si>
     <t>rightmove</t>
   </si>
   <si>
@@ -538,9 +508,6 @@
     <t>linktree.com</t>
   </si>
   <si>
-    <t>Links to other accounts</t>
-  </si>
-  <si>
     <t>idealista</t>
   </si>
   <si>
@@ -559,15 +526,9 @@
     <t>usps.com</t>
   </si>
   <si>
-    <t>Package history</t>
-  </si>
-  <si>
     <t>canva.com</t>
   </si>
   <si>
-    <t>Language, studies</t>
-  </si>
-  <si>
     <t>Service</t>
   </si>
   <si>
@@ -622,9 +583,6 @@
     <t>nytimes.com</t>
   </si>
   <si>
-    <t>Saved articles</t>
-  </si>
-  <si>
     <t>BBC</t>
   </si>
   <si>
@@ -634,9 +592,6 @@
     <t>UK</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Chase</t>
   </si>
   <si>
@@ -646,9 +601,6 @@
     <t>chase</t>
   </si>
   <si>
-    <t>Money in account</t>
-  </si>
-  <si>
     <t>Bankofamerica</t>
   </si>
   <si>
@@ -679,9 +631,6 @@
     <t>goddady inc</t>
   </si>
   <si>
-    <t>Domains owned</t>
-  </si>
-  <si>
     <t>wix</t>
   </si>
   <si>
@@ -914,9 +863,6 @@
   </si>
   <si>
     <t>Photos</t>
-  </si>
-  <si>
-    <t>extra</t>
   </si>
 </sst>
 </file>
@@ -1639,11 +1585,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:AB76">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:AA76">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA76">
     <sortCondition ref="C1:C76"/>
   </sortState>
-  <tableColumns count="28">
+  <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Website" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Domain name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type"/>
@@ -1671,7 +1617,6 @@
     <tableColumn id="24" xr3:uid="{7CB7E889-547D-4D78-AB1F-D83281316796}" name="money stored" dataDxfId="27"/>
     <tableColumn id="25" xr3:uid="{AF645A59-D8FE-4918-81FF-21B0BC632269}" name="key to other accounts" dataDxfId="26"/>
     <tableColumn id="29" xr3:uid="{E60C7C5C-E294-47C2-9758-1AEDA137E738}" name="Sexual preferences" dataDxfId="25"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="extra"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1946,13 +1891,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB989"/>
+  <dimension ref="A1:AA989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1:AA1"/>
+      <selection pane="bottomRight" activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1977,12 +1922,12 @@
     <col min="22" max="22" width="9.28515625" customWidth="1"/>
     <col min="23" max="23" width="13.28515625" customWidth="1"/>
     <col min="24" max="24" width="11.7109375" customWidth="1"/>
-    <col min="25" max="27" width="8.5703125" customWidth="1"/>
-    <col min="28" max="28" width="62.85546875" customWidth="1"/>
-    <col min="29" max="31" width="8.85546875" customWidth="1"/>
+    <col min="25" max="26" width="8.5703125" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2011,13 +1956,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="L1" s="16" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>10</v>
@@ -2026,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>13</v>
@@ -2044,7 +1989,7 @@
         <v>17</v>
       </c>
       <c r="U1" s="16" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>18</v>
@@ -2056,24 +2001,21 @@
         <v>20</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>24</v>
@@ -2117,31 +2059,28 @@
       <c r="AA2" s="1">
         <v>1</v>
       </c>
-      <c r="AB2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F3" s="1">
         <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -2176,16 +2115,13 @@
       <c r="AA3" s="1">
         <v>1</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
@@ -2229,16 +2165,13 @@
       <c r="AA4" s="1">
         <v>1</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>24</v>
@@ -2247,13 +2180,13 @@
         <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1">
         <v>6</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2286,11 +2219,8 @@
       <c r="AA5" s="1">
         <v>1</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2347,25 +2277,22 @@
       <c r="AA6" s="1">
         <v>1</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2401,15 +2328,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -2424,15 +2351,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -2462,15 +2389,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2478,7 +2405,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
@@ -2501,19 +2428,16 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-      <c r="AB10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B11" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F11">
         <v>6</v>
@@ -2537,15 +2461,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F12">
         <v>9</v>
@@ -2578,15 +2502,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2594,7 +2518,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2621,17 +2545,16 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -2639,7 +2562,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -2674,19 +2597,16 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
-      <c r="AB14" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -2694,7 +2614,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1">
@@ -2727,17 +2647,16 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -2760,25 +2679,22 @@
       <c r="W16" s="7">
         <v>1</v>
       </c>
-      <c r="AB16" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F17" s="1">
         <v>12</v>
@@ -2813,25 +2729,22 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
-      <c r="AB17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I18" s="7">
         <v>1</v>
@@ -2849,15 +2762,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2898,19 +2811,16 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
-      <c r="AB19" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2947,17 +2857,16 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2990,25 +2899,22 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
-      <c r="AB21" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22">
         <v>8</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7">
         <v>1</v>
@@ -3020,21 +2926,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23">
         <v>8</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I23" s="7">
         <v>1</v>
@@ -3049,15 +2955,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24">
         <v>6</v>
@@ -3081,27 +2987,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="1">
         <v>8</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1">
@@ -3142,19 +3048,16 @@
         <v>1</v>
       </c>
       <c r="AA25" s="1"/>
-      <c r="AB25" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -3203,29 +3106,28 @@
         <v>1</v>
       </c>
       <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" s="1">
         <v>8</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H27" s="1">
         <v>1</v>
@@ -3268,25 +3170,22 @@
         <v>1</v>
       </c>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F28" s="1">
         <v>8</v>
@@ -3329,31 +3228,28 @@
         <v>1</v>
       </c>
       <c r="AA28" s="1"/>
-      <c r="AB28" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F29" s="1">
         <v>6</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H29" s="1">
         <v>1</v>
@@ -3386,19 +3282,16 @@
         <v>1</v>
       </c>
       <c r="AA29" s="1"/>
-      <c r="AB29" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -3406,7 +3299,7 @@
         <v>8</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -3429,25 +3322,22 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
-      <c r="AB30" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F31" s="1">
         <v>10</v>
@@ -3480,25 +3370,22 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
-      <c r="AB31" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="1">
         <v>6</v>
@@ -3531,31 +3418,28 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
-      <c r="AB32" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F33" s="1">
         <v>10</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -3590,25 +3474,22 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
-      <c r="AB33" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F34" s="1">
         <v>8</v>
@@ -3649,28 +3530,25 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
-      <c r="AB34" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="B35" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F35">
         <v>8</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -3696,31 +3574,28 @@
       <c r="Y35">
         <v>1</v>
       </c>
-      <c r="AB35" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C36" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D36" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F36">
         <v>8</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3752,19 +3627,16 @@
       <c r="Y36">
         <v>1</v>
       </c>
-      <c r="AB36" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3772,7 +3644,7 @@
         <v>8</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H37" s="1">
         <v>1</v>
@@ -3813,17 +3685,16 @@
       </c>
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-    </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -3831,7 +3702,7 @@
         <v>7</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H38" s="1">
         <v>1</v>
@@ -3862,28 +3733,25 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
-      <c r="AB38" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F39">
         <v>8</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3913,27 +3781,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F40" s="1">
         <v>8</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -3964,31 +3832,28 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
-      <c r="AB40" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F41" s="1">
         <v>8</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -4025,31 +3890,28 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
-      <c r="AB41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F42" s="1">
         <v>7</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -4086,25 +3948,22 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
-      <c r="AB42" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F43" s="1">
         <v>8</v>
@@ -4145,23 +4004,22 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-    </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F44" s="1">
         <v>8</v>
@@ -4206,19 +4064,16 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
-      <c r="AB44" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -4245,15 +4100,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B46" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="F46">
         <v>7</v>
@@ -4277,27 +4132,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C47" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F47">
         <v>8</v>
       </c>
       <c r="G47" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -4318,18 +4173,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="C48" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="D48" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F48">
         <v>9</v>
@@ -4355,19 +4210,16 @@
       <c r="X48">
         <v>1</v>
       </c>
-      <c r="AB48" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="C49" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F49">
         <v>8</v>
@@ -4397,15 +4249,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B50" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="C50" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F50">
         <v>8</v>
@@ -4438,15 +4290,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B51" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="F51">
         <v>6</v>
@@ -4473,15 +4325,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="B52" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="F52">
         <v>8</v>
@@ -4514,15 +4366,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="B53" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="F53">
         <v>8</v>
@@ -4555,21 +4407,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="B54" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="F54">
         <v>8</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -4581,24 +4433,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="E55" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="F55">
         <v>8</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -4612,22 +4464,19 @@
       <c r="S55">
         <v>1</v>
       </c>
-      <c r="AB55" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F56">
         <v>6</v>
@@ -4644,25 +4493,22 @@
       <c r="W56">
         <v>1</v>
       </c>
-      <c r="AB56" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F57" s="1">
         <v>6</v>
@@ -4701,19 +4547,16 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
-      <c r="AB57" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -4752,25 +4595,22 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
-      <c r="AB58" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F59">
         <v>8</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K59" s="7">
         <v>1</v>
@@ -4788,27 +4628,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F60" s="1">
         <v>8</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H60" s="1">
         <v>1</v>
@@ -4839,19 +4679,16 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
-      <c r="AB60" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -4888,19 +4725,16 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
-      <c r="AB61" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -4908,7 +4742,7 @@
         <v>6</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1">
@@ -4939,19 +4773,16 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
-      <c r="AB62" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="B63" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F63">
         <v>8</v>
@@ -4978,15 +4809,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F64">
         <v>6</v>
@@ -5016,21 +4847,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F65" s="1">
         <v>8</v>
@@ -5073,17 +4904,16 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
-    </row>
-    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F66">
         <v>5</v>
@@ -5110,27 +4940,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F67" s="1">
         <v>6</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1">
@@ -5167,31 +4997,28 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
-      <c r="AB67" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F68" s="1">
         <v>6</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1">
@@ -5226,19 +5053,16 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
-      <c r="AB68" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F69">
         <v>6</v>
@@ -5271,21 +5095,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F70">
         <v>6</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H70" s="7">
         <v>1</v>
@@ -5312,21 +5136,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F71" s="1">
         <v>6</v>
@@ -5367,25 +5191,22 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
-      <c r="AB71" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F72" s="1">
         <v>8</v>
@@ -5428,31 +5249,28 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
-      <c r="AB72" s="1" t="s">
+    </row>
+    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="73" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="B73" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F73" s="1">
         <v>8</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1">
@@ -5489,31 +5307,28 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
-      <c r="AB73" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F74" s="1">
         <v>8</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1">
@@ -5548,19 +5363,16 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
-      <c r="AB74" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F75">
         <v>5</v>
@@ -5587,15 +5399,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B76" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C76" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -5613,10 +5425,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6632,39 +6444,39 @@
         <v>20</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -6706,21 +6518,21 @@
         <v>129949</v>
       </c>
       <c r="Z2" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="AA2" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -6749,13 +6561,13 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -6793,13 +6605,13 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -6813,13 +6625,13 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="F6">
         <v>6</v>
@@ -6851,13 +6663,13 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -6901,13 +6713,13 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -6948,13 +6760,13 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -6974,13 +6786,13 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10">
         <v>8</v>
@@ -7012,19 +6824,19 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11">
         <v>6</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
@@ -7050,19 +6862,19 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12">
         <v>8</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I12" s="7">
         <v>1</v>
@@ -7085,19 +6897,19 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13">
         <v>8</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J13" s="7">
         <v>1</v>
@@ -7117,13 +6929,13 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14">
         <v>6</v>
@@ -7152,13 +6964,13 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X15" s="6">
         <v>43160</v>
@@ -7169,13 +6981,13 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -7207,13 +7019,13 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B17" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Y17">
         <v>3175293</v>
@@ -7221,13 +7033,13 @@
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="B18" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F18">
         <v>7</v>
@@ -7259,13 +7071,13 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C19" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="X19" s="6">
         <v>42522</v>
@@ -7276,19 +7088,19 @@
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F20">
         <v>8</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J20" s="7">
         <v>1</v>
@@ -7314,13 +7126,13 @@
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F21">
         <v>8</v>
@@ -7355,13 +7167,13 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -7402,13 +7214,13 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F23">
         <v>6</v>
@@ -7455,19 +7267,19 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F24">
         <v>6</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7502,13 +7314,13 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -7534,13 +7346,13 @@
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -7589,15 +7401,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Services!$C$2:$C$76,Count!A2)</f>
@@ -7615,7 +7427,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B4">
         <f>COUNTIF(Services!$C$2:$C$76,Count!A4)</f>
@@ -7624,7 +7436,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <f>COUNTIF(Services!$C$2:$C$76,Count!A5)</f>
@@ -7633,7 +7445,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B6">
         <f>COUNTIF(Services!$C$2:$C$76,Count!A6)</f>
@@ -7642,7 +7454,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7">
         <f>COUNTIF(Services!$C$2:$C$76,Count!A7)</f>
@@ -7651,7 +7463,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B8">
         <f>COUNTIF(Services!$C$2:$C$76,Count!A8)</f>
@@ -7660,7 +7472,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B9">
         <f>COUNTIF(Services!$C$2:$C$76,Count!A9)</f>
@@ -7669,7 +7481,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B10">
         <f>COUNTIF(Services!$C$2:$C$76,Count!A10)</f>
@@ -7678,7 +7490,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <f>COUNTIF(Services!$C$2:$C$76,Count!A11)</f>
@@ -7687,7 +7499,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="B12">
         <f>COUNTIF(Services!$C$2:$C$76,Count!A12)</f>
@@ -8707,18 +8519,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8726,79 +8538,79 @@
         <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9884,24 +9696,24 @@
         <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="1">
         <v>8</v>
@@ -9931,17 +9743,17 @@
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F3" s="1">
         <v>6</v>
@@ -9971,25 +9783,25 @@
     </row>
     <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F4">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -10001,27 +9813,27 @@
         <v>1</v>
       </c>
       <c r="W4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F5">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -10038,25 +9850,25 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F6">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -10077,29 +9889,29 @@
         <v>1</v>
       </c>
       <c r="W6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C7" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -10119,35 +9931,35 @@
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C10" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -10167,13 +9979,13 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -10221,24 +10033,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C2" s="12">
         <v>10</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -10249,10 +10061,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="C4" s="12">
         <v>8</v>
@@ -10263,18 +10075,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C6" s="12">
         <v>6</v>
@@ -10285,10 +10097,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -10299,10 +10111,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="C8" s="12">
         <v>9</v>
@@ -10313,18 +10125,18 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="C10" s="12">
         <v>8</v>
@@ -10335,52 +10147,52 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C11">
         <v>6</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C12" s="12">
         <v>8</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C13">
         <v>8</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C14" s="12">
         <v>6</v>
@@ -10391,18 +10203,18 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C16" s="12">
         <v>8</v>
@@ -10413,18 +10225,18 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="C18" s="12">
         <v>7</v>
@@ -10435,32 +10247,32 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="B19" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="C20" s="12">
         <v>8</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -10471,10 +10283,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="C22" s="12">
         <v>5</v>
@@ -10485,10 +10297,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -10499,32 +10311,32 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="C24" s="12">
         <v>6</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C26" s="13">
         <v>1</v>

--- a/services/services.xlsx
+++ b/services/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E3E3E7-D3AE-4627-8D91-03749779F306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC46CA3-8DF5-455D-8191-3F45A0FDA0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Services" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="278">
   <si>
     <t>Website</t>
   </si>
@@ -863,6 +863,15 @@
   </si>
   <si>
     <t>Photos</t>
+  </si>
+  <si>
+    <t>access username</t>
+  </si>
+  <si>
+    <t>access email</t>
+  </si>
+  <si>
+    <t>access tlf</t>
   </si>
 </sst>
 </file>
@@ -1585,11 +1594,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:AA76">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:AD76">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD76">
     <sortCondition ref="C1:C76"/>
   </sortState>
-  <tableColumns count="27">
+  <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Website" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Domain name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type"/>
@@ -1598,6 +1607,9 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="min length"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="min mask"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="extra sec"/>
+    <tableColumn id="28" xr3:uid="{DBD2CD94-738E-449B-A23C-A6FB09DA0A31}" name="access username" dataCellStyle="Bad"/>
+    <tableColumn id="23" xr3:uid="{1803C7EB-1388-4025-995F-00763A49AF56}" name="access email" dataCellStyle="Bad"/>
+    <tableColumn id="22" xr3:uid="{0878A912-2CFE-44D3-8EEF-6EC62A578919}" name="access tlf" dataCellStyle="Bad"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2fa"/>
     <tableColumn id="26" xr3:uid="{CA81BFE9-83DF-479D-B0A3-83EFCFB4C7D2}" name="Nickname" dataCellStyle="Bad"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Name"/>
@@ -1891,13 +1903,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA989"/>
+  <dimension ref="A1:AD989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB1" sqref="AB1:AB1048576"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1910,24 +1922,25 @@
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="16" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" customWidth="1"/>
-    <col min="14" max="18" width="8.85546875" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" style="16" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" customWidth="1"/>
-    <col min="25" max="26" width="8.5703125" customWidth="1"/>
-    <col min="27" max="27" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="8.85546875" customWidth="1"/>
+    <col min="9" max="11" width="10.28515625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="16" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="16" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="21" width="8.85546875" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" customWidth="1"/>
+    <col min="24" max="24" width="9.28515625" style="16" customWidth="1"/>
+    <col min="25" max="25" width="9.28515625" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" customWidth="1"/>
+    <col min="28" max="29" width="8.5703125" customWidth="1"/>
+    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1952,65 +1965,74 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -2031,36 +2053,36 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1">
         <v>1</v>
       </c>
       <c r="T2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1">
-        <v>1</v>
-      </c>
-      <c r="X2" s="1">
-        <v>1</v>
-      </c>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1"/>
       <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
+      <c r="Z2" s="1">
+        <v>1</v>
+      </c>
       <c r="AA2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -2085,38 +2107,38 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
+      <c r="L3" s="1">
         <v>1</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
       <c r="P3" s="1">
         <v>1</v>
       </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
       <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
-      <c r="AA3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -2137,36 +2159,36 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
       <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="1">
-        <v>1</v>
-      </c>
-      <c r="X4" s="1">
-        <v>1</v>
-      </c>
+      <c r="W4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="Z4" s="1">
+        <v>1</v>
+      </c>
       <c r="AA4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -2189,38 +2211,38 @@
         <v>37</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
+      <c r="L5" s="1"/>
       <c r="N5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
       <c r="P5" s="1">
         <v>1</v>
       </c>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
       <c r="S5" s="1">
         <v>1</v>
       </c>
       <c r="T5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
       <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -2245,40 +2267,40 @@
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="L6" s="1">
         <v>1</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
       </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
       <c r="P6" s="1">
         <v>1</v>
       </c>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
       <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="1">
-        <v>1</v>
-      </c>
-      <c r="X6" s="1"/>
+      <c r="W6" s="1"/>
       <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>204</v>
       </c>
@@ -2294,21 +2316,12 @@
       <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="M7">
+      <c r="L7">
         <v>1</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
       <c r="P7">
         <v>1</v>
       </c>
@@ -2318,17 +2331,26 @@
       <c r="R7">
         <v>1</v>
       </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
       <c r="T7">
         <v>1</v>
       </c>
-      <c r="V7">
-        <v>1</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>226</v>
       </c>
@@ -2344,14 +2366,14 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>227</v>
       </c>
@@ -2367,12 +2389,6 @@
       <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
       <c r="N9">
         <v>1</v>
       </c>
@@ -2382,14 +2398,20 @@
       <c r="Q9">
         <v>1</v>
       </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
       <c r="T9">
         <v>1</v>
       </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>156</v>
       </c>
@@ -2408,28 +2430,28 @@
         <v>101</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1">
-        <v>1</v>
-      </c>
+      <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
       <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>229</v>
       </c>
@@ -2445,23 +2467,23 @@
       <c r="G11" t="s">
         <v>27</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="P11">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <v>1</v>
       </c>
       <c r="S11">
         <v>1</v>
       </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>216</v>
       </c>
@@ -2477,32 +2499,32 @@
       <c r="G12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="7">
-        <v>1</v>
-      </c>
-      <c r="K12" s="7">
-        <v>1</v>
-      </c>
-      <c r="M12" s="7">
+      <c r="L12" s="7">
         <v>1</v>
       </c>
       <c r="N12" s="7">
         <v>1</v>
       </c>
-      <c r="O12" s="7">
-        <v>1</v>
-      </c>
       <c r="P12" s="7">
         <v>1</v>
       </c>
       <c r="Q12" s="7">
         <v>1</v>
       </c>
-      <c r="W12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R12" s="7">
+        <v>1</v>
+      </c>
+      <c r="S12" s="7">
+        <v>1</v>
+      </c>
+      <c r="T12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>151</v>
       </c>
@@ -2521,32 +2543,32 @@
         <v>153</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1">
-        <v>1</v>
-      </c>
+      <c r="L13" s="1"/>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1">
-        <v>1</v>
-      </c>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1">
         <v>1</v>
       </c>
       <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
+      <c r="W13" s="1">
+        <v>1</v>
+      </c>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>160</v>
       </c>
@@ -2567,38 +2589,38 @@
       <c r="H14" s="1">
         <v>1</v>
       </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1"/>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
       <c r="N14" s="1">
         <v>1</v>
       </c>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1">
-        <v>1</v>
-      </c>
+      <c r="P14" s="1"/>
       <c r="Q14" s="1">
         <v>1</v>
       </c>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
       <c r="T14" s="1">
         <v>1</v>
       </c>
+      <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1">
+      <c r="W14" s="1">
         <v>1</v>
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>145</v>
       </c>
@@ -2617,38 +2639,38 @@
         <v>101</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1">
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
         <v>1</v>
       </c>
       <c r="P15" s="1">
         <v>1</v>
       </c>
-      <c r="Q15" s="1">
-        <v>1</v>
-      </c>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
       <c r="T15" s="1">
         <v>1</v>
       </c>
+      <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
+      <c r="W15" s="1">
+        <v>1</v>
+      </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>207</v>
       </c>
@@ -2667,20 +2689,20 @@
       <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="I16" s="7">
-        <v>1</v>
-      </c>
-      <c r="K16" s="7">
-        <v>1</v>
-      </c>
-      <c r="P16" s="7">
-        <v>1</v>
-      </c>
-      <c r="W16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1</v>
+      </c>
+      <c r="S16" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,34 +2725,34 @@
         <v>27</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-      <c r="P17" s="1">
-        <v>1</v>
-      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
       <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="1">
-        <v>1</v>
-      </c>
-      <c r="X17" s="1"/>
+      <c r="W17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
+      <c r="Z17" s="1">
+        <v>1</v>
+      </c>
       <c r="AA17" s="1"/>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>220</v>
       </c>
@@ -2746,23 +2768,23 @@
       <c r="G18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="7">
-        <v>1</v>
-      </c>
-      <c r="K18" s="7">
-        <v>1</v>
-      </c>
-      <c r="O18" s="7">
-        <v>1</v>
-      </c>
-      <c r="P18" s="7">
-        <v>1</v>
-      </c>
-      <c r="W18" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1</v>
+      </c>
+      <c r="R18" s="7">
+        <v>1</v>
+      </c>
+      <c r="S18" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>149</v>
       </c>
@@ -2783,36 +2805,36 @@
       <c r="H19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>1</v>
-      </c>
-      <c r="R19" s="1">
-        <v>1</v>
-      </c>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1</v>
+      </c>
+      <c r="U19" s="1">
+        <v>1</v>
+      </c>
       <c r="V19" s="1"/>
-      <c r="W19" s="1">
-        <v>1</v>
-      </c>
-      <c r="X19" s="1"/>
+      <c r="W19" s="1"/>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
+      <c r="Z19" s="1">
+        <v>1</v>
+      </c>
       <c r="AA19" s="1"/>
-    </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>136</v>
       </c>
@@ -2831,34 +2853,34 @@
         <v>27</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1">
-        <v>1</v>
-      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1">
         <v>1</v>
       </c>
       <c r="T20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1">
-        <v>1</v>
-      </c>
-      <c r="X20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1">
+        <v>1</v>
+      </c>
+      <c r="W20" s="1"/>
       <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
+      <c r="Z20" s="1">
+        <v>1</v>
+      </c>
       <c r="AA20" s="1"/>
-    </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+    </row>
+    <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>154</v>
       </c>
@@ -2879,28 +2901,28 @@
       <c r="H21" s="1">
         <v>1</v>
       </c>
-      <c r="I21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="L21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1">
-        <v>1</v>
-      </c>
+      <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="S21" s="1">
+        <v>1</v>
+      </c>
       <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
       <c r="V21" s="1"/>
-      <c r="W21" s="1">
-        <v>1</v>
-      </c>
-      <c r="X21" s="1"/>
+      <c r="W21" s="1"/>
       <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
+      <c r="Z21" s="1">
+        <v>1</v>
+      </c>
       <c r="AA21" s="1"/>
-    </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>218</v>
       </c>
@@ -2916,17 +2938,17 @@
       <c r="G22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K22" s="7">
-        <v>1</v>
-      </c>
-      <c r="P22" s="7">
-        <v>1</v>
-      </c>
-      <c r="X22" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N22" s="7">
+        <v>1</v>
+      </c>
+      <c r="S22" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>222</v>
       </c>
@@ -2942,20 +2964,20 @@
       <c r="G23" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="I23" s="7">
-        <v>1</v>
-      </c>
-      <c r="K23" s="7">
-        <v>1</v>
-      </c>
-      <c r="P23" s="7">
-        <v>1</v>
-      </c>
-      <c r="W23" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="7">
+        <v>1</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1</v>
+      </c>
+      <c r="S23" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>256</v>
       </c>
@@ -2971,23 +2993,23 @@
       <c r="G24" t="s">
         <v>27</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
       <c r="N24">
         <v>1</v>
       </c>
       <c r="P24">
         <v>1</v>
       </c>
-      <c r="R24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -3010,19 +3032,12 @@
         <v>33</v>
       </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
-      <c r="M25" s="1">
+      <c r="L25" s="1">
         <v>1</v>
       </c>
       <c r="N25" s="1">
         <v>1</v>
       </c>
-      <c r="O25" s="1"/>
       <c r="P25" s="1">
         <v>1</v>
       </c>
@@ -3033,23 +3048,30 @@
       <c r="S25" s="1">
         <v>1</v>
       </c>
-      <c r="T25" s="1"/>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1"/>
       <c r="V25" s="1">
         <v>1</v>
       </c>
-      <c r="W25" s="1">
-        <v>1</v>
-      </c>
-      <c r="X25" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="Y25" s="1">
+        <v>1</v>
+      </c>
       <c r="Z25" s="1">
         <v>1</v>
       </c>
-      <c r="AA25" s="1"/>
-    </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="1"/>
+    </row>
+    <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>158</v>
       </c>
@@ -3070,19 +3092,12 @@
       <c r="H26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1">
+      <c r="L26" s="1">
         <v>1</v>
       </c>
       <c r="N26" s="1">
         <v>1</v>
       </c>
-      <c r="O26" s="1"/>
       <c r="P26" s="1">
         <v>1</v>
       </c>
@@ -3090,24 +3105,31 @@
         <v>1</v>
       </c>
       <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
+      <c r="S26" s="1">
+        <v>1</v>
+      </c>
       <c r="T26" s="1">
         <v>1</v>
       </c>
-      <c r="V26" s="1">
-        <v>1</v>
-      </c>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
       <c r="W26" s="1">
         <v>1</v>
       </c>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
+      <c r="Y26" s="1">
+        <v>1</v>
+      </c>
       <c r="Z26" s="1">
         <v>1</v>
       </c>
       <c r="AA26" s="1"/>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="1"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -3132,46 +3154,46 @@
       <c r="H27" s="1">
         <v>1</v>
       </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="M27" s="1">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1">
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1">
         <v>1</v>
       </c>
       <c r="P27" s="1">
         <v>1</v>
       </c>
-      <c r="Q27" s="1">
-        <v>1</v>
-      </c>
-      <c r="R27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
       <c r="S27" s="1">
         <v>1</v>
       </c>
-      <c r="T27" s="1"/>
+      <c r="T27" s="1">
+        <v>1</v>
+      </c>
+      <c r="U27" s="1"/>
       <c r="V27" s="1">
         <v>1</v>
       </c>
-      <c r="W27" s="1">
-        <v>1</v>
-      </c>
-      <c r="X27" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="Y27" s="1">
+        <v>1</v>
+      </c>
       <c r="Z27" s="1">
         <v>1</v>
       </c>
-      <c r="AA27" s="1"/>
-    </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="1"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -3196,19 +3218,12 @@
       <c r="H28" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="1">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
-      <c r="M28" s="1">
+      <c r="L28" s="1">
         <v>1</v>
       </c>
       <c r="N28" s="1">
         <v>1</v>
       </c>
-      <c r="O28" s="1"/>
       <c r="P28" s="1">
         <v>1</v>
       </c>
@@ -3216,20 +3231,27 @@
         <v>1</v>
       </c>
       <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="V28" s="1">
-        <v>1</v>
-      </c>
+      <c r="S28" s="1">
+        <v>1</v>
+      </c>
+      <c r="T28" s="1">
+        <v>1</v>
+      </c>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1">
-        <v>1</v>
-      </c>
+      <c r="Y28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
-    </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="1"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>53</v>
       </c>
@@ -3254,36 +3276,36 @@
       <c r="H29" s="1">
         <v>1</v>
       </c>
-      <c r="I29" s="1">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1">
-        <v>1</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>1</v>
-      </c>
+      <c r="L29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="V29" s="1">
-        <v>1</v>
-      </c>
+      <c r="S29" s="1">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1">
-        <v>1</v>
-      </c>
+      <c r="Y29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
-    </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="1"/>
+    </row>
+    <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
@@ -3302,28 +3324,28 @@
         <v>69</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="L30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="1">
-        <v>1</v>
-      </c>
-      <c r="P30" s="1">
-        <v>1</v>
-      </c>
+      <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
+      <c r="R30" s="1">
+        <v>1</v>
+      </c>
+      <c r="S30" s="1">
+        <v>1</v>
+      </c>
       <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
-    </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+    </row>
+    <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -3348,30 +3370,30 @@
       <c r="H31" s="1">
         <v>1</v>
       </c>
-      <c r="I31" s="1"/>
-      <c r="K31" s="1">
-        <v>1</v>
-      </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1">
-        <v>1</v>
-      </c>
+      <c r="L31" s="1"/>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+      <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
+      <c r="S31" s="1">
+        <v>1</v>
+      </c>
       <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="1">
-        <v>1</v>
-      </c>
-      <c r="X31" s="1"/>
+      <c r="W31" s="1"/>
       <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
+      <c r="Z31" s="1">
+        <v>1</v>
+      </c>
       <c r="AA31" s="1"/>
-    </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+    </row>
+    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
@@ -3394,32 +3416,32 @@
         <v>27</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="K32" s="1">
-        <v>1</v>
-      </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>1</v>
-      </c>
+      <c r="L32" s="1"/>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
+      <c r="S32" s="1">
+        <v>1</v>
+      </c>
+      <c r="T32" s="1">
+        <v>1</v>
+      </c>
+      <c r="U32" s="1"/>
       <c r="V32" s="1"/>
-      <c r="W32" s="1">
-        <v>1</v>
-      </c>
-      <c r="X32" s="1"/>
+      <c r="W32" s="1"/>
       <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
+      <c r="Z32" s="1">
+        <v>1</v>
+      </c>
       <c r="AA32" s="1"/>
-    </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+    </row>
+    <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
@@ -3442,40 +3464,40 @@
         <v>37</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="K33" s="1">
-        <v>1</v>
-      </c>
-      <c r="M33" s="1">
-        <v>1</v>
-      </c>
+      <c r="L33" s="1"/>
       <c r="N33" s="1">
         <v>1</v>
       </c>
-      <c r="O33" s="1">
-        <v>1</v>
-      </c>
       <c r="P33" s="1">
         <v>1</v>
       </c>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
+      <c r="Q33" s="1">
+        <v>1</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1</v>
+      </c>
       <c r="S33" s="1">
         <v>1</v>
       </c>
-      <c r="T33" s="1">
-        <v>1</v>
-      </c>
-      <c r="V33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1">
+        <v>1</v>
+      </c>
       <c r="W33" s="1">
         <v>1</v>
       </c>
-      <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
+      <c r="Z33" s="1">
+        <v>1</v>
+      </c>
       <c r="AA33" s="1"/>
-    </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+    </row>
+    <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>70</v>
       </c>
@@ -3498,40 +3520,40 @@
         <v>27</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="1">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1"/>
-      <c r="M34" s="1">
+      <c r="L34" s="1">
         <v>1</v>
       </c>
       <c r="N34" s="1"/>
-      <c r="O34" s="1">
-        <v>1</v>
-      </c>
       <c r="P34" s="1">
         <v>1</v>
       </c>
-      <c r="Q34" s="1">
-        <v>1</v>
-      </c>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="V34" s="1">
-        <v>1</v>
-      </c>
-      <c r="W34" s="1">
-        <v>1</v>
-      </c>
-      <c r="X34" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-    </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1">
+        <v>1</v>
+      </c>
+      <c r="S34" s="1">
+        <v>1</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1</v>
+      </c>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="Y34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>187</v>
       </c>
@@ -3550,32 +3572,32 @@
       <c r="G35" t="s">
         <v>56</v>
       </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="M35">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="N35">
         <v>1</v>
       </c>
       <c r="P35">
         <v>1</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>1</v>
       </c>
       <c r="T35">
         <v>1</v>
       </c>
-      <c r="X35">
-        <v>1</v>
-      </c>
-      <c r="Y35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>184</v>
       </c>
@@ -3600,35 +3622,35 @@
       <c r="H36">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="M36">
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="N36">
         <v>1</v>
       </c>
       <c r="P36">
         <v>1</v>
       </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="R36">
+      <c r="S36">
         <v>1</v>
       </c>
       <c r="T36">
         <v>1</v>
       </c>
-      <c r="X36">
-        <v>1</v>
-      </c>
-      <c r="Y36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="AA36">
+        <v>1</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>138</v>
       </c>
@@ -3649,44 +3671,44 @@
       <c r="H37" s="1">
         <v>1</v>
       </c>
-      <c r="I37" s="1">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1">
-        <v>1</v>
-      </c>
-      <c r="M37" s="1">
-        <v>1</v>
-      </c>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1">
+      <c r="L37" s="1">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1">
         <v>1</v>
       </c>
       <c r="P37" s="1">
         <v>1</v>
       </c>
-      <c r="Q37" s="1">
-        <v>1</v>
-      </c>
+      <c r="Q37" s="1"/>
       <c r="R37" s="1">
         <v>1</v>
       </c>
-      <c r="S37" s="1"/>
+      <c r="S37" s="1">
+        <v>1</v>
+      </c>
       <c r="T37" s="1">
         <v>1</v>
       </c>
+      <c r="U37" s="1">
+        <v>1</v>
+      </c>
       <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>1</v>
-      </c>
+      <c r="W37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-    </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+    </row>
+    <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>147</v>
       </c>
@@ -3707,34 +3729,34 @@
       <c r="H38" s="1">
         <v>1</v>
       </c>
-      <c r="I38" s="1">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1">
-        <v>1</v>
-      </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="1">
-        <v>1</v>
-      </c>
+      <c r="L38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
+      <c r="S38" s="1">
+        <v>1</v>
+      </c>
+      <c r="T38" s="1">
+        <v>1</v>
+      </c>
+      <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-      <c r="W38" s="1">
-        <v>1</v>
-      </c>
-      <c r="X38" s="1"/>
+      <c r="W38" s="1"/>
       <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
+      <c r="Z38" s="1">
+        <v>1</v>
+      </c>
       <c r="AA38" s="1"/>
-    </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+    </row>
+    <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>189</v>
       </c>
@@ -3756,32 +3778,32 @@
       <c r="H39">
         <v>1</v>
       </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="M39">
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="N39">
         <v>1</v>
       </c>
       <c r="P39">
         <v>1</v>
       </c>
-      <c r="Q39">
+      <c r="S39">
         <v>1</v>
       </c>
       <c r="T39">
         <v>1</v>
       </c>
-      <c r="X39">
-        <v>1</v>
-      </c>
-      <c r="Y39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>82</v>
       </c>
@@ -3804,36 +3826,36 @@
         <v>56</v>
       </c>
       <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="K40" s="1">
-        <v>1</v>
-      </c>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1">
-        <v>1</v>
-      </c>
-      <c r="P40" s="1">
-        <v>1</v>
-      </c>
+      <c r="L40" s="1"/>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
+      <c r="R40" s="1">
+        <v>1</v>
+      </c>
       <c r="S40" s="1">
         <v>1</v>
       </c>
       <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
       <c r="V40" s="1">
         <v>1</v>
       </c>
-      <c r="W40" s="1">
-        <v>1</v>
-      </c>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="Y40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>1</v>
+      </c>
       <c r="AA40" s="1"/>
-    </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+    </row>
+    <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
@@ -3856,42 +3878,42 @@
         <v>56</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="K41" s="1">
-        <v>1</v>
-      </c>
-      <c r="M41" s="1">
-        <v>1</v>
-      </c>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1">
+      <c r="L41" s="1"/>
+      <c r="N41" s="1">
         <v>1</v>
       </c>
       <c r="P41" s="1">
         <v>1</v>
       </c>
-      <c r="Q41" s="1">
-        <v>1</v>
-      </c>
-      <c r="R41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1">
+        <v>1</v>
+      </c>
       <c r="S41" s="1">
         <v>1</v>
       </c>
-      <c r="T41" s="1"/>
+      <c r="T41" s="1">
+        <v>1</v>
+      </c>
+      <c r="U41" s="1"/>
       <c r="V41" s="1">
         <v>1</v>
       </c>
-      <c r="W41" s="1">
-        <v>1</v>
-      </c>
-      <c r="X41" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-    </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W41" s="1"/>
+      <c r="Y41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+    </row>
+    <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>86</v>
       </c>
@@ -3916,40 +3938,40 @@
       <c r="H42" s="1">
         <v>1</v>
       </c>
-      <c r="I42" s="1">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1">
-        <v>1</v>
-      </c>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1">
-        <v>1</v>
-      </c>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1">
+        <v>1</v>
+      </c>
+      <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1">
         <v>1</v>
       </c>
-      <c r="T42" s="1">
-        <v>1</v>
-      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
       <c r="V42" s="1">
         <v>1</v>
       </c>
       <c r="W42" s="1">
         <v>1</v>
       </c>
-      <c r="X42" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-    </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+    </row>
+    <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
@@ -3974,38 +3996,38 @@
       <c r="H43" s="1">
         <v>1</v>
       </c>
-      <c r="I43" s="1">
-        <v>1</v>
-      </c>
-      <c r="K43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1">
-        <v>1</v>
-      </c>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1">
-        <v>1</v>
-      </c>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="P43" s="1"/>
       <c r="Q43" s="1">
         <v>1</v>
       </c>
       <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="V43" s="1">
-        <v>1</v>
-      </c>
-      <c r="W43" s="1">
-        <v>1</v>
-      </c>
-      <c r="X43" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-    </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S43" s="1">
+        <v>1</v>
+      </c>
+      <c r="T43" s="1">
+        <v>1</v>
+      </c>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="Y43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+    </row>
+    <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>80</v>
       </c>
@@ -4030,42 +4052,42 @@
       <c r="H44" s="1">
         <v>1</v>
       </c>
-      <c r="I44" s="1">
-        <v>1</v>
-      </c>
-      <c r="K44" s="1"/>
-      <c r="M44" s="1">
+      <c r="L44" s="1">
         <v>1</v>
       </c>
       <c r="N44" s="1"/>
-      <c r="O44" s="1">
-        <v>1</v>
-      </c>
       <c r="P44" s="1">
         <v>1</v>
       </c>
-      <c r="Q44" s="1">
-        <v>1</v>
-      </c>
-      <c r="R44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1">
+        <v>1</v>
+      </c>
       <c r="S44" s="1">
         <v>1</v>
       </c>
-      <c r="T44" s="1"/>
+      <c r="T44" s="1">
+        <v>1</v>
+      </c>
+      <c r="U44" s="1"/>
       <c r="V44" s="1">
         <v>1</v>
       </c>
-      <c r="W44" s="1">
-        <v>1</v>
-      </c>
-      <c r="X44" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-    </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W44" s="1"/>
+      <c r="Y44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+    </row>
+    <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>243</v>
       </c>
@@ -4084,23 +4106,23 @@
       <c r="H45">
         <v>1</v>
       </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45">
-        <v>1</v>
-      </c>
-      <c r="X45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="AA45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>225</v>
       </c>
@@ -4116,23 +4138,23 @@
       <c r="G46" t="s">
         <v>27</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
       <c r="N46">
         <v>1</v>
       </c>
-      <c r="P46">
-        <v>1</v>
-      </c>
-      <c r="V46">
-        <v>1</v>
-      </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>1</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>191</v>
       </c>
@@ -4154,26 +4176,26 @@
       <c r="G47" t="s">
         <v>101</v>
       </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="P47">
-        <v>1</v>
-      </c>
-      <c r="Q47">
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="S47">
         <v>1</v>
       </c>
       <c r="T47">
         <v>1</v>
       </c>
-      <c r="X47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="AA47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>194</v>
       </c>
@@ -4192,26 +4214,26 @@
       <c r="G48" t="s">
         <v>27</v>
       </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="Q48">
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="S48">
         <v>1</v>
       </c>
       <c r="T48">
         <v>1</v>
       </c>
-      <c r="X48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W48">
+        <v>1</v>
+      </c>
+      <c r="AA48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>199</v>
       </c>
@@ -4230,16 +4252,13 @@
       <c r="H49">
         <v>1</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="P49">
-        <v>1</v>
-      </c>
-      <c r="Q49">
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="S49">
         <v>1</v>
       </c>
       <c r="T49">
@@ -4248,8 +4267,11 @@
       <c r="W49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>201</v>
       </c>
@@ -4268,16 +4290,13 @@
       <c r="H50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="P50">
-        <v>1</v>
-      </c>
-      <c r="Q50">
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="S50">
         <v>1</v>
       </c>
       <c r="T50">
@@ -4286,11 +4305,14 @@
       <c r="W50">
         <v>1</v>
       </c>
-      <c r="X50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z50">
+        <v>1</v>
+      </c>
+      <c r="AA50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>197</v>
       </c>
@@ -4306,26 +4328,26 @@
       <c r="G51" t="s">
         <v>27</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
-      <c r="Q51">
-        <v>1</v>
-      </c>
-      <c r="W51">
-        <v>1</v>
-      </c>
-      <c r="X51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="Z51">
+        <v>1</v>
+      </c>
+      <c r="AA51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>250</v>
       </c>
@@ -4341,13 +4363,7 @@
       <c r="G52" t="s">
         <v>27</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="M52">
+      <c r="L52">
         <v>1</v>
       </c>
       <c r="N52">
@@ -4362,11 +4378,17 @@
       <c r="S52">
         <v>1</v>
       </c>
-      <c r="W52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="V52">
+        <v>1</v>
+      </c>
+      <c r="Z52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>252</v>
       </c>
@@ -4385,16 +4407,10 @@
       <c r="H53">
         <v>1</v>
       </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="O53">
-        <v>1</v>
-      </c>
-      <c r="P53">
-        <v>1</v>
-      </c>
-      <c r="Q53">
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="R53">
         <v>1</v>
       </c>
       <c r="S53">
@@ -4403,11 +4419,17 @@
       <c r="T53">
         <v>1</v>
       </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
       <c r="W53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>248</v>
       </c>
@@ -4423,17 +4445,17 @@
       <c r="G54" t="s">
         <v>37</v>
       </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="P54">
-        <v>1</v>
-      </c>
-      <c r="W54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>181</v>
       </c>
@@ -4452,10 +4474,7 @@
       <c r="G55" t="s">
         <v>37</v>
       </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="M55">
+      <c r="N55">
         <v>1</v>
       </c>
       <c r="P55">
@@ -4464,8 +4483,11 @@
       <c r="S55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>179</v>
       </c>
@@ -4484,17 +4506,17 @@
       <c r="G56" t="s">
         <v>27</v>
       </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="P56">
-        <v>1</v>
-      </c>
-      <c r="W56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>107</v>
       </c>
@@ -4517,38 +4539,38 @@
         <v>27</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="1">
-        <v>1</v>
-      </c>
-      <c r="K57" s="1">
-        <v>1</v>
-      </c>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="1">
-        <v>1</v>
-      </c>
+      <c r="L57" s="1">
+        <v>1</v>
+      </c>
+      <c r="N57" s="1">
+        <v>1</v>
+      </c>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
+      <c r="S57" s="1">
+        <v>1</v>
+      </c>
       <c r="T57" s="1">
         <v>1</v>
       </c>
+      <c r="U57" s="1"/>
       <c r="V57" s="1"/>
       <c r="W57" s="1">
         <v>1</v>
       </c>
-      <c r="X57" s="1">
-        <v>1</v>
-      </c>
       <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
-    </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+    </row>
+    <row r="58" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>141</v>
       </c>
@@ -4567,36 +4589,36 @@
         <v>27</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="1">
-        <v>1</v>
-      </c>
-      <c r="K58" s="1">
-        <v>1</v>
-      </c>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1">
-        <v>1</v>
-      </c>
+      <c r="L58" s="1">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1">
+        <v>1</v>
+      </c>
+      <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1">
         <v>1</v>
       </c>
-      <c r="T58" s="1">
-        <v>1</v>
-      </c>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1">
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1">
+        <v>1</v>
+      </c>
+      <c r="W58" s="1">
         <v>1</v>
       </c>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
-    </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="1"/>
+      <c r="AC58" s="1"/>
+      <c r="AD58" s="1"/>
+    </row>
+    <row r="59" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>211</v>
       </c>
@@ -4612,23 +4634,23 @@
       <c r="G59" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K59" s="7">
-        <v>1</v>
-      </c>
-      <c r="P59" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="7">
+      <c r="N59" s="7">
+        <v>1</v>
+      </c>
+      <c r="S59" s="7">
         <v>1</v>
       </c>
       <c r="T59" s="7">
         <v>1</v>
       </c>
-      <c r="X59" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W59" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>110</v>
       </c>
@@ -4653,34 +4675,34 @@
       <c r="H60" s="1">
         <v>1</v>
       </c>
-      <c r="I60" s="1"/>
-      <c r="K60" s="1">
-        <v>1</v>
-      </c>
-      <c r="M60" s="1">
-        <v>1</v>
-      </c>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="N60" s="1">
+        <v>1</v>
+      </c>
       <c r="P60" s="1">
         <v>1</v>
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
-      <c r="T60" s="1">
-        <v>1</v>
-      </c>
+      <c r="S60" s="1">
+        <v>1</v>
+      </c>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
       <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1">
+      <c r="W60" s="1">
         <v>1</v>
       </c>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
-    </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA60" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB60" s="1"/>
+      <c r="AC60" s="1"/>
+      <c r="AD60" s="1"/>
+    </row>
+    <row r="61" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>134</v>
       </c>
@@ -4699,34 +4721,34 @@
         <v>27</v>
       </c>
       <c r="H61" s="1"/>
-      <c r="I61" s="1">
-        <v>1</v>
-      </c>
-      <c r="K61" s="1">
-        <v>1</v>
-      </c>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1">
-        <v>1</v>
-      </c>
+      <c r="L61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1">
+        <v>1</v>
+      </c>
+      <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1">
-        <v>1</v>
-      </c>
+      <c r="S61" s="1">
+        <v>1</v>
+      </c>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
       <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1">
+      <c r="W61" s="1">
         <v>1</v>
       </c>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
-    </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AD61" s="1"/>
+    </row>
+    <row r="62" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>143</v>
       </c>
@@ -4745,36 +4767,36 @@
         <v>56</v>
       </c>
       <c r="H62" s="1"/>
-      <c r="I62" s="1">
-        <v>1</v>
-      </c>
-      <c r="K62" s="1">
-        <v>1</v>
-      </c>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="1">
-        <v>1</v>
-      </c>
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1">
+        <v>1</v>
+      </c>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
+      <c r="S62" s="1">
+        <v>1</v>
+      </c>
       <c r="T62" s="1">
         <v>1</v>
       </c>
+      <c r="U62" s="1"/>
       <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1">
+      <c r="W62" s="1">
         <v>1</v>
       </c>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
-    </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA62" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="1"/>
+      <c r="AC62" s="1"/>
+      <c r="AD62" s="1"/>
+    </row>
+    <row r="63" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>241</v>
       </c>
@@ -4790,26 +4812,26 @@
       <c r="G63" t="s">
         <v>27</v>
       </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
       <c r="N63">
         <v>1</v>
       </c>
-      <c r="P63">
-        <v>1</v>
-      </c>
       <c r="Q63">
         <v>1</v>
       </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
       <c r="T63">
         <v>1</v>
       </c>
-      <c r="X63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W63">
+        <v>1</v>
+      </c>
+      <c r="AA63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>213</v>
       </c>
@@ -4825,29 +4847,29 @@
       <c r="G64" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I64" s="7">
-        <v>1</v>
-      </c>
-      <c r="K64" s="7">
+      <c r="L64" s="7">
         <v>1</v>
       </c>
       <c r="N64" s="7">
         <v>1</v>
       </c>
-      <c r="O64" s="7">
-        <v>1</v>
-      </c>
-      <c r="P64" s="7">
-        <v>1</v>
-      </c>
-      <c r="V64" s="7">
-        <v>1</v>
-      </c>
-      <c r="W64" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q64" s="7">
+        <v>1</v>
+      </c>
+      <c r="R64" s="7">
+        <v>1</v>
+      </c>
+      <c r="S64" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>129</v>
       </c>
@@ -4872,40 +4894,40 @@
       <c r="H65" s="1">
         <v>1</v>
       </c>
-      <c r="I65" s="1">
-        <v>1</v>
-      </c>
-      <c r="K65" s="1">
-        <v>1</v>
-      </c>
-      <c r="M65" s="1">
-        <v>1</v>
-      </c>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1">
+      <c r="L65" s="1">
+        <v>1</v>
+      </c>
+      <c r="N65" s="1">
         <v>1</v>
       </c>
       <c r="P65" s="1">
         <v>1</v>
       </c>
-      <c r="Q65" s="1">
-        <v>1</v>
-      </c>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="V65" s="1">
-        <v>1</v>
-      </c>
-      <c r="W65" s="1">
-        <v>1</v>
-      </c>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1">
+        <v>1</v>
+      </c>
+      <c r="S65" s="1">
+        <v>1</v>
+      </c>
+      <c r="T65" s="1">
+        <v>1</v>
+      </c>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="Y65" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z65" s="1">
+        <v>1</v>
+      </c>
       <c r="AA65" s="1"/>
-    </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AD65" s="1"/>
+    </row>
+    <row r="66" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>209</v>
       </c>
@@ -4921,26 +4943,26 @@
       <c r="G66" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K66" s="7">
-        <v>1</v>
-      </c>
-      <c r="O66" s="7">
-        <v>1</v>
-      </c>
-      <c r="P66" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="7">
+      <c r="N66" s="7">
+        <v>1</v>
+      </c>
+      <c r="R66" s="7">
         <v>1</v>
       </c>
       <c r="S66" s="7">
         <v>1</v>
       </c>
-      <c r="V66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T66" s="7">
+        <v>1</v>
+      </c>
+      <c r="V66" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>112</v>
       </c>
@@ -4963,42 +4985,42 @@
         <v>37</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="1">
-        <v>1</v>
-      </c>
-      <c r="K67" s="1">
-        <v>1</v>
-      </c>
-      <c r="M67" s="1">
+      <c r="L67" s="1">
         <v>1</v>
       </c>
       <c r="N67" s="1">
         <v>1</v>
       </c>
-      <c r="O67" s="1">
-        <v>1</v>
-      </c>
       <c r="P67" s="1">
         <v>1</v>
       </c>
       <c r="Q67" s="1">
         <v>1</v>
       </c>
-      <c r="R67" s="1"/>
+      <c r="R67" s="1">
+        <v>1</v>
+      </c>
       <c r="S67" s="1">
         <v>1</v>
       </c>
-      <c r="T67" s="1"/>
+      <c r="T67" s="1">
+        <v>1</v>
+      </c>
+      <c r="U67" s="1"/>
       <c r="V67" s="1">
         <v>1</v>
       </c>
       <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
-      <c r="Y67" s="1"/>
+      <c r="Y67" s="1">
+        <v>1</v>
+      </c>
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
-    </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AD67" s="1"/>
+    </row>
+    <row r="68" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>116</v>
       </c>
@@ -5021,40 +5043,40 @@
         <v>37</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="1">
-        <v>1</v>
-      </c>
-      <c r="K68" s="1">
-        <v>1</v>
-      </c>
-      <c r="M68" s="1">
+      <c r="L68" s="1">
         <v>1</v>
       </c>
       <c r="N68" s="1">
         <v>1</v>
       </c>
-      <c r="O68" s="1">
-        <v>1</v>
-      </c>
       <c r="P68" s="1">
         <v>1</v>
       </c>
       <c r="Q68" s="1">
         <v>1</v>
       </c>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
-      <c r="V68" s="1">
-        <v>1</v>
-      </c>
+      <c r="R68" s="1">
+        <v>1</v>
+      </c>
+      <c r="S68" s="1">
+        <v>1</v>
+      </c>
+      <c r="T68" s="1">
+        <v>1</v>
+      </c>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
       <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
-      <c r="Y68" s="1"/>
+      <c r="Y68" s="1">
+        <v>1</v>
+      </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
-    </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB68" s="1"/>
+      <c r="AC68" s="1"/>
+      <c r="AD68" s="1"/>
+    </row>
+    <row r="69" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>214</v>
       </c>
@@ -5070,32 +5092,32 @@
       <c r="G69" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K69" s="7">
-        <v>1</v>
-      </c>
-      <c r="M69" s="7">
-        <v>1</v>
-      </c>
       <c r="N69" s="7">
         <v>1</v>
       </c>
-      <c r="O69" s="7">
-        <v>1</v>
-      </c>
       <c r="P69" s="7">
         <v>1</v>
       </c>
+      <c r="Q69" s="7">
+        <v>1</v>
+      </c>
+      <c r="R69" s="7">
+        <v>1</v>
+      </c>
       <c r="S69" s="7">
         <v>1</v>
       </c>
       <c r="V69" s="7">
         <v>1</v>
       </c>
-      <c r="W69" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y69" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>224</v>
       </c>
@@ -5114,29 +5136,29 @@
       <c r="H70" s="7">
         <v>1</v>
       </c>
-      <c r="I70" s="7">
-        <v>1</v>
-      </c>
-      <c r="K70" s="7">
-        <v>1</v>
-      </c>
-      <c r="M70" s="7">
+      <c r="L70" s="7">
         <v>1</v>
       </c>
       <c r="N70" s="7">
         <v>1</v>
       </c>
-      <c r="O70" s="7">
-        <v>1</v>
-      </c>
       <c r="P70" s="7">
         <v>1</v>
       </c>
-      <c r="V70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q70" s="7">
+        <v>1</v>
+      </c>
+      <c r="R70" s="7">
+        <v>1</v>
+      </c>
+      <c r="S70" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>127</v>
       </c>
@@ -5159,40 +5181,40 @@
         <v>27</v>
       </c>
       <c r="H71" s="1"/>
-      <c r="I71" s="1">
-        <v>1</v>
-      </c>
-      <c r="K71" s="1">
-        <v>1</v>
-      </c>
-      <c r="M71" s="1">
+      <c r="L71" s="1">
         <v>1</v>
       </c>
       <c r="N71" s="1">
         <v>1</v>
       </c>
-      <c r="O71" s="1">
-        <v>1</v>
-      </c>
       <c r="P71" s="1">
         <v>1</v>
       </c>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
+      <c r="Q71" s="1">
+        <v>1</v>
+      </c>
+      <c r="R71" s="1">
+        <v>1</v>
+      </c>
       <c r="S71" s="1">
         <v>1</v>
       </c>
       <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
       <c r="V71" s="1">
         <v>1</v>
       </c>
       <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
+      <c r="Y71" s="1">
+        <v>1</v>
+      </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
-    </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AD71" s="1"/>
+    </row>
+    <row r="72" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>121</v>
       </c>
@@ -5217,40 +5239,40 @@
       <c r="H72" s="1">
         <v>1</v>
       </c>
-      <c r="I72" s="1">
-        <v>1</v>
-      </c>
-      <c r="K72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1">
-        <v>1</v>
-      </c>
-      <c r="O72" s="1">
-        <v>1</v>
-      </c>
-      <c r="P72" s="1">
-        <v>1</v>
-      </c>
+      <c r="L72" s="1">
+        <v>1</v>
+      </c>
+      <c r="N72" s="1"/>
+      <c r="P72" s="1"/>
       <c r="Q72" s="1">
         <v>1</v>
       </c>
-      <c r="R72" s="1"/>
+      <c r="R72" s="1">
+        <v>1</v>
+      </c>
       <c r="S72" s="1">
         <v>1</v>
       </c>
-      <c r="T72" s="1"/>
+      <c r="T72" s="1">
+        <v>1</v>
+      </c>
+      <c r="U72" s="1"/>
       <c r="V72" s="1">
         <v>1</v>
       </c>
       <c r="W72" s="1"/>
-      <c r="X72" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y72" s="1"/>
+      <c r="Y72" s="1">
+        <v>1</v>
+      </c>
       <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-    </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA72" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB72" s="1"/>
+      <c r="AC72" s="1"/>
+      <c r="AD72" s="1"/>
+    </row>
+    <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>123</v>
       </c>
@@ -5273,42 +5295,42 @@
         <v>33</v>
       </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="1">
-        <v>1</v>
-      </c>
-      <c r="K73" s="1">
-        <v>1</v>
-      </c>
-      <c r="M73" s="1">
-        <v>1</v>
-      </c>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1">
+      <c r="L73" s="1">
+        <v>1</v>
+      </c>
+      <c r="N73" s="1">
         <v>1</v>
       </c>
       <c r="P73" s="1">
         <v>1</v>
       </c>
-      <c r="Q73" s="1">
-        <v>1</v>
-      </c>
-      <c r="R73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1">
+        <v>1</v>
+      </c>
       <c r="S73" s="1">
         <v>1</v>
       </c>
-      <c r="T73" s="1"/>
+      <c r="T73" s="1">
+        <v>1</v>
+      </c>
+      <c r="U73" s="1"/>
       <c r="V73" s="1">
         <v>1</v>
       </c>
       <c r="W73" s="1"/>
-      <c r="X73" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y73" s="1"/>
+      <c r="Y73" s="1">
+        <v>1</v>
+      </c>
       <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
-    </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AD73" s="1"/>
+    </row>
+    <row r="74" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>118</v>
       </c>
@@ -5331,40 +5353,40 @@
         <v>60</v>
       </c>
       <c r="H74" s="1"/>
-      <c r="I74" s="1">
-        <v>1</v>
-      </c>
-      <c r="K74" s="1">
-        <v>1</v>
-      </c>
-      <c r="M74" s="1">
-        <v>1</v>
-      </c>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1">
+      <c r="L74" s="1">
+        <v>1</v>
+      </c>
+      <c r="N74" s="1">
         <v>1</v>
       </c>
       <c r="P74" s="1">
         <v>1</v>
       </c>
-      <c r="Q74" s="1">
-        <v>1</v>
-      </c>
-      <c r="R74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1">
+        <v>1</v>
+      </c>
       <c r="S74" s="1">
         <v>1</v>
       </c>
-      <c r="T74" s="1"/>
+      <c r="T74" s="1">
+        <v>1</v>
+      </c>
+      <c r="U74" s="1"/>
       <c r="V74" s="1">
         <v>1</v>
       </c>
       <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
+      <c r="Y74" s="1">
+        <v>1</v>
+      </c>
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
-    </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB74" s="1"/>
+      <c r="AC74" s="1"/>
+      <c r="AD74" s="1"/>
+    </row>
+    <row r="75" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>245</v>
       </c>
@@ -5380,26 +5402,26 @@
       <c r="G75" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K75" s="7">
-        <v>1</v>
-      </c>
-      <c r="O75" s="7">
-        <v>1</v>
-      </c>
-      <c r="P75" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="7">
+      <c r="N75" s="7">
+        <v>1</v>
+      </c>
+      <c r="R75" s="7">
         <v>1</v>
       </c>
       <c r="S75" s="7">
         <v>1</v>
       </c>
-      <c r="V75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T75" s="7">
+        <v>1</v>
+      </c>
+      <c r="V75" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>258</v>
       </c>
@@ -5415,20 +5437,20 @@
       <c r="G76" t="s">
         <v>27</v>
       </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="P76">
-        <v>1</v>
-      </c>
-      <c r="V76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8506,7 +8528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/services/services.xlsx
+++ b/services/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC46CA3-8DF5-455D-8191-3F45A0FDA0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99AD2FA-73C0-49FB-90AC-080A696EFCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Services" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="280">
   <si>
     <t>Website</t>
   </si>
@@ -872,6 +872,12 @@
   </si>
   <si>
     <t>access tlf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>gog.com</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1622,7 @@
     <tableColumn id="27" xr3:uid="{02F2CE9F-3AA5-4646-98D5-CB066ED14A49}" name="Surname" dataCellStyle="Bad"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="birth date"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="gender"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Profile photo"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Profile photo" dataCellStyle="Bad"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="email"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="tlf"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="nacionality"/>
@@ -1905,18 +1911,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD989"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="2.28515625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
@@ -1928,7 +1934,9 @@
     <col min="14" max="14" width="8.85546875" customWidth="1"/>
     <col min="15" max="15" width="8.85546875" style="16" customWidth="1"/>
     <col min="16" max="16" width="11.140625" customWidth="1"/>
-    <col min="17" max="21" width="8.85546875" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="16" customWidth="1"/>
+    <col min="19" max="21" width="8.85546875" customWidth="1"/>
     <col min="22" max="22" width="9.7109375" customWidth="1"/>
     <col min="23" max="23" width="9.28515625" customWidth="1"/>
     <col min="24" max="24" width="9.28515625" style="16" customWidth="1"/>
@@ -1992,7 +2000,7 @@
       <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="16" t="s">
         <v>273</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -2053,22 +2061,26 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1">
-        <v>1</v>
-      </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1"/>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="O2"/>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2"/>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="X2"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1">
         <v>1</v>
@@ -2107,28 +2119,29 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>1</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>1</v>
-      </c>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="I3"/>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3"/>
+      <c r="M3"/>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3"/>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="X3"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -2159,22 +2172,27 @@
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1">
-        <v>1</v>
-      </c>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4"/>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="X4"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1">
         <v>1</v>
@@ -2189,125 +2207,124 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>1</v>
-      </c>
-      <c r="S5" s="1">
-        <v>1</v>
-      </c>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1">
-        <v>1</v>
-      </c>
-      <c r="W5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5"/>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>8</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>1</v>
-      </c>
-      <c r="R6" s="1">
-        <v>1</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1</v>
-      </c>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="X6"/>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AD6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>204</v>
       </c>
       <c r="B7" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>133</v>
       </c>
       <c r="F7">
@@ -2316,12 +2333,21 @@
       <c r="G7" t="s">
         <v>56</v>
       </c>
+      <c r="I7"/>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7"/>
       <c r="L7">
         <v>1</v>
       </c>
+      <c r="M7"/>
       <c r="N7">
         <v>1</v>
       </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
       <c r="P7">
         <v>1</v>
       </c>
@@ -2343,6 +2369,7 @@
       <c r="W7">
         <v>1</v>
       </c>
+      <c r="X7"/>
       <c r="Y7">
         <v>1</v>
       </c>
@@ -2351,13 +2378,13 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>226</v>
       </c>
       <c r="B8" t="s">
         <v>234</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>133</v>
       </c>
       <c r="F8">
@@ -2366,21 +2393,30 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
+      <c r="I8"/>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8"/>
+      <c r="M8"/>
+      <c r="O8"/>
+      <c r="R8"/>
       <c r="S8">
         <v>1</v>
       </c>
+      <c r="X8"/>
       <c r="AB8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>227</v>
       </c>
       <c r="B9" t="s">
         <v>235</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>133</v>
       </c>
       <c r="F9">
@@ -2389,15 +2425,23 @@
       <c r="G9" t="s">
         <v>27</v>
       </c>
+      <c r="I9"/>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9"/>
+      <c r="M9"/>
       <c r="N9">
         <v>1</v>
       </c>
+      <c r="O9"/>
       <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
+      <c r="R9"/>
       <c r="S9">
         <v>1</v>
       </c>
@@ -2407,58 +2451,56 @@
       <c r="W9">
         <v>1</v>
       </c>
+      <c r="X9"/>
       <c r="AB9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>133</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
+      <c r="F10">
         <v>8</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1">
-        <v>1</v>
-      </c>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
+      <c r="I10"/>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10"/>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10"/>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="X10"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>229</v>
       </c>
       <c r="B11" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>133</v>
       </c>
       <c r="F11">
@@ -2467,517 +2509,571 @@
       <c r="G11" t="s">
         <v>27</v>
       </c>
+      <c r="I11"/>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11"/>
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="O11"/>
+      <c r="R11"/>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="V11">
         <v>1</v>
       </c>
+      <c r="X11"/>
       <c r="AA11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" t="s">
         <v>217</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>133</v>
       </c>
       <c r="F12">
         <v>9</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1</v>
-      </c>
-      <c r="P12" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>1</v>
-      </c>
-      <c r="R12" s="7">
-        <v>1</v>
-      </c>
-      <c r="S12" s="7">
-        <v>1</v>
-      </c>
-      <c r="T12" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="7">
+      <c r="I12"/>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12"/>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="X12"/>
+      <c r="Z12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1">
+      <c r="F13">
         <v>10</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1">
-        <v>1</v>
-      </c>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1">
-        <v>1</v>
-      </c>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
+      <c r="I13"/>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13"/>
+      <c r="M13"/>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="R13"/>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1">
+      <c r="F14">
         <v>8</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1">
-        <v>1</v>
-      </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1">
-        <v>1</v>
-      </c>
-      <c r="T14" s="1">
-        <v>1</v>
-      </c>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14"/>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14"/>
+      <c r="AA14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1">
+      <c r="F15">
         <v>8</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1">
-        <v>1</v>
-      </c>
-      <c r="S15" s="1">
-        <v>1</v>
-      </c>
-      <c r="T15" s="1">
-        <v>1</v>
-      </c>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
+      <c r="I15"/>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>207</v>
       </c>
       <c r="B16" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" t="s">
         <v>44</v>
       </c>
       <c r="F16">
         <v>8</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="L16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>1</v>
-      </c>
-      <c r="S16" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="O16"/>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="X16"/>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
         <v>12</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="L17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1</v>
-      </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1">
-        <v>1</v>
-      </c>
-      <c r="S17" s="1">
-        <v>1</v>
-      </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="I17"/>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17"/>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="X17"/>
+      <c r="Z17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>220</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" t="s">
         <v>44</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" t="s">
         <v>56</v>
       </c>
-      <c r="L18" s="7">
-        <v>1</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1</v>
-      </c>
-      <c r="R18" s="7">
-        <v>1</v>
-      </c>
-      <c r="S18" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="I18"/>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18"/>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="X18"/>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>149</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1">
+      <c r="F19">
         <v>6</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1">
-        <v>1</v>
-      </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1">
-        <v>1</v>
-      </c>
-      <c r="T19" s="1">
-        <v>1</v>
-      </c>
-      <c r="U19" s="1">
-        <v>1</v>
-      </c>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-    </row>
-    <row r="20" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19"/>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>278</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="X19"/>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>136</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1">
+      <c r="F20">
         <v>6</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="N20" s="1">
-        <v>1</v>
-      </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1">
-        <v>1</v>
-      </c>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1">
-        <v>1</v>
-      </c>
-      <c r="W20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-    </row>
-    <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="I20"/>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20"/>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="R20"/>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="X20"/>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>154</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1">
+      <c r="F21">
         <v>8</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1">
-        <v>1</v>
-      </c>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-    </row>
-    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21"/>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21"/>
+      <c r="R21"/>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="X21"/>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>218</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" t="s">
         <v>219</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" t="s">
         <v>44</v>
       </c>
       <c r="F22">
         <v>8</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" t="s">
         <v>101</v>
       </c>
-      <c r="N22" s="7">
-        <v>1</v>
-      </c>
-      <c r="S22" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="I22"/>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22"/>
+      <c r="M22"/>
+      <c r="O22"/>
+      <c r="R22"/>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="X22"/>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>222</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" t="s">
         <v>223</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" t="s">
         <v>44</v>
       </c>
       <c r="F23">
         <v>8</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" t="s">
         <v>101</v>
       </c>
-      <c r="L23" s="7">
-        <v>1</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1</v>
-      </c>
-      <c r="S23" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23"/>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23"/>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="X23"/>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>256</v>
       </c>
@@ -2993,568 +3089,577 @@
       <c r="G24" t="s">
         <v>27</v>
       </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
+      <c r="I24"/>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24"/>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="O24"/>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
+      <c r="R24"/>
       <c r="S24">
         <v>1</v>
       </c>
       <c r="U24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="X24"/>
+    </row>
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25">
         <v>8</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="L25" s="1">
-        <v>1</v>
-      </c>
-      <c r="N25" s="1">
-        <v>1</v>
-      </c>
-      <c r="P25" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>1</v>
-      </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1">
-        <v>1</v>
-      </c>
-      <c r="T25" s="1">
-        <v>1</v>
-      </c>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1">
-        <v>1</v>
-      </c>
-      <c r="W25" s="1"/>
-      <c r="Y25" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="1"/>
-    </row>
-    <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="I25"/>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25"/>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25"/>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="X25"/>
+      <c r="Y25">
+        <v>1</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>158</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1">
+      <c r="F26">
         <v>8</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1">
-        <v>1</v>
-      </c>
-      <c r="N26" s="1">
-        <v>1</v>
-      </c>
-      <c r="P26" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>1</v>
-      </c>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1">
-        <v>1</v>
-      </c>
-      <c r="T26" s="1">
-        <v>1</v>
-      </c>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="1"/>
-    </row>
-    <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26"/>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26"/>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26"/>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26"/>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26"/>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AC26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27">
         <v>8</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1">
-        <v>1</v>
-      </c>
-      <c r="N27" s="1">
-        <v>1</v>
-      </c>
-      <c r="P27" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1">
-        <v>1</v>
-      </c>
-      <c r="S27" s="1">
-        <v>1</v>
-      </c>
-      <c r="T27" s="1">
-        <v>1</v>
-      </c>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1">
-        <v>1</v>
-      </c>
-      <c r="W27" s="1"/>
-      <c r="Y27" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="1"/>
-    </row>
-    <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27"/>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27"/>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="X27"/>
+      <c r="Y27">
+        <v>1</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <v>1</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28">
         <v>8</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1">
-        <v>1</v>
-      </c>
-      <c r="N28" s="1">
-        <v>1</v>
-      </c>
-      <c r="P28" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>1</v>
-      </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1">
-        <v>1</v>
-      </c>
-      <c r="T28" s="1">
-        <v>1</v>
-      </c>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="Y28" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="1"/>
-    </row>
-    <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28"/>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28"/>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28"/>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28"/>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="X28"/>
+      <c r="Y28">
+        <v>1</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>6</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" t="s">
         <v>56</v>
       </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="L29" s="1">
-        <v>1</v>
-      </c>
-      <c r="N29" s="1">
-        <v>1</v>
-      </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1">
-        <v>1</v>
-      </c>
-      <c r="T29" s="1">
-        <v>1</v>
-      </c>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="Y29" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="1"/>
-    </row>
-    <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29"/>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29"/>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="R29"/>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="X29"/>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="AC29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1">
+      <c r="F30">
         <v>8</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1">
-        <v>1</v>
-      </c>
-      <c r="S30" s="1">
-        <v>1</v>
-      </c>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-    </row>
-    <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="I30"/>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30"/>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="O30"/>
+      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="X30"/>
+    </row>
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31">
         <v>10</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="1">
-        <v>1</v>
-      </c>
-      <c r="L31" s="1"/>
-      <c r="N31" s="1">
-        <v>1</v>
-      </c>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1">
-        <v>1</v>
-      </c>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-    </row>
-    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31"/>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="O31"/>
+      <c r="R31"/>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="X31"/>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32">
         <v>6</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="N32" s="1">
-        <v>1</v>
-      </c>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1">
-        <v>1</v>
-      </c>
-      <c r="T32" s="1">
-        <v>1</v>
-      </c>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-    </row>
-    <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="I32"/>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32"/>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="O32"/>
+      <c r="R32"/>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="X32"/>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>74</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33">
         <v>10</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" t="s">
         <v>37</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="N33" s="1">
-        <v>1</v>
-      </c>
-      <c r="P33" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>1</v>
-      </c>
-      <c r="R33" s="1">
-        <v>1</v>
-      </c>
-      <c r="S33" s="1">
-        <v>1</v>
-      </c>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1">
-        <v>1</v>
-      </c>
-      <c r="W33" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-    </row>
-    <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="I33"/>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33"/>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="O33"/>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33"/>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34">
         <v>8</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="L34" s="1">
-        <v>1</v>
-      </c>
-      <c r="N34" s="1"/>
-      <c r="P34" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1">
-        <v>1</v>
-      </c>
-      <c r="S34" s="1">
-        <v>1</v>
-      </c>
-      <c r="T34" s="1">
-        <v>1</v>
-      </c>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="Y34" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-    </row>
-    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="O34"/>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="X34"/>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>1</v>
+      </c>
+      <c r="AA34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>187</v>
       </c>
       <c r="B35" t="s">
@@ -3572,15 +3677,25 @@
       <c r="G35" t="s">
         <v>56</v>
       </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
       <c r="L35">
         <v>1</v>
       </c>
+      <c r="M35"/>
       <c r="N35">
         <v>1</v>
       </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
       <c r="P35">
         <v>1</v>
       </c>
+      <c r="R35"/>
       <c r="S35">
         <v>1</v>
       </c>
@@ -3590,6 +3705,7 @@
       <c r="W35">
         <v>1</v>
       </c>
+      <c r="X35"/>
       <c r="AA35">
         <v>1</v>
       </c>
@@ -3597,8 +3713,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>184</v>
       </c>
       <c r="B36" t="s">
@@ -3622,15 +3738,25 @@
       <c r="H36">
         <v>1</v>
       </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36"/>
+      <c r="K36"/>
       <c r="L36">
         <v>1</v>
       </c>
+      <c r="M36"/>
       <c r="N36">
         <v>1</v>
       </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
       <c r="P36">
         <v>1</v>
       </c>
+      <c r="R36"/>
       <c r="S36">
         <v>1</v>
       </c>
@@ -3643,6 +3769,7 @@
       <c r="W36">
         <v>1</v>
       </c>
+      <c r="X36"/>
       <c r="AA36">
         <v>1</v>
       </c>
@@ -3650,114 +3777,120 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1">
+      <c r="F37">
         <v>8</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" t="s">
         <v>56</v>
       </c>
-      <c r="H37" s="1">
-        <v>1</v>
-      </c>
-      <c r="L37" s="1">
-        <v>1</v>
-      </c>
-      <c r="N37" s="1">
-        <v>1</v>
-      </c>
-      <c r="P37" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1">
-        <v>1</v>
-      </c>
-      <c r="S37" s="1">
-        <v>1</v>
-      </c>
-      <c r="T37" s="1">
-        <v>1</v>
-      </c>
-      <c r="U37" s="1">
-        <v>1</v>
-      </c>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-    </row>
-    <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37"/>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37"/>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37"/>
+      <c r="AA37">
+        <v>1</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>147</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>148</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1">
+      <c r="F38">
         <v>7</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="1">
-        <v>1</v>
-      </c>
-      <c r="L38" s="1">
-        <v>1</v>
-      </c>
-      <c r="N38" s="1">
-        <v>1</v>
-      </c>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1">
-        <v>1</v>
-      </c>
-      <c r="T38" s="1">
-        <v>1</v>
-      </c>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-    </row>
-    <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38"/>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="R38"/>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1</v>
+      </c>
+      <c r="X38"/>
+      <c r="Z38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>189</v>
       </c>
       <c r="B39" t="s">
@@ -3778,15 +3911,25 @@
       <c r="H39">
         <v>1</v>
       </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39"/>
+      <c r="K39"/>
       <c r="L39">
         <v>1</v>
       </c>
+      <c r="M39"/>
       <c r="N39">
         <v>1</v>
       </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
       <c r="P39">
         <v>1</v>
       </c>
+      <c r="R39"/>
       <c r="S39">
         <v>1</v>
       </c>
@@ -3796,6 +3939,7 @@
       <c r="W39">
         <v>1</v>
       </c>
+      <c r="X39"/>
       <c r="AA39">
         <v>1</v>
       </c>
@@ -3803,298 +3947,320 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>265</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>82</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>46</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40">
         <v>8</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="N40" s="1">
-        <v>1</v>
-      </c>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1">
-        <v>1</v>
-      </c>
-      <c r="S40" s="1">
-        <v>1</v>
-      </c>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1">
-        <v>1</v>
-      </c>
-      <c r="W40" s="1"/>
-      <c r="Y40" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
-      <c r="AD40" s="1"/>
-    </row>
-    <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40"/>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="X40"/>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>265</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>46</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41">
         <v>8</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" t="s">
         <v>56</v>
       </c>
-      <c r="H41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="N41" s="1">
-        <v>1</v>
-      </c>
-      <c r="P41" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1">
-        <v>1</v>
-      </c>
-      <c r="S41" s="1">
-        <v>1</v>
-      </c>
-      <c r="T41" s="1">
-        <v>1</v>
-      </c>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1">
-        <v>1</v>
-      </c>
-      <c r="W41" s="1"/>
-      <c r="Y41" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z41" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
-      <c r="AD41" s="1"/>
-    </row>
-    <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="I41"/>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="M41"/>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41"/>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="X41"/>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>1</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>265</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42">
         <v>7</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" t="s">
         <v>37</v>
       </c>
-      <c r="H42" s="1">
-        <v>1</v>
-      </c>
-      <c r="L42" s="1">
-        <v>1</v>
-      </c>
-      <c r="N42" s="1">
-        <v>1</v>
-      </c>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1">
-        <v>1</v>
-      </c>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1">
-        <v>1</v>
-      </c>
-      <c r="W42" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
-    </row>
-    <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42"/>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42"/>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="R42"/>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42">
+        <v>1</v>
+      </c>
+      <c r="X42"/>
+      <c r="Y42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>1</v>
+      </c>
+      <c r="AA42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>76</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>265</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>46</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43">
         <v>8</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="1">
-        <v>1</v>
-      </c>
-      <c r="L43" s="1">
-        <v>1</v>
-      </c>
-      <c r="N43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1">
-        <v>1</v>
-      </c>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1">
-        <v>1</v>
-      </c>
-      <c r="T43" s="1">
-        <v>1</v>
-      </c>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="Y43" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
-      <c r="AD43" s="1"/>
-    </row>
-    <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="O43"/>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43"/>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="X43"/>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>265</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>46</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44">
         <v>8</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="1">
-        <v>1</v>
-      </c>
-      <c r="L44" s="1">
-        <v>1</v>
-      </c>
-      <c r="N44" s="1"/>
-      <c r="P44" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1">
-        <v>1</v>
-      </c>
-      <c r="S44" s="1">
-        <v>1</v>
-      </c>
-      <c r="T44" s="1">
-        <v>1</v>
-      </c>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1">
-        <v>1</v>
-      </c>
-      <c r="W44" s="1"/>
-      <c r="Y44" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1"/>
-      <c r="AD44" s="1"/>
-    </row>
-    <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44"/>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="X44"/>
+      <c r="Y44">
+        <v>1</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>243</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="B45" t="s">
+        <v>279</v>
+      </c>
+      <c r="C45" t="s">
         <v>265</v>
       </c>
       <c r="F45">
@@ -4106,10 +4272,19 @@
       <c r="H45">
         <v>1</v>
       </c>
+      <c r="I45"/>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45"/>
       <c r="L45">
         <v>1</v>
       </c>
-      <c r="N45">
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="O45"/>
+      <c r="P45">
         <v>1</v>
       </c>
       <c r="R45">
@@ -4118,11 +4293,15 @@
       <c r="S45">
         <v>1</v>
       </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="X45"/>
       <c r="AA45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>225</v>
       </c>
@@ -4154,7 +4333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>191</v>
       </c>
@@ -4195,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>194</v>
       </c>
@@ -4410,7 +4589,7 @@
       <c r="N53">
         <v>1</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="16">
         <v>1</v>
       </c>
       <c r="S53">
@@ -4547,7 +4726,6 @@
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
       <c r="S57" s="1">
         <v>1</v>
       </c>
@@ -4597,7 +4775,6 @@
       </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
       <c r="S58" s="1">
         <v>1</v>
       </c>
@@ -4683,7 +4860,6 @@
         <v>1</v>
       </c>
       <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
       <c r="S60" s="1">
         <v>1</v>
       </c>
@@ -4729,7 +4905,6 @@
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
       <c r="S61" s="1">
         <v>1</v>
       </c>
@@ -4775,7 +4950,6 @@
       </c>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
       <c r="S62" s="1">
         <v>1</v>
       </c>
@@ -4856,7 +5030,7 @@
       <c r="Q64" s="7">
         <v>1</v>
       </c>
-      <c r="R64" s="7">
+      <c r="R64" s="16">
         <v>1</v>
       </c>
       <c r="S64" s="7">
@@ -4904,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="Q65" s="1"/>
-      <c r="R65" s="1">
+      <c r="R65" s="16">
         <v>1</v>
       </c>
       <c r="S65" s="1">
@@ -4946,7 +5120,7 @@
       <c r="N66" s="7">
         <v>1</v>
       </c>
-      <c r="R66" s="7">
+      <c r="R66" s="16">
         <v>1</v>
       </c>
       <c r="S66" s="7">
@@ -4997,7 +5171,7 @@
       <c r="Q67" s="1">
         <v>1</v>
       </c>
-      <c r="R67" s="1">
+      <c r="R67" s="16">
         <v>1</v>
       </c>
       <c r="S67" s="1">
@@ -5055,7 +5229,7 @@
       <c r="Q68" s="1">
         <v>1</v>
       </c>
-      <c r="R68" s="1">
+      <c r="R68" s="16">
         <v>1</v>
       </c>
       <c r="S68" s="1">
@@ -5101,7 +5275,7 @@
       <c r="Q69" s="7">
         <v>1</v>
       </c>
-      <c r="R69" s="7">
+      <c r="R69" s="16">
         <v>1</v>
       </c>
       <c r="S69" s="7">
@@ -5148,7 +5322,7 @@
       <c r="Q70" s="7">
         <v>1</v>
       </c>
-      <c r="R70" s="7">
+      <c r="R70" s="16">
         <v>1</v>
       </c>
       <c r="S70" s="7">
@@ -5193,7 +5367,7 @@
       <c r="Q71" s="1">
         <v>1</v>
       </c>
-      <c r="R71" s="1">
+      <c r="R71" s="16">
         <v>1</v>
       </c>
       <c r="S71" s="1">
@@ -5247,7 +5421,7 @@
       <c r="Q72" s="1">
         <v>1</v>
       </c>
-      <c r="R72" s="1">
+      <c r="R72" s="16">
         <v>1</v>
       </c>
       <c r="S72" s="1">
@@ -5305,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="Q73" s="1"/>
-      <c r="R73" s="1">
+      <c r="R73" s="16">
         <v>1</v>
       </c>
       <c r="S73" s="1">
@@ -5363,7 +5537,7 @@
         <v>1</v>
       </c>
       <c r="Q74" s="1"/>
-      <c r="R74" s="1">
+      <c r="R74" s="16">
         <v>1</v>
       </c>
       <c r="S74" s="1">
@@ -5405,7 +5579,7 @@
       <c r="N75" s="7">
         <v>1</v>
       </c>
-      <c r="R75" s="7">
+      <c r="R75" s="16">
         <v>1</v>
       </c>
       <c r="S75" s="7">
@@ -8528,7 +8702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/services/services.xlsx
+++ b/services/services.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99AD2FA-73C0-49FB-90AC-080A696EFCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4233F5BA-B271-445D-B76F-F251E373D88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="280">
   <si>
     <t>Website</t>
   </si>
@@ -884,7 +884,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -947,15 +947,8 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -972,11 +965,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1035,11 +1023,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1056,10 +1043,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
@@ -1600,9 +1585,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:AD76">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD76">
-    <sortCondition ref="C1:C76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:AD75">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD75">
+    <sortCondition ref="C1:C75"/>
   </sortState>
   <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Website" dataDxfId="28"/>
@@ -1613,22 +1598,22 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="min length"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="min mask"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="extra sec"/>
-    <tableColumn id="28" xr3:uid="{DBD2CD94-738E-449B-A23C-A6FB09DA0A31}" name="access username" dataCellStyle="Bad"/>
-    <tableColumn id="23" xr3:uid="{1803C7EB-1388-4025-995F-00763A49AF56}" name="access email" dataCellStyle="Bad"/>
-    <tableColumn id="22" xr3:uid="{0878A912-2CFE-44D3-8EEF-6EC62A578919}" name="access tlf" dataCellStyle="Bad"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2fa"/>
-    <tableColumn id="26" xr3:uid="{CA81BFE9-83DF-479D-B0A3-83EFCFB4C7D2}" name="Nickname" dataCellStyle="Bad"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Name"/>
-    <tableColumn id="27" xr3:uid="{02F2CE9F-3AA5-4646-98D5-CB066ED14A49}" name="Surname" dataCellStyle="Bad"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="birth date"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="gender"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Profile photo" dataCellStyle="Bad"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="email"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="tlf"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="nacionality"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="location"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="address"/>
-    <tableColumn id="31" xr3:uid="{A4C60F27-3AAD-4532-9C2F-457D561542A0}" name="Photos" dataCellStyle="Bad"/>
+    <tableColumn id="28" xr3:uid="{DBD2CD94-738E-449B-A23C-A6FB09DA0A31}" name="access username" dataCellStyle="Normal"/>
+    <tableColumn id="23" xr3:uid="{1803C7EB-1388-4025-995F-00763A49AF56}" name="access email" dataCellStyle="Normal"/>
+    <tableColumn id="22" xr3:uid="{0878A912-2CFE-44D3-8EEF-6EC62A578919}" name="access tlf" dataCellStyle="Normal"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2fa" dataCellStyle="Normal"/>
+    <tableColumn id="26" xr3:uid="{CA81BFE9-83DF-479D-B0A3-83EFCFB4C7D2}" name="Nickname" dataCellStyle="Normal"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Name" dataCellStyle="Normal"/>
+    <tableColumn id="27" xr3:uid="{02F2CE9F-3AA5-4646-98D5-CB066ED14A49}" name="Surname" dataCellStyle="Normal"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="birth date" dataCellStyle="Normal"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="gender" dataCellStyle="Normal"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Profile photo" dataCellStyle="Normal"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="email" dataCellStyle="Normal"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="tlf" dataCellStyle="Normal"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="nacionality" dataCellStyle="Normal"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="location" dataCellStyle="Normal"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="address" dataCellStyle="Normal"/>
+    <tableColumn id="31" xr3:uid="{A4C60F27-3AAD-4532-9C2F-457D561542A0}" name="Photos" dataCellStyle="Normal"/>
     <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Messages"/>
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="subscription"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="purchases"/>
@@ -1909,13 +1894,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD989"/>
+  <dimension ref="A1:AD988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45:XFD45"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1927,20 +1912,12 @@
     <col min="5" max="5" width="2.28515625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="11" width="10.28515625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" style="16" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="16" customWidth="1"/>
+    <col min="8" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="15" width="8.85546875" customWidth="1"/>
     <col min="16" max="16" width="11.140625" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="16" customWidth="1"/>
-    <col min="19" max="21" width="8.85546875" customWidth="1"/>
+    <col min="17" max="21" width="8.85546875" customWidth="1"/>
     <col min="22" max="22" width="9.7109375" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" customWidth="1"/>
-    <col min="24" max="24" width="9.28515625" style="16" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" customWidth="1"/>
+    <col min="23" max="25" width="9.28515625" customWidth="1"/>
     <col min="26" max="26" width="13.28515625" customWidth="1"/>
     <col min="27" max="27" width="11.7109375" customWidth="1"/>
     <col min="28" max="29" width="8.5703125" customWidth="1"/>
@@ -1973,52 +1950,52 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" t="s">
         <v>275</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" t="s">
         <v>276</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" t="s">
         <v>277</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" t="s">
         <v>269</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>270</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" t="s">
         <v>271</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" t="s">
         <v>273</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" t="s">
         <v>274</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -2064,23 +2041,18 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2"/>
-      <c r="K2"/>
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="O2"/>
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="R2"/>
       <c r="S2">
         <v>1</v>
       </c>
       <c r="V2">
         <v>1</v>
       </c>
-      <c r="X2"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1">
         <v>1</v>
@@ -2119,16 +2091,12 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3"/>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3"/>
-      <c r="M3"/>
       <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3"/>
       <c r="P3">
         <v>1</v>
       </c>
@@ -2141,7 +2109,6 @@
       <c r="S3">
         <v>1</v>
       </c>
-      <c r="X3"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
@@ -2178,21 +2145,18 @@
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4"/>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
-      <c r="O4"/>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
         <v>1</v>
       </c>
-      <c r="X4"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1">
         <v>1</v>
@@ -2234,11 +2198,9 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5"/>
       <c r="M5">
         <v>1</v>
       </c>
-      <c r="O5"/>
       <c r="P5">
         <v>1</v>
       </c>
@@ -2289,14 +2251,12 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="K6"/>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="O6"/>
       <c r="P6">
         <v>1</v>
       </c>
@@ -2309,7 +2269,6 @@
       <c r="S6">
         <v>1</v>
       </c>
-      <c r="X6"/>
       <c r="Z6">
         <v>1</v>
       </c>
@@ -2333,15 +2292,12 @@
       <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="I7"/>
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7"/>
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7"/>
       <c r="N7">
         <v>1</v>
       </c>
@@ -2369,7 +2325,6 @@
       <c r="W7">
         <v>1</v>
       </c>
-      <c r="X7"/>
       <c r="Y7">
         <v>1</v>
       </c>
@@ -2393,18 +2348,12 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="I8"/>
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8"/>
-      <c r="M8"/>
-      <c r="O8"/>
-      <c r="R8"/>
       <c r="S8">
         <v>1</v>
       </c>
-      <c r="X8"/>
       <c r="AB8">
         <v>1</v>
       </c>
@@ -2425,23 +2374,18 @@
       <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="I9"/>
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9"/>
-      <c r="M9"/>
       <c r="N9">
         <v>1</v>
       </c>
-      <c r="O9"/>
       <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9">
         <v>1</v>
       </c>
-      <c r="R9"/>
       <c r="S9">
         <v>1</v>
       </c>
@@ -2451,7 +2395,6 @@
       <c r="W9">
         <v>1</v>
       </c>
-      <c r="X9"/>
       <c r="AB9">
         <v>1</v>
       </c>
@@ -2472,26 +2415,21 @@
       <c r="G10" t="s">
         <v>101</v>
       </c>
-      <c r="I10"/>
       <c r="J10">
         <v>1</v>
       </c>
-      <c r="K10"/>
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10"/>
       <c r="N10">
         <v>1</v>
       </c>
-      <c r="O10"/>
       <c r="R10">
         <v>1</v>
       </c>
       <c r="S10">
         <v>1</v>
       </c>
-      <c r="X10"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2509,26 +2447,21 @@
       <c r="G11" t="s">
         <v>27</v>
       </c>
-      <c r="I11"/>
       <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11"/>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
-      <c r="O11"/>
-      <c r="R11"/>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="V11">
         <v>1</v>
       </c>
-      <c r="X11"/>
       <c r="AA11">
         <v>1</v>
       </c>
@@ -2549,15 +2482,12 @@
       <c r="G12" t="s">
         <v>27</v>
       </c>
-      <c r="I12"/>
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12"/>
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12"/>
       <c r="N12">
         <v>1</v>
       </c>
@@ -2579,7 +2509,6 @@
       <c r="T12">
         <v>1</v>
       </c>
-      <c r="X12"/>
       <c r="Z12">
         <v>1</v>
       </c>
@@ -2600,19 +2529,15 @@
       <c r="G13" t="s">
         <v>153</v>
       </c>
-      <c r="I13"/>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13"/>
-      <c r="M13"/>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
-      <c r="R13"/>
       <c r="S13">
         <v>1</v>
       </c>
@@ -2622,7 +2547,6 @@
       <c r="W13">
         <v>1</v>
       </c>
-      <c r="X13"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2646,8 +2570,6 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14"/>
-      <c r="K14"/>
       <c r="L14">
         <v>1</v>
       </c>
@@ -2663,7 +2585,6 @@
       <c r="Q14">
         <v>1</v>
       </c>
-      <c r="R14"/>
       <c r="S14">
         <v>1</v>
       </c>
@@ -2673,7 +2594,6 @@
       <c r="W14">
         <v>1</v>
       </c>
-      <c r="X14"/>
       <c r="AA14">
         <v>1</v>
       </c>
@@ -2694,11 +2614,9 @@
       <c r="G15" t="s">
         <v>101</v>
       </c>
-      <c r="I15"/>
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15"/>
       <c r="L15">
         <v>1</v>
       </c>
@@ -2726,7 +2644,6 @@
       <c r="W15">
         <v>1</v>
       </c>
-      <c r="X15"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2747,25 +2664,21 @@
       <c r="H16">
         <v>1</v>
       </c>
-      <c r="I16"/>
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="K16"/>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
-      <c r="O16"/>
       <c r="R16">
         <v>1</v>
       </c>
       <c r="S16">
         <v>1</v>
       </c>
-      <c r="X16"/>
       <c r="Z16">
         <v>1</v>
       </c>
@@ -2792,15 +2705,12 @@
       <c r="G17" t="s">
         <v>27</v>
       </c>
-      <c r="I17"/>
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="K17"/>
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="M17"/>
       <c r="N17">
         <v>1</v>
       </c>
@@ -2813,7 +2723,6 @@
       <c r="S17">
         <v>1</v>
       </c>
-      <c r="X17"/>
       <c r="Z17">
         <v>1</v>
       </c>
@@ -2834,15 +2743,12 @@
       <c r="G18" t="s">
         <v>56</v>
       </c>
-      <c r="I18"/>
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18"/>
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="M18"/>
       <c r="N18">
         <v>1</v>
       </c>
@@ -2855,7 +2761,6 @@
       <c r="S18">
         <v>1</v>
       </c>
-      <c r="X18"/>
       <c r="Z18">
         <v>1</v>
       </c>
@@ -2879,15 +2784,12 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="I19"/>
       <c r="J19">
         <v>1</v>
       </c>
-      <c r="K19"/>
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="M19"/>
       <c r="N19">
         <v>1</v>
       </c>
@@ -2909,7 +2811,6 @@
       <c r="U19">
         <v>1</v>
       </c>
-      <c r="X19"/>
       <c r="Z19">
         <v>1</v>
       </c>
@@ -2930,29 +2831,24 @@
       <c r="G20" t="s">
         <v>27</v>
       </c>
-      <c r="I20"/>
       <c r="J20">
         <v>1</v>
       </c>
-      <c r="K20"/>
       <c r="L20">
         <v>1</v>
       </c>
-      <c r="M20"/>
       <c r="N20">
         <v>1</v>
       </c>
       <c r="O20">
         <v>1</v>
       </c>
-      <c r="R20"/>
       <c r="S20">
         <v>1</v>
       </c>
       <c r="V20">
         <v>1</v>
       </c>
-      <c r="X20"/>
       <c r="Z20">
         <v>1</v>
       </c>
@@ -2982,19 +2878,15 @@
       <c r="J21">
         <v>1</v>
       </c>
-      <c r="K21"/>
       <c r="M21">
         <v>1</v>
       </c>
       <c r="N21">
         <v>1</v>
       </c>
-      <c r="O21"/>
-      <c r="R21"/>
       <c r="S21">
         <v>1</v>
       </c>
-      <c r="X21"/>
       <c r="Z21">
         <v>1</v>
       </c>
@@ -3015,18 +2907,12 @@
       <c r="G22" t="s">
         <v>101</v>
       </c>
-      <c r="I22"/>
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22"/>
-      <c r="M22"/>
-      <c r="O22"/>
-      <c r="R22"/>
       <c r="S22">
         <v>1</v>
       </c>
-      <c r="X22"/>
       <c r="AA22">
         <v>1</v>
       </c>
@@ -3047,15 +2933,12 @@
       <c r="G23" t="s">
         <v>101</v>
       </c>
-      <c r="I23"/>
       <c r="J23">
         <v>1</v>
       </c>
-      <c r="K23"/>
       <c r="L23">
         <v>1</v>
       </c>
-      <c r="M23"/>
       <c r="N23">
         <v>1</v>
       </c>
@@ -3068,7 +2951,6 @@
       <c r="S23">
         <v>1</v>
       </c>
-      <c r="X23"/>
       <c r="Z23">
         <v>1</v>
       </c>
@@ -3089,29 +2971,24 @@
       <c r="G24" t="s">
         <v>27</v>
       </c>
-      <c r="I24"/>
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="K24"/>
       <c r="M24">
         <v>1</v>
       </c>
-      <c r="O24"/>
       <c r="P24">
         <v>1</v>
       </c>
       <c r="Q24">
         <v>1</v>
       </c>
-      <c r="R24"/>
       <c r="S24">
         <v>1</v>
       </c>
       <c r="U24">
         <v>1</v>
       </c>
-      <c r="X24"/>
     </row>
     <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -3135,15 +3012,12 @@
       <c r="G25" t="s">
         <v>33</v>
       </c>
-      <c r="I25"/>
       <c r="J25">
         <v>1</v>
       </c>
-      <c r="K25"/>
       <c r="L25">
         <v>1</v>
       </c>
-      <c r="M25"/>
       <c r="N25">
         <v>1</v>
       </c>
@@ -3168,7 +3042,6 @@
       <c r="V25">
         <v>1</v>
       </c>
-      <c r="X25"/>
       <c r="Y25">
         <v>1</v>
       </c>
@@ -3201,15 +3074,12 @@
       <c r="H26">
         <v>1</v>
       </c>
-      <c r="I26"/>
       <c r="J26">
         <v>1</v>
       </c>
-      <c r="K26"/>
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="M26"/>
       <c r="N26">
         <v>1</v>
       </c>
@@ -3222,7 +3092,6 @@
       <c r="Q26">
         <v>1</v>
       </c>
-      <c r="R26"/>
       <c r="S26">
         <v>1</v>
       </c>
@@ -3232,7 +3101,6 @@
       <c r="W26">
         <v>1</v>
       </c>
-      <c r="X26"/>
       <c r="Y26">
         <v>1</v>
       </c>
@@ -3268,15 +3136,12 @@
       <c r="H27">
         <v>1</v>
       </c>
-      <c r="I27"/>
       <c r="J27">
         <v>1</v>
       </c>
-      <c r="K27"/>
       <c r="L27">
         <v>1</v>
       </c>
-      <c r="M27"/>
       <c r="N27">
         <v>1</v>
       </c>
@@ -3298,7 +3163,6 @@
       <c r="V27">
         <v>1</v>
       </c>
-      <c r="X27"/>
       <c r="Y27">
         <v>1</v>
       </c>
@@ -3337,15 +3201,12 @@
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28"/>
       <c r="J28">
         <v>1</v>
       </c>
-      <c r="K28"/>
       <c r="L28">
         <v>1</v>
       </c>
-      <c r="M28"/>
       <c r="N28">
         <v>1</v>
       </c>
@@ -3358,14 +3219,12 @@
       <c r="Q28">
         <v>1</v>
       </c>
-      <c r="R28"/>
       <c r="S28">
         <v>1</v>
       </c>
       <c r="T28">
         <v>1</v>
       </c>
-      <c r="X28"/>
       <c r="Y28">
         <v>1</v>
       </c>
@@ -3398,29 +3257,24 @@
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29"/>
       <c r="J29">
         <v>1</v>
       </c>
-      <c r="K29"/>
       <c r="L29">
         <v>1</v>
       </c>
-      <c r="M29"/>
       <c r="N29">
         <v>1</v>
       </c>
       <c r="O29">
         <v>1</v>
       </c>
-      <c r="R29"/>
       <c r="S29">
         <v>1</v>
       </c>
       <c r="T29">
         <v>1</v>
       </c>
-      <c r="X29"/>
       <c r="Y29">
         <v>1</v>
       </c>
@@ -3444,22 +3298,18 @@
       <c r="G30" t="s">
         <v>69</v>
       </c>
-      <c r="I30"/>
       <c r="J30">
         <v>1</v>
       </c>
-      <c r="K30"/>
       <c r="M30">
         <v>1</v>
       </c>
-      <c r="O30"/>
       <c r="R30">
         <v>1</v>
       </c>
       <c r="S30">
         <v>1</v>
       </c>
-      <c r="X30"/>
     </row>
     <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -3486,20 +3336,15 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="I31"/>
       <c r="J31">
         <v>1</v>
       </c>
-      <c r="K31"/>
       <c r="M31">
         <v>1</v>
       </c>
-      <c r="O31"/>
-      <c r="R31"/>
       <c r="S31">
         <v>1</v>
       </c>
-      <c r="X31"/>
       <c r="Z31">
         <v>1</v>
       </c>
@@ -3526,23 +3371,18 @@
       <c r="G32" t="s">
         <v>27</v>
       </c>
-      <c r="I32"/>
       <c r="J32">
         <v>1</v>
       </c>
-      <c r="K32"/>
       <c r="M32">
         <v>1</v>
       </c>
-      <c r="O32"/>
-      <c r="R32"/>
       <c r="S32">
         <v>1</v>
       </c>
       <c r="T32">
         <v>1</v>
       </c>
-      <c r="X32"/>
       <c r="Z32">
         <v>1</v>
       </c>
@@ -3569,15 +3409,12 @@
       <c r="G33" t="s">
         <v>37</v>
       </c>
-      <c r="I33"/>
       <c r="J33">
         <v>1</v>
       </c>
-      <c r="K33"/>
       <c r="M33">
         <v>1</v>
       </c>
-      <c r="O33"/>
       <c r="P33">
         <v>1</v>
       </c>
@@ -3596,7 +3433,6 @@
       <c r="W33">
         <v>1</v>
       </c>
-      <c r="X33"/>
       <c r="Z33">
         <v>1</v>
       </c>
@@ -3626,15 +3462,12 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34"/>
-      <c r="K34"/>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
-      <c r="O34"/>
       <c r="P34">
         <v>1</v>
       </c>
@@ -3647,7 +3480,6 @@
       <c r="T34">
         <v>1</v>
       </c>
-      <c r="X34"/>
       <c r="Y34">
         <v>1</v>
       </c>
@@ -3680,12 +3512,9 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35"/>
-      <c r="K35"/>
       <c r="L35">
         <v>1</v>
       </c>
-      <c r="M35"/>
       <c r="N35">
         <v>1</v>
       </c>
@@ -3695,7 +3524,6 @@
       <c r="P35">
         <v>1</v>
       </c>
-      <c r="R35"/>
       <c r="S35">
         <v>1</v>
       </c>
@@ -3705,7 +3533,6 @@
       <c r="W35">
         <v>1</v>
       </c>
-      <c r="X35"/>
       <c r="AA35">
         <v>1</v>
       </c>
@@ -3741,12 +3568,9 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36"/>
-      <c r="K36"/>
       <c r="L36">
         <v>1</v>
       </c>
-      <c r="M36"/>
       <c r="N36">
         <v>1</v>
       </c>
@@ -3756,7 +3580,6 @@
       <c r="P36">
         <v>1</v>
       </c>
-      <c r="R36"/>
       <c r="S36">
         <v>1</v>
       </c>
@@ -3769,7 +3592,6 @@
       <c r="W36">
         <v>1</v>
       </c>
-      <c r="X36"/>
       <c r="AA36">
         <v>1</v>
       </c>
@@ -3796,7 +3618,6 @@
       <c r="H37">
         <v>1</v>
       </c>
-      <c r="I37"/>
       <c r="J37">
         <v>1</v>
       </c>
@@ -3806,7 +3627,6 @@
       <c r="L37">
         <v>1</v>
       </c>
-      <c r="M37"/>
       <c r="N37">
         <v>1</v>
       </c>
@@ -3831,7 +3651,6 @@
       <c r="W37">
         <v>1</v>
       </c>
-      <c r="X37"/>
       <c r="AA37">
         <v>1</v>
       </c>
@@ -3864,7 +3683,6 @@
       <c r="J38">
         <v>1</v>
       </c>
-      <c r="K38"/>
       <c r="L38">
         <v>1</v>
       </c>
@@ -3877,14 +3695,12 @@
       <c r="O38">
         <v>1</v>
       </c>
-      <c r="R38"/>
       <c r="S38">
         <v>1</v>
       </c>
       <c r="T38">
         <v>1</v>
       </c>
-      <c r="X38"/>
       <c r="Z38">
         <v>1</v>
       </c>
@@ -3914,12 +3730,9 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39"/>
-      <c r="K39"/>
       <c r="L39">
         <v>1</v>
       </c>
-      <c r="M39"/>
       <c r="N39">
         <v>1</v>
       </c>
@@ -3929,7 +3742,6 @@
       <c r="P39">
         <v>1</v>
       </c>
-      <c r="R39"/>
       <c r="S39">
         <v>1</v>
       </c>
@@ -3939,7 +3751,6 @@
       <c r="W39">
         <v>1</v>
       </c>
-      <c r="X39"/>
       <c r="AA39">
         <v>1</v>
       </c>
@@ -3975,7 +3786,6 @@
       <c r="J40">
         <v>1</v>
       </c>
-      <c r="K40"/>
       <c r="M40">
         <v>1</v>
       </c>
@@ -3994,7 +3804,6 @@
       <c r="V40">
         <v>1</v>
       </c>
-      <c r="X40"/>
       <c r="Y40">
         <v>1</v>
       </c>
@@ -4024,18 +3833,15 @@
       <c r="G41" t="s">
         <v>56</v>
       </c>
-      <c r="I41"/>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
-      <c r="M41"/>
       <c r="N41">
         <v>1</v>
       </c>
-      <c r="O41"/>
       <c r="P41">
         <v>1</v>
       </c>
@@ -4051,7 +3857,6 @@
       <c r="V41">
         <v>1</v>
       </c>
-      <c r="X41"/>
       <c r="Y41">
         <v>1</v>
       </c>
@@ -4087,11 +3892,9 @@
       <c r="H42">
         <v>1</v>
       </c>
-      <c r="I42"/>
       <c r="J42">
         <v>1</v>
       </c>
-      <c r="K42"/>
       <c r="L42">
         <v>1</v>
       </c>
@@ -4104,7 +3907,6 @@
       <c r="O42">
         <v>1</v>
       </c>
-      <c r="R42"/>
       <c r="S42">
         <v>1</v>
       </c>
@@ -4114,7 +3916,6 @@
       <c r="W42">
         <v>1</v>
       </c>
-      <c r="X42"/>
       <c r="Y42">
         <v>1</v>
       </c>
@@ -4165,18 +3966,15 @@
       <c r="M43">
         <v>1</v>
       </c>
-      <c r="O43"/>
       <c r="Q43">
         <v>1</v>
       </c>
-      <c r="R43"/>
       <c r="S43">
         <v>1</v>
       </c>
       <c r="T43">
         <v>1</v>
       </c>
-      <c r="X43"/>
       <c r="Y43">
         <v>1</v>
       </c>
@@ -4215,8 +4013,6 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44"/>
-      <c r="K44"/>
       <c r="L44">
         <v>1</v>
       </c>
@@ -4226,7 +4022,6 @@
       <c r="N44">
         <v>1</v>
       </c>
-      <c r="O44"/>
       <c r="P44">
         <v>1</v>
       </c>
@@ -4242,7 +4037,6 @@
       <c r="V44">
         <v>1</v>
       </c>
-      <c r="X44"/>
       <c r="Y44">
         <v>1</v>
       </c>
@@ -4272,18 +4066,15 @@
       <c r="H45">
         <v>1</v>
       </c>
-      <c r="I45"/>
       <c r="J45">
         <v>1</v>
       </c>
-      <c r="K45"/>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45">
         <v>1</v>
       </c>
-      <c r="O45"/>
       <c r="P45">
         <v>1</v>
       </c>
@@ -4296,19 +4087,18 @@
       <c r="V45">
         <v>1</v>
       </c>
-      <c r="X45"/>
       <c r="AA45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>225</v>
       </c>
       <c r="B46" t="s">
         <v>233</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>265</v>
       </c>
       <c r="F46">
@@ -4317,9 +4107,15 @@
       <c r="G46" t="s">
         <v>27</v>
       </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
       <c r="N46">
         <v>1</v>
       </c>
+      <c r="O46">
+        <v>1</v>
+      </c>
       <c r="Q46">
         <v>1</v>
       </c>
@@ -4334,7 +4130,7 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>191</v>
       </c>
       <c r="B47" t="s">
@@ -4355,12 +4151,24 @@
       <c r="G47" t="s">
         <v>101</v>
       </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
       <c r="L47">
         <v>1</v>
       </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
       <c r="N47">
         <v>1</v>
       </c>
+      <c r="O47">
+        <v>1</v>
+      </c>
       <c r="S47">
         <v>1</v>
       </c>
@@ -4375,7 +4183,7 @@
       </c>
     </row>
     <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>194</v>
       </c>
       <c r="B48" t="s">
@@ -4393,12 +4201,24 @@
       <c r="G48" t="s">
         <v>27</v>
       </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
       <c r="L48">
         <v>1</v>
       </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
       <c r="N48">
         <v>1</v>
       </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
       <c r="S48">
         <v>1</v>
       </c>
@@ -4412,8 +4232,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>199</v>
       </c>
       <c r="B49" t="s">
@@ -4431,12 +4251,18 @@
       <c r="H49">
         <v>1</v>
       </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="N49">
         <v>1</v>
       </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
       <c r="S49">
         <v>1</v>
       </c>
@@ -4450,8 +4276,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>201</v>
       </c>
       <c r="B50" t="s">
@@ -4469,12 +4295,21 @@
       <c r="H50">
         <v>1</v>
       </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="N50">
         <v>1</v>
       </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
       <c r="S50">
         <v>1</v>
       </c>
@@ -4491,8 +4326,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>197</v>
       </c>
       <c r="B51" t="s">
@@ -4507,12 +4342,21 @@
       <c r="G51" t="s">
         <v>27</v>
       </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="N51">
         <v>1</v>
       </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="R51">
+        <v>1</v>
+      </c>
       <c r="S51">
         <v>1</v>
       </c>
@@ -4526,14 +4370,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>250</v>
       </c>
       <c r="B52" t="s">
         <v>251</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>247</v>
       </c>
       <c r="F52">
@@ -4542,18 +4386,27 @@
       <c r="G52" t="s">
         <v>27</v>
       </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="N52">
         <v>1</v>
       </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
       <c r="P52">
         <v>1</v>
       </c>
       <c r="Q52">
         <v>1</v>
       </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
       <c r="S52">
         <v>1</v>
       </c>
@@ -4567,14 +4420,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>252</v>
       </c>
       <c r="B53" t="s">
         <v>253</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>247</v>
       </c>
       <c r="F53">
@@ -4586,10 +4439,13 @@
       <c r="H53">
         <v>1</v>
       </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-      <c r="R53" s="16">
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="R53">
         <v>1</v>
       </c>
       <c r="S53">
@@ -4608,14 +4464,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>248</v>
       </c>
       <c r="B54" t="s">
         <v>249</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>247</v>
       </c>
       <c r="F54">
@@ -4624,9 +4480,21 @@
       <c r="G54" t="s">
         <v>37</v>
       </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
       <c r="N54">
         <v>1</v>
       </c>
+      <c r="O54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>1</v>
+      </c>
       <c r="S54">
         <v>1</v>
       </c>
@@ -4634,14 +4502,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>181</v>
       </c>
       <c r="B55" t="s">
         <v>182</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>247</v>
       </c>
       <c r="E55" t="s">
@@ -4653,7 +4521,10 @@
       <c r="G55" t="s">
         <v>37</v>
       </c>
-      <c r="N55">
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="M55">
         <v>1</v>
       </c>
       <c r="P55">
@@ -4666,14 +4537,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>179</v>
       </c>
       <c r="B56" t="s">
         <v>180</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>247</v>
       </c>
       <c r="E56" t="s">
@@ -4685,292 +4556,287 @@
       <c r="G56" t="s">
         <v>27</v>
       </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
       <c r="N56">
         <v>1</v>
       </c>
+      <c r="O56">
+        <v>1</v>
+      </c>
       <c r="S56">
         <v>1</v>
       </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
       <c r="Z56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>107</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>107</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>46</v>
       </c>
-      <c r="F57" s="1">
+      <c r="F57">
         <v>6</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" t="s">
         <v>27</v>
       </c>
-      <c r="H57" s="1"/>
-      <c r="L57" s="1">
-        <v>1</v>
-      </c>
-      <c r="N57" s="1">
-        <v>1</v>
-      </c>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="S57" s="1">
-        <v>1</v>
-      </c>
-      <c r="T57" s="1">
-        <v>1</v>
-      </c>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA57" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-    </row>
-    <row r="58" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>1</v>
+      </c>
+      <c r="AA57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>141</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1">
+      <c r="F58">
         <v>6</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" t="s">
         <v>27</v>
       </c>
-      <c r="H58" s="1"/>
-      <c r="L58" s="1">
-        <v>1</v>
-      </c>
-      <c r="N58" s="1">
-        <v>1</v>
-      </c>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="S58" s="1">
-        <v>1</v>
-      </c>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1">
-        <v>1</v>
-      </c>
-      <c r="W58" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB58" s="1"/>
-      <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
-    </row>
-    <row r="59" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="AA58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>211</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" t="s">
         <v>212</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" t="s">
         <v>109</v>
       </c>
       <c r="F59">
         <v>8</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" t="s">
         <v>56</v>
       </c>
-      <c r="N59" s="7">
-        <v>1</v>
-      </c>
-      <c r="S59" s="7">
-        <v>1</v>
-      </c>
-      <c r="T59" s="7">
-        <v>1</v>
-      </c>
-      <c r="W59" s="7">
-        <v>1</v>
-      </c>
-      <c r="AA59" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="AA59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>110</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" t="s">
         <v>111</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>100</v>
       </c>
-      <c r="F60" s="1">
+      <c r="F60">
         <v>8</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" t="s">
         <v>101</v>
       </c>
-      <c r="H60" s="1">
-        <v>1</v>
-      </c>
-      <c r="L60" s="1"/>
-      <c r="N60" s="1">
-        <v>1</v>
-      </c>
-      <c r="P60" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="1"/>
-      <c r="S60" s="1">
-        <v>1</v>
-      </c>
-      <c r="T60" s="1"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB60" s="1"/>
-      <c r="AC60" s="1"/>
-      <c r="AD60" s="1"/>
-    </row>
-    <row r="61" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>1</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>134</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
         <v>135</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1">
+      <c r="F61">
         <v>8</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" t="s">
         <v>27</v>
       </c>
-      <c r="H61" s="1"/>
-      <c r="L61" s="1">
-        <v>1</v>
-      </c>
-      <c r="N61" s="1">
-        <v>1</v>
-      </c>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="S61" s="1">
-        <v>1</v>
-      </c>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
-    </row>
-    <row r="62" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="AA61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" t="s">
         <v>144</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1">
+      <c r="F62">
         <v>6</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" t="s">
         <v>56</v>
       </c>
-      <c r="H62" s="1"/>
-      <c r="L62" s="1">
-        <v>1</v>
-      </c>
-      <c r="N62" s="1">
-        <v>1</v>
-      </c>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="S62" s="1">
-        <v>1</v>
-      </c>
-      <c r="T62" s="1">
-        <v>1</v>
-      </c>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-    </row>
-    <row r="63" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>1</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>1</v>
+      </c>
+      <c r="AA62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>241</v>
       </c>
@@ -4984,9 +4850,15 @@
         <v>8</v>
       </c>
       <c r="G63" t="s">
-        <v>27</v>
-      </c>
-      <c r="N63">
+        <v>37</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="M63">
         <v>1</v>
       </c>
       <c r="Q63">
@@ -5005,297 +4877,329 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>213</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>114</v>
       </c>
       <c r="F64">
         <v>6</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" t="s">
         <v>27</v>
       </c>
-      <c r="L64" s="7">
-        <v>1</v>
-      </c>
-      <c r="N64" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="7">
-        <v>1</v>
-      </c>
-      <c r="R64" s="16">
-        <v>1</v>
-      </c>
-      <c r="S64" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y64" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z64" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <v>1</v>
+      </c>
+      <c r="Y64">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>114</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>46</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65">
         <v>8</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="1">
-        <v>1</v>
-      </c>
-      <c r="L65" s="1">
-        <v>1</v>
-      </c>
-      <c r="N65" s="1">
-        <v>1</v>
-      </c>
-      <c r="P65" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="16">
-        <v>1</v>
-      </c>
-      <c r="S65" s="1">
-        <v>1</v>
-      </c>
-      <c r="T65" s="1">
-        <v>1</v>
-      </c>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="Y65" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z65" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
-      <c r="AD65" s="1"/>
-    </row>
-    <row r="66" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <v>1</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="Y65">
+        <v>1</v>
+      </c>
+      <c r="Z65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>209</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" t="s">
         <v>210</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" t="s">
         <v>114</v>
       </c>
       <c r="F66">
         <v>5</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" t="s">
         <v>27</v>
       </c>
-      <c r="N66" s="7">
-        <v>1</v>
-      </c>
-      <c r="R66" s="16">
-        <v>1</v>
-      </c>
-      <c r="S66" s="7">
-        <v>1</v>
-      </c>
-      <c r="T66" s="7">
-        <v>1</v>
-      </c>
-      <c r="V66" s="7">
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="R66">
+        <v>1</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="X66">
         <v>1</v>
       </c>
       <c r="Y66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>112</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" t="s">
         <v>113</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>115</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>46</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67">
         <v>6</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" t="s">
         <v>37</v>
       </c>
-      <c r="H67" s="1"/>
-      <c r="L67" s="1">
-        <v>1</v>
-      </c>
-      <c r="N67" s="1">
-        <v>1</v>
-      </c>
-      <c r="P67" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>1</v>
-      </c>
-      <c r="R67" s="16">
-        <v>1</v>
-      </c>
-      <c r="S67" s="1">
-        <v>1</v>
-      </c>
-      <c r="T67" s="1">
-        <v>1</v>
-      </c>
-      <c r="U67" s="1"/>
-      <c r="V67" s="1">
-        <v>1</v>
-      </c>
-      <c r="W67" s="1"/>
-      <c r="Y67" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
-      <c r="AD67" s="1"/>
-    </row>
-    <row r="68" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="X67">
+        <v>1</v>
+      </c>
+      <c r="Y67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>116</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>114</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>115</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>46</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68">
         <v>6</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" t="s">
         <v>37</v>
       </c>
-      <c r="H68" s="1"/>
-      <c r="L68" s="1">
-        <v>1</v>
-      </c>
-      <c r="N68" s="1">
-        <v>1</v>
-      </c>
-      <c r="P68" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>1</v>
-      </c>
-      <c r="R68" s="16">
-        <v>1</v>
-      </c>
-      <c r="S68" s="1">
-        <v>1</v>
-      </c>
-      <c r="T68" s="1">
-        <v>1</v>
-      </c>
-      <c r="U68" s="1"/>
-      <c r="V68" s="1"/>
-      <c r="W68" s="1"/>
-      <c r="Y68" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
-      <c r="AD68" s="1"/>
-    </row>
-    <row r="69" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>214</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" t="s">
         <v>215</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" t="s">
         <v>114</v>
       </c>
       <c r="F69">
         <v>6</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" t="s">
         <v>27</v>
       </c>
-      <c r="N69" s="7">
-        <v>1</v>
-      </c>
-      <c r="P69" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="7">
-        <v>1</v>
-      </c>
-      <c r="R69" s="16">
-        <v>1</v>
-      </c>
-      <c r="S69" s="7">
-        <v>1</v>
-      </c>
-      <c r="V69" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y69" s="7">
-        <v>1</v>
-      </c>
-      <c r="Z69" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="V69">
+        <v>1</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
+      </c>
+      <c r="Y69">
+        <v>1</v>
+      </c>
+      <c r="Z69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>224</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" t="s">
         <v>230</v>
       </c>
       <c r="C70" t="s">
@@ -5304,327 +5208,316 @@
       <c r="F70">
         <v>6</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" t="s">
         <v>101</v>
       </c>
-      <c r="H70" s="7">
-        <v>1</v>
-      </c>
-      <c r="L70" s="7">
-        <v>1</v>
-      </c>
-      <c r="N70" s="7">
-        <v>1</v>
-      </c>
-      <c r="P70" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q70" s="7">
-        <v>1</v>
-      </c>
-      <c r="R70" s="16">
-        <v>1</v>
-      </c>
-      <c r="S70" s="7">
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="X70">
         <v>1</v>
       </c>
       <c r="Y70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" t="s">
         <v>114</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>127</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>46</v>
       </c>
-      <c r="F71" s="1">
+      <c r="F71">
         <v>6</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G71" t="s">
         <v>27</v>
       </c>
-      <c r="H71" s="1"/>
-      <c r="L71" s="1">
-        <v>1</v>
-      </c>
-      <c r="N71" s="1">
-        <v>1</v>
-      </c>
-      <c r="P71" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>1</v>
-      </c>
-      <c r="R71" s="16">
-        <v>1</v>
-      </c>
-      <c r="S71" s="1">
-        <v>1</v>
-      </c>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1">
-        <v>1</v>
-      </c>
-      <c r="W71" s="1"/>
-      <c r="Y71" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-    </row>
-    <row r="72" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
+      </c>
+      <c r="Y71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>121</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>114</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>25</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
         <v>46</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72">
         <v>8</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G72" t="s">
         <v>27</v>
       </c>
-      <c r="H72" s="1">
-        <v>1</v>
-      </c>
-      <c r="L72" s="1">
-        <v>1</v>
-      </c>
-      <c r="N72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1">
-        <v>1</v>
-      </c>
-      <c r="R72" s="16">
-        <v>1</v>
-      </c>
-      <c r="S72" s="1">
-        <v>1</v>
-      </c>
-      <c r="T72" s="1">
-        <v>1</v>
-      </c>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1">
-        <v>1</v>
-      </c>
-      <c r="W72" s="1"/>
-      <c r="Y72" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
-      <c r="AD72" s="1"/>
-    </row>
-    <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
+      <c r="Y72">
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>123</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" t="s">
         <v>124</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>114</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" t="s">
         <v>125</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
         <v>94</v>
       </c>
-      <c r="F73" s="1">
+      <c r="F73">
         <v>8</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" t="s">
         <v>33</v>
       </c>
-      <c r="H73" s="1"/>
-      <c r="L73" s="1">
-        <v>1</v>
-      </c>
-      <c r="N73" s="1">
-        <v>1</v>
-      </c>
-      <c r="P73" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="16">
-        <v>1</v>
-      </c>
-      <c r="S73" s="1">
-        <v>1</v>
-      </c>
-      <c r="T73" s="1">
-        <v>1</v>
-      </c>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1">
-        <v>1</v>
-      </c>
-      <c r="W73" s="1"/>
-      <c r="Y73" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z73" s="1"/>
-      <c r="AA73" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
-      <c r="AD73" s="1"/>
-    </row>
-    <row r="74" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <v>1</v>
+      </c>
+      <c r="X73">
+        <v>1</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>120</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
         <v>46</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74">
         <v>8</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G74" t="s">
         <v>60</v>
       </c>
-      <c r="H74" s="1"/>
-      <c r="L74" s="1">
-        <v>1</v>
-      </c>
-      <c r="N74" s="1">
-        <v>1</v>
-      </c>
-      <c r="P74" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="16">
-        <v>1</v>
-      </c>
-      <c r="S74" s="1">
-        <v>1</v>
-      </c>
-      <c r="T74" s="1">
-        <v>1</v>
-      </c>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1">
-        <v>1</v>
-      </c>
-      <c r="W74" s="1"/>
-      <c r="Y74" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
-      <c r="AD74" s="1"/>
-    </row>
-    <row r="75" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="V74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>1</v>
+      </c>
+      <c r="Y74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>245</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C75" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B75" t="s">
+        <v>263</v>
+      </c>
+      <c r="C75" t="s">
         <v>114</v>
       </c>
       <c r="F75">
-        <v>5</v>
-      </c>
-      <c r="G75" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
         <v>27</v>
       </c>
-      <c r="N75" s="7">
-        <v>1</v>
-      </c>
-      <c r="R75" s="16">
-        <v>1</v>
-      </c>
-      <c r="S75" s="7">
-        <v>1</v>
-      </c>
-      <c r="T75" s="7">
-        <v>1</v>
-      </c>
-      <c r="V75" s="7">
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="X75">
         <v>1</v>
       </c>
       <c r="Y75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>258</v>
-      </c>
-      <c r="B76" t="s">
-        <v>263</v>
-      </c>
-      <c r="C76" t="s">
-        <v>114</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76" t="s">
-        <v>27</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="S76">
-        <v>1</v>
-      </c>
-      <c r="Y76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6533,7 +6426,6 @@
     <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7608,8 +7500,8 @@
         <v>114</v>
       </c>
       <c r="B2">
-        <f>COUNTIF(Services!$C$2:$C$76,Count!A2)</f>
-        <v>13</v>
+        <f>COUNTIF(Services!$C$2:$C$75,Count!A2)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7617,7 +7509,7 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <f>COUNTIF(Services!$C$2:$C$76,Count!A3)</f>
+        <f>COUNTIF(Services!$C$2:$C$75,Count!A3)</f>
         <v>5</v>
       </c>
     </row>
@@ -7626,7 +7518,7 @@
         <v>265</v>
       </c>
       <c r="B4">
-        <f>COUNTIF(Services!$C$2:$C$76,Count!A4)</f>
+        <f>COUNTIF(Services!$C$2:$C$75,Count!A4)</f>
         <v>7</v>
       </c>
     </row>
@@ -7635,7 +7527,7 @@
         <v>63</v>
       </c>
       <c r="B5">
-        <f>COUNTIF(Services!$C$2:$C$76,Count!A5)</f>
+        <f>COUNTIF(Services!$C$2:$C$75,Count!A5)</f>
         <v>5</v>
       </c>
     </row>
@@ -7644,7 +7536,7 @@
         <v>165</v>
       </c>
       <c r="B6">
-        <f>COUNTIF(Services!$C$2:$C$76,Count!A6)</f>
+        <f>COUNTIF(Services!$C$2:$C$75,Count!A6)</f>
         <v>5</v>
       </c>
     </row>
@@ -7653,7 +7545,7 @@
         <v>49</v>
       </c>
       <c r="B7">
-        <f>COUNTIF(Services!$C$2:$C$76,Count!A7)</f>
+        <f>COUNTIF(Services!$C$2:$C$75,Count!A7)</f>
         <v>5</v>
       </c>
     </row>
@@ -7662,7 +7554,7 @@
         <v>109</v>
       </c>
       <c r="B8">
-        <f>COUNTIF(Services!$C$2:$C$76,Count!A8)</f>
+        <f>COUNTIF(Services!$C$2:$C$75,Count!A8)</f>
         <v>7</v>
       </c>
     </row>
@@ -7671,7 +7563,7 @@
         <v>140</v>
       </c>
       <c r="B9">
-        <f>COUNTIF(Services!$C$2:$C$76,Count!A9)</f>
+        <f>COUNTIF(Services!$C$2:$C$75,Count!A9)</f>
         <v>5</v>
       </c>
     </row>
@@ -7680,7 +7572,7 @@
         <v>133</v>
       </c>
       <c r="B10">
-        <f>COUNTIF(Services!$C$2:$C$76,Count!A10)</f>
+        <f>COUNTIF(Services!$C$2:$C$75,Count!A10)</f>
         <v>9</v>
       </c>
     </row>
@@ -7689,7 +7581,7 @@
         <v>44</v>
       </c>
       <c r="B11">
-        <f>COUNTIF(Services!$C$2:$C$76,Count!A11)</f>
+        <f>COUNTIF(Services!$C$2:$C$75,Count!A11)</f>
         <v>9</v>
       </c>
     </row>
@@ -7698,7 +7590,7 @@
         <v>247</v>
       </c>
       <c r="B12">
-        <f>COUNTIF(Services!$C$2:$C$76,Count!A12)</f>
+        <f>COUNTIF(Services!$C$2:$C$75,Count!A12)</f>
         <v>5</v>
       </c>
     </row>
@@ -7709,7 +7601,7 @@
       </c>
       <c r="B13" s="1">
         <f>SUM(B2:B12)</f>
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/services/services.xlsx
+++ b/services/services.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4233F5BA-B271-445D-B76F-F251E373D88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458EFEAD-E8CB-4B84-ACC9-619186C0C52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Services" sheetId="1" r:id="rId1"/>
@@ -667,9 +667,6 @@
     <t>n passwords</t>
   </si>
   <si>
-    <t>dubshmash</t>
-  </si>
-  <si>
     <t>dubshmash.com</t>
   </si>
   <si>
@@ -878,17 +875,27 @@
   </si>
   <si>
     <t>gog.com</t>
+  </si>
+  <si>
+    <t>canva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -945,6 +952,14 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1026,23 +1041,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1629,7 +1646,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6D968D3F-FB27-4F9E-AEE1-318A2D266852}" name="Table3" displayName="Table3" ref="A1:AA26" totalsRowShown="0">
   <autoFilter ref="A1:AA26" xr:uid="{6D968D3F-FB27-4F9E-AEE1-318A2D266852}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA26">
-    <sortCondition ref="C1:C26"/>
+    <sortCondition ref="A1:A26"/>
   </sortState>
   <tableColumns count="27">
     <tableColumn id="1" xr3:uid="{56E87647-17B6-48DA-A9F7-32B62327C70F}" name="Website" dataDxfId="24"/>
@@ -1897,35 +1914,35 @@
   <dimension ref="A1:AD988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1:X1048576"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="11" width="10.28515625" customWidth="1"/>
-    <col min="12" max="15" width="8.85546875" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" customWidth="1"/>
-    <col min="17" max="21" width="8.85546875" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" customWidth="1"/>
-    <col min="23" max="25" width="9.28515625" customWidth="1"/>
-    <col min="26" max="26" width="13.28515625" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" customWidth="1"/>
-    <col min="28" max="29" width="8.5703125" customWidth="1"/>
-    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="8.85546875" customWidth="1"/>
+    <col min="8" max="11" width="10.33203125" customWidth="1"/>
+    <col min="12" max="15" width="8.88671875" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" customWidth="1"/>
+    <col min="17" max="21" width="8.88671875" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="23" max="25" width="9.33203125" customWidth="1"/>
+    <col min="26" max="26" width="13.33203125" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" customWidth="1"/>
+    <col min="28" max="29" width="8.5546875" customWidth="1"/>
+    <col min="30" max="30" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1951,25 +1968,25 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>274</v>
+      </c>
+      <c r="J1" t="s">
         <v>275</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>276</v>
-      </c>
-      <c r="K1" t="s">
-        <v>277</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" t="s">
         <v>269</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>270</v>
-      </c>
-      <c r="O1" t="s">
-        <v>271</v>
       </c>
       <c r="P1" t="s">
         <v>10</v>
@@ -1978,7 +1995,7 @@
         <v>11</v>
       </c>
       <c r="R1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S1" t="s">
         <v>13</v>
@@ -1996,7 +2013,7 @@
         <v>17</v>
       </c>
       <c r="X1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>18</v>
@@ -2008,16 +2025,16 @@
         <v>20</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -2066,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -2118,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -2170,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2220,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2276,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -2332,12 +2349,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C8" t="s">
         <v>133</v>
@@ -2358,12 +2375,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" t="s">
         <v>133</v>
@@ -2399,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -2431,12 +2448,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C11" t="s">
         <v>133</v>
@@ -2466,12 +2483,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" t="s">
         <v>216</v>
-      </c>
-      <c r="B12" t="s">
-        <v>217</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
@@ -2513,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -2548,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>160</v>
       </c>
@@ -2598,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -2645,9 +2662,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>207</v>
+    <row r="16" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>279</v>
       </c>
       <c r="B16" t="s">
         <v>162</v>
@@ -2683,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2727,12 +2744,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>219</v>
+      </c>
+      <c r="B18" t="s">
         <v>220</v>
-      </c>
-      <c r="B18" t="s">
-        <v>221</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -2765,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -2797,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="Q19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -2815,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>136</v>
       </c>
@@ -2853,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -2891,12 +2908,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" t="s">
         <v>218</v>
-      </c>
-      <c r="B22" t="s">
-        <v>219</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -2917,12 +2934,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" t="s">
         <v>222</v>
-      </c>
-      <c r="B23" t="s">
-        <v>223</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -2955,12 +2972,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C24" t="s">
         <v>44</v>
@@ -2990,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -3055,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -3111,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -3176,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -3232,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -3282,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -3311,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -3349,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -3387,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -3437,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -3490,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>187</v>
       </c>
@@ -3540,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>184</v>
       </c>
@@ -3599,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>138</v>
       </c>
@@ -3658,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -3705,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -3758,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -3766,7 +3783,7 @@
         <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D40" t="s">
         <v>82</v>
@@ -3811,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -3819,7 +3836,7 @@
         <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D41" t="s">
         <v>85</v>
@@ -3867,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -3875,7 +3892,7 @@
         <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D42" t="s">
         <v>88</v>
@@ -3926,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -3934,7 +3951,7 @@
         <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D43" t="s">
         <v>79</v>
@@ -3985,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -3993,7 +4010,7 @@
         <v>81</v>
       </c>
       <c r="C44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D44" t="s">
         <v>80</v>
@@ -4047,15 +4064,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F45">
         <v>8</v>
@@ -4091,15 +4108,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B46" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F46">
         <v>7</v>
@@ -4129,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>191</v>
       </c>
@@ -4182,7 +4199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>194</v>
       </c>
@@ -4232,7 +4249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>199</v>
       </c>
@@ -4276,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>201</v>
       </c>
@@ -4326,7 +4343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>197</v>
       </c>
@@ -4370,15 +4387,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>249</v>
+      </c>
+      <c r="B52" t="s">
         <v>250</v>
       </c>
-      <c r="B52" t="s">
-        <v>251</v>
-      </c>
       <c r="C52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F52">
         <v>8</v>
@@ -4420,15 +4437,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>251</v>
+      </c>
+      <c r="B53" t="s">
         <v>252</v>
       </c>
-      <c r="B53" t="s">
-        <v>253</v>
-      </c>
       <c r="C53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F53">
         <v>8</v>
@@ -4464,15 +4481,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54" t="s">
         <v>248</v>
       </c>
-      <c r="B54" t="s">
-        <v>249</v>
-      </c>
       <c r="C54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F54">
         <v>8</v>
@@ -4502,7 +4519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -4510,7 +4527,7 @@
         <v>182</v>
       </c>
       <c r="C55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E55" t="s">
         <v>183</v>
@@ -4537,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>179</v>
       </c>
@@ -4545,7 +4562,7 @@
         <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E56" t="s">
         <v>46</v>
@@ -4578,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -4631,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>141</v>
       </c>
@@ -4669,12 +4686,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" t="s">
         <v>211</v>
-      </c>
-      <c r="B59" t="s">
-        <v>212</v>
       </c>
       <c r="C59" t="s">
         <v>109</v>
@@ -4707,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>110</v>
       </c>
@@ -4754,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -4795,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>143</v>
       </c>
@@ -4836,12 +4853,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
+        <v>240</v>
+      </c>
+      <c r="B63" t="s">
         <v>241</v>
-      </c>
-      <c r="B63" t="s">
-        <v>242</v>
       </c>
       <c r="C63" t="s">
         <v>109</v>
@@ -4877,9 +4894,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B64" t="s">
         <v>126</v>
@@ -4927,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -4983,12 +5000,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>244</v>
+      </c>
+      <c r="B66" t="s">
         <v>209</v>
-      </c>
-      <c r="B66" t="s">
-        <v>210</v>
       </c>
       <c r="C66" t="s">
         <v>114</v>
@@ -5024,8 +5041,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="16" t="s">
         <v>112</v>
       </c>
       <c r="B67" t="s">
@@ -5086,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -5145,12 +5162,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>213</v>
+      </c>
+      <c r="B69" t="s">
         <v>214</v>
-      </c>
-      <c r="B69" t="s">
-        <v>215</v>
       </c>
       <c r="C69" t="s">
         <v>114</v>
@@ -5195,12 +5212,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B70" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C70" t="s">
         <v>114</v>
@@ -5251,7 +5268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -5310,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -5366,7 +5383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>123</v>
       </c>
@@ -5419,7 +5436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -5478,12 +5495,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B75" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C75" t="s">
         <v>114</v>
@@ -5513,919 +5530,919 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6439,35 +6456,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4F48D-A64C-44BD-B29D-A1DEC991488E}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S27" sqref="S27"/>
+      <selection pane="topRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.88671875" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="26" max="26" width="13.7109375" customWidth="1"/>
+    <col min="26" max="26" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6532,7 +6549,7 @@
         <v>20</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="W1" s="4" t="s">
         <v>21</v>
@@ -6544,13 +6561,13 @@
         <v>208</v>
       </c>
       <c r="Z1" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="AA1" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>204</v>
       </c>
@@ -6612,158 +6629,176 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="V3">
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1</v>
+      </c>
+      <c r="T3" s="7">
         <v>1</v>
       </c>
       <c r="X3" s="6">
-        <v>42691</v>
+        <v>43609</v>
       </c>
       <c r="Y3">
-        <v>6038126</v>
-      </c>
-      <c r="Z3">
-        <v>6</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4779956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>133</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
       <c r="V4">
         <v>1</v>
       </c>
       <c r="X4" s="6">
-        <v>43739</v>
+        <v>42691</v>
       </c>
       <c r="Y4">
-        <v>12283514</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>6038126</v>
+      </c>
+      <c r="Z4">
+        <v>6</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B5" t="s">
-        <v>236</v>
+        <v>219</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="T5" s="7">
+        <v>1</v>
+      </c>
+      <c r="X5" s="6">
+        <v>43218</v>
+      </c>
+      <c r="Y5">
+        <v>29309993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1896399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" t="s">
-        <v>205</v>
-      </c>
       <c r="F6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
       <c r="J6">
         <v>1</v>
       </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
       <c r="N6">
         <v>1</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="U6">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="V6">
         <v>1</v>
       </c>
       <c r="X6" s="6">
-        <v>41686</v>
+        <v>43739</v>
       </c>
       <c r="Y6">
-        <v>1456977</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+        <v>12283514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -6771,62 +6806,38 @@
       <c r="J7" s="7">
         <v>1</v>
       </c>
-      <c r="L7" s="7">
-        <v>1</v>
-      </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
       <c r="N7" s="7">
         <v>1</v>
       </c>
-      <c r="S7" s="7">
-        <v>1</v>
-      </c>
       <c r="T7" s="7">
         <v>1</v>
       </c>
       <c r="X7" s="6">
-        <v>41034</v>
+        <v>41091</v>
       </c>
       <c r="Y7">
-        <v>67241910</v>
-      </c>
-      <c r="Z7">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>217</v>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
       <c r="J8" s="7">
         <v>1</v>
       </c>
-      <c r="K8" s="7">
-        <v>1</v>
-      </c>
-      <c r="L8" s="7">
-        <v>1</v>
-      </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
@@ -6836,168 +6847,147 @@
       <c r="O8" s="7">
         <v>1</v>
       </c>
-      <c r="T8" s="7">
+      <c r="Q8" s="7">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>1</v>
       </c>
       <c r="X8" s="6">
-        <v>43034</v>
+        <v>43435</v>
       </c>
       <c r="Y8">
-        <v>81618257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <v>22077067</v>
+      </c>
+      <c r="Z8">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="X9" s="6">
+        <v>42856</v>
+      </c>
+      <c r="Y9">
+        <v>14884412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" t="s">
+        <v>264</v>
+      </c>
+      <c r="X10" s="6">
+        <v>42522</v>
+      </c>
+      <c r="Y10">
+        <v>34146646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="J10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
-      <c r="T10" s="7">
-        <v>1</v>
-      </c>
-      <c r="X10" s="6">
-        <v>43609</v>
-      </c>
-      <c r="Y10">
-        <v>4779956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="J11" s="7">
-        <v>1</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1</v>
-      </c>
-      <c r="T11" s="7">
-        <v>1</v>
-      </c>
-      <c r="X11" s="6">
-        <v>43218</v>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>29309993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>44</v>
+        <v>1896399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="F12">
         <v>8</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1</v>
-      </c>
-      <c r="J12" s="7">
-        <v>1</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1</v>
-      </c>
-      <c r="T12" s="7">
-        <v>1</v>
-      </c>
-      <c r="X12" s="6">
-        <v>41091</v>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1207367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="F13">
         <v>8</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="J13" s="7">
         <v>1</v>
@@ -7005,52 +6995,49 @@
       <c r="N13" s="7">
         <v>1</v>
       </c>
+      <c r="O13" s="7">
+        <v>1</v>
+      </c>
+      <c r="R13" s="7">
+        <v>1</v>
+      </c>
       <c r="U13" s="7">
         <v>1</v>
       </c>
       <c r="X13" s="6">
-        <v>43290</v>
+        <v>43319</v>
       </c>
       <c r="Y13">
-        <v>2268955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>13047077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="N14">
         <v>1</v>
       </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
       <c r="P14">
         <v>1</v>
       </c>
-      <c r="Y14">
-        <v>193975</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>257</v>
       </c>
@@ -7058,59 +7045,74 @@
         <v>262</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>114</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
       </c>
       <c r="X15" s="6">
-        <v>43160</v>
+        <v>43834</v>
       </c>
       <c r="Y15">
-        <v>883637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>243</v>
+        <v>482908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>78</v>
+        <v>236</v>
+      </c>
+      <c r="C16" t="s">
+        <v>205</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
         <v>27</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
       <c r="U16">
         <v>1</v>
       </c>
+      <c r="X16" s="6">
+        <v>41686</v>
+      </c>
       <c r="Y16">
-        <v>1207367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1456977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" t="s">
         <v>239</v>
-      </c>
-      <c r="B17" t="s">
-        <v>240</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>78</v>
@@ -7119,331 +7121,340 @@
         <v>3175293</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B18" t="s">
-        <v>233</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>78</v>
+        <v>212</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="F18">
-        <v>7</v>
-      </c>
-      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-      <c r="U18">
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7">
+        <v>1</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1</v>
+      </c>
+      <c r="S18" s="7">
+        <v>1</v>
+      </c>
+      <c r="T18" s="7">
         <v>1</v>
       </c>
       <c r="X18" s="6">
-        <v>43709</v>
+        <v>41034</v>
       </c>
       <c r="Y18">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+        <v>67241910</v>
+      </c>
+      <c r="Z18">
+        <v>6</v>
+      </c>
+      <c r="AA18" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>1</v>
+      </c>
+      <c r="S19" s="7">
+        <v>1</v>
+      </c>
+      <c r="T19" s="7">
+        <v>1</v>
+      </c>
+      <c r="X19" s="6">
+        <v>42429</v>
+      </c>
+      <c r="Y19">
+        <v>27401746</v>
+      </c>
+      <c r="Z19">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" t="s">
         <v>260</v>
       </c>
-      <c r="B19" t="s">
-        <v>264</v>
-      </c>
-      <c r="C19" t="s">
-        <v>265</v>
-      </c>
-      <c r="X19" s="6">
-        <v>42522</v>
-      </c>
-      <c r="Y19">
-        <v>34146646</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>109</v>
+      <c r="C20" t="s">
+        <v>44</v>
       </c>
       <c r="F20">
-        <v>8</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1</v>
-      </c>
-      <c r="O20" s="7">
-        <v>1</v>
-      </c>
-      <c r="R20" s="7">
-        <v>1</v>
-      </c>
-      <c r="U20" s="7">
-        <v>1</v>
-      </c>
-      <c r="X20" s="6">
-        <v>43319</v>
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>13047077</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>241</v>
-      </c>
-      <c r="B21" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" t="s">
-        <v>109</v>
+        <v>193975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="F21">
-        <v>8</v>
-      </c>
-      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="U21">
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
+      <c r="O21" s="7">
+        <v>1</v>
+      </c>
+      <c r="T21" s="7">
         <v>1</v>
       </c>
       <c r="X21" s="6">
-        <v>43252</v>
+        <v>43034</v>
       </c>
       <c r="Y21">
-        <v>28951772</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>246</v>
+        <v>81618257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>229</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>114</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>27</v>
+        <v>101</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1</v>
       </c>
       <c r="J22" s="7">
         <v>1</v>
       </c>
+      <c r="K22" s="7">
+        <v>1</v>
+      </c>
+      <c r="L22" s="7">
+        <v>1</v>
+      </c>
       <c r="M22" s="7">
         <v>1</v>
       </c>
       <c r="N22" s="7">
         <v>1</v>
       </c>
-      <c r="O22" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>1</v>
-      </c>
       <c r="S22">
         <v>1</v>
       </c>
       <c r="X22" s="6">
-        <v>43435</v>
+        <v>39630</v>
       </c>
       <c r="Y22">
-        <v>22077067</v>
-      </c>
-      <c r="Z22">
-        <v>5</v>
-      </c>
-      <c r="AA22" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23">
-        <v>6</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="7">
-        <v>1</v>
-      </c>
-      <c r="K23" s="7">
-        <v>1</v>
-      </c>
-      <c r="L23" s="7">
-        <v>1</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>1</v>
-      </c>
-      <c r="S23" s="7">
-        <v>1</v>
-      </c>
-      <c r="T23" s="7">
-        <v>1</v>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
       </c>
       <c r="X23" s="6">
-        <v>42429</v>
+        <v>43160</v>
       </c>
       <c r="Y23">
-        <v>27401746</v>
-      </c>
-      <c r="Z23">
-        <v>6</v>
-      </c>
-      <c r="AA23" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+        <v>883637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1</v>
-      </c>
       <c r="J24" s="7">
         <v>1</v>
       </c>
-      <c r="K24" s="7">
-        <v>1</v>
-      </c>
-      <c r="L24" s="7">
-        <v>1</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1</v>
-      </c>
       <c r="N24" s="7">
         <v>1</v>
       </c>
-      <c r="S24">
+      <c r="U24" s="7">
         <v>1</v>
       </c>
       <c r="X24" s="6">
-        <v>39630</v>
+        <v>43290</v>
       </c>
       <c r="Y24">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+        <v>2268955</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s">
-        <v>255</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>114</v>
+        <v>241</v>
+      </c>
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
-      <c r="M25">
+      <c r="L25">
         <v>1</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="S25">
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="U25">
         <v>1</v>
       </c>
       <c r="X25" s="6">
-        <v>42856</v>
+        <v>43252</v>
       </c>
       <c r="Y25">
-        <v>14884412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>258</v>
+        <v>28951772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="B26" t="s">
-        <v>263</v>
-      </c>
-      <c r="C26" t="s">
-        <v>114</v>
+        <v>232</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G26" t="s">
         <v>27</v>
@@ -7451,17 +7462,23 @@
       <c r="J26">
         <v>1</v>
       </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
       <c r="N26">
         <v>1</v>
       </c>
       <c r="S26">
         <v>1</v>
       </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
       <c r="X26" s="6">
-        <v>43834</v>
+        <v>43709</v>
       </c>
       <c r="Y26">
-        <v>482908</v>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
@@ -7481,13 +7498,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="26" width="11.42578125" customWidth="1"/>
+    <col min="2" max="26" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
@@ -7495,7 +7512,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
@@ -7504,7 +7521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -7513,16 +7530,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4">
         <f>COUNTIF(Services!$C$2:$C$75,Count!A4)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -7531,7 +7548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>165</v>
       </c>
@@ -7540,7 +7557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -7549,7 +7566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
@@ -7558,7 +7575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -7567,7 +7584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
@@ -7576,7 +7593,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -7585,16 +7602,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B12">
         <f>COUNTIF(Services!$C$2:$C$75,Count!A12)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f>ROWS(A2:A12)</f>
         <v>11</v>
@@ -7604,986 +7621,986 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -8598,14 +8615,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="26" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="26" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
@@ -8613,7 +8630,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
@@ -8621,7 +8638,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -8629,7 +8646,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
@@ -8637,7 +8654,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -8645,7 +8662,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>165</v>
       </c>
@@ -8653,7 +8670,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -8661,7 +8678,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
@@ -8669,7 +8686,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -8677,7 +8694,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
@@ -8685,7 +8702,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -8693,994 +8710,994 @@
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -9695,28 +9712,28 @@
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
-    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" customWidth="1"/>
+    <col min="22" max="22" width="14.88671875" customWidth="1"/>
     <col min="23" max="23" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9787,7 +9804,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
@@ -9829,7 +9846,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>102</v>
       </c>
@@ -9869,7 +9886,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -9877,7 +9894,7 @@
         <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D4" t="s">
         <v>92</v>
@@ -9904,7 +9921,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -9912,7 +9929,7 @@
         <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
         <v>106</v>
@@ -9936,7 +9953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>97</v>
       </c>
@@ -9944,7 +9961,7 @@
         <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D6" t="s">
         <v>99</v>
@@ -9980,23 +9997,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" t="s">
         <v>239</v>
       </c>
-      <c r="B7" t="s">
-        <v>240</v>
-      </c>
       <c r="C7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" t="s">
         <v>254</v>
-      </c>
-      <c r="B8" t="s">
-        <v>255</v>
       </c>
       <c r="C8" t="s">
         <v>114</v>
@@ -10017,34 +10034,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" t="s">
         <v>264</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>266</v>
-      </c>
-      <c r="B11" t="s">
-        <v>267</v>
       </c>
       <c r="C11" t="s">
         <v>133</v>
@@ -10065,12 +10082,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" t="s">
         <v>133</v>
@@ -10098,14 +10115,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -10119,7 +10136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>133</v>
       </c>
@@ -10133,12 +10150,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -10147,12 +10164,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" s="12">
         <v>8</v>
@@ -10161,20 +10178,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>133</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>205</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C6" s="12">
         <v>6</v>
@@ -10183,12 +10200,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -10197,12 +10214,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="12">
         <v>9</v>
@@ -10211,15 +10228,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>44</v>
       </c>
@@ -10233,12 +10250,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -10247,12 +10264,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C12" s="12">
         <v>8</v>
@@ -10261,12 +10278,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -10275,12 +10292,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C14" s="12">
         <v>6</v>
@@ -10289,20 +10306,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" s="12">
         <v>8</v>
@@ -10311,20 +10328,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>78</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="12">
         <v>7</v>
@@ -10333,20 +10350,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>109</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="12">
         <v>8</v>
@@ -10355,12 +10372,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -10369,12 +10386,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C22" s="12">
         <v>5</v>
@@ -10383,12 +10400,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -10397,12 +10414,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>114</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C24" s="12">
         <v>6</v>
@@ -10411,20 +10428,20 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>114</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C26" s="13">
         <v>1</v>

--- a/services/services.xlsx
+++ b/services/services.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roise\Documents\Apam ciber\leaks\services\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roise\Documents\Apam ciber\leaks\services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458EFEAD-E8CB-4B84-ACC9-619186C0C52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757D7E5F-1007-4E95-AD59-F3AF8BC134B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Services" sheetId="1" r:id="rId1"/>
@@ -1914,35 +1914,35 @@
   <dimension ref="A1:AD988"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="J59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="AD69" sqref="AD69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="2.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="15" width="8.88671875" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" customWidth="1"/>
-    <col min="17" max="21" width="8.88671875" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" customWidth="1"/>
-    <col min="23" max="25" width="9.33203125" customWidth="1"/>
-    <col min="26" max="26" width="13.33203125" customWidth="1"/>
-    <col min="27" max="27" width="11.6640625" customWidth="1"/>
-    <col min="28" max="29" width="8.5546875" customWidth="1"/>
-    <col min="30" max="30" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="8.88671875" customWidth="1"/>
+    <col min="8" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="15" width="8.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" customWidth="1"/>
+    <col min="17" max="21" width="8.85546875" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" customWidth="1"/>
+    <col min="23" max="25" width="9.28515625" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" customWidth="1"/>
+    <col min="28" max="29" width="8.5703125" customWidth="1"/>
+    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -2349,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>225</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>226</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>228</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>215</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>160</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>145</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>279</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>219</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>136</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>217</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>221</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>255</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>158</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>187</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>184</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>138</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>82</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>86</v>
       </c>
@@ -3943,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>242</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>224</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>191</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>194</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>199</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>201</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>197</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>249</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>251</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>247</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>181</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>179</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>107</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>141</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>210</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>110</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>143</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>240</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>212</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>244</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>112</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>116</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>213</v>
       </c>
@@ -5211,8 +5211,11 @@
       <c r="Z69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>223</v>
       </c>
@@ -5268,7 +5271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -5327,7 +5330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>121</v>
       </c>
@@ -5383,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>123</v>
       </c>
@@ -5436,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -5495,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>257</v>
       </c>
@@ -5530,919 +5533,919 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6456,35 +6459,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F4F48D-A64C-44BD-B29D-A1DEC991488E}">
   <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
     <col min="21" max="21" width="12" customWidth="1"/>
-    <col min="22" max="23" width="14.88671875" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14" customWidth="1"/>
-    <col min="26" max="26" width="13.6640625" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6567,7 +6570,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>204</v>
       </c>
@@ -6629,7 +6632,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>207</v>
       </c>
@@ -6667,7 +6670,7 @@
         <v>4779956</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>225</v>
       </c>
@@ -6702,7 +6705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>219</v>
       </c>
@@ -6740,7 +6743,7 @@
         <v>29309993</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>226</v>
       </c>
@@ -6784,7 +6787,7 @@
         <v>12283514</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>221</v>
       </c>
@@ -6819,7 +6822,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>244</v>
       </c>
@@ -6866,7 +6869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>253</v>
       </c>
@@ -6898,7 +6901,7 @@
         <v>14884412</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>259</v>
       </c>
@@ -6915,7 +6918,7 @@
         <v>34146646</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>227</v>
       </c>
@@ -6935,7 +6938,7 @@
         <v>1896399</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>242</v>
       </c>
@@ -6973,7 +6976,7 @@
         <v>1207367</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>210</v>
       </c>
@@ -7011,7 +7014,7 @@
         <v>13047077</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>265</v>
       </c>
@@ -7037,7 +7040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>257</v>
       </c>
@@ -7069,7 +7072,7 @@
         <v>482908</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>228</v>
       </c>
@@ -7107,7 +7110,7 @@
         <v>1456977</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>238</v>
       </c>
@@ -7121,7 +7124,7 @@
         <v>3175293</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>212</v>
       </c>
@@ -7171,7 +7174,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>213</v>
       </c>
@@ -7224,7 +7227,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>255</v>
       </c>
@@ -7259,7 +7262,7 @@
         <v>193975</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>215</v>
       </c>
@@ -7306,7 +7309,7 @@
         <v>81618257</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>223</v>
       </c>
@@ -7353,7 +7356,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>256</v>
       </c>
@@ -7370,7 +7373,7 @@
         <v>883637</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>217</v>
       </c>
@@ -7402,7 +7405,7 @@
         <v>2268955</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>240</v>
       </c>
@@ -7443,7 +7446,7 @@
         <v>28951772</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>224</v>
       </c>
@@ -7498,13 +7501,13 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="26" width="11.44140625" customWidth="1"/>
+    <col min="2" max="26" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>163</v>
       </c>
@@ -7512,7 +7515,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>114</v>
       </c>
@@ -7521,7 +7524,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -7530,7 +7533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>264</v>
       </c>
@@ -7539,7 +7542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -7548,7 +7551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>165</v>
       </c>
@@ -7557,7 +7560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -7566,7 +7569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>109</v>
       </c>
@@ -7575,7 +7578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>140</v>
       </c>
@@ -7584,7 +7587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>133</v>
       </c>
@@ -7593,7 +7596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>44</v>
       </c>
@@ -7602,7 +7605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>246</v>
       </c>
@@ -7611,7 +7614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>ROWS(A2:A12)</f>
         <v>11</v>
@@ -7621,986 +7624,986 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" custom